--- a/20170623-Matriz Tipología_CAM.xlsx
+++ b/20170623-Matriz Tipología_CAM.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCCS\01_Dmine\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="781" firstSheet="2" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="781" firstSheet="4" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="SUN Sistema Principal" sheetId="1" r:id="rId1"/>
@@ -35,12 +40,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SUN Sistema Principal'!$A$1:$BC$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Turísticas!$A$1:$C$136</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6760" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6758" uniqueCount="472">
   <si>
     <t>Nombre de la ciudad</t>
   </si>
@@ -1456,18 +1461,12 @@
   </si>
   <si>
     <t>oo</t>
-  </si>
-  <si>
-    <t>Renta</t>
-  </si>
-  <si>
-    <t>Mac</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-80A]d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -2202,6 +2201,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2232,14 +2235,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="62">
     <dxf>
@@ -2715,7 +2714,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2729,7 +2728,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2755,7 +2753,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2910,7 +2908,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4C6C-9847-BC56-BE974C8D0E63}"/>
             </c:ext>
@@ -2969,7 +2967,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="92071808"/>
@@ -3028,7 +3026,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="92070272"/>
@@ -3069,7 +3067,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3642,7 +3640,7 @@
         <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3918,7 +3916,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3933,7 +3931,7 @@
       <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
@@ -4149,7 +4147,7 @@
       </c>
     </row>
     <row r="2" spans="1:55" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="150">
+      <c r="A2" s="140">
         <v>1</v>
       </c>
       <c r="B2" s="3">
@@ -4165,7 +4163,7 @@
         <v>932369</v>
       </c>
       <c r="F2" s="36">
-        <f>(E2/$E$139)*100</f>
+        <f t="shared" ref="F2:F33" si="0">(E2/$E$139)*100</f>
         <v>1.2497366806801602</v>
       </c>
       <c r="G2" s="61" t="s">
@@ -4229,7 +4227,7 @@
         <v>9.9583333333333304</v>
       </c>
       <c r="AA2" s="52">
-        <f>AVERAGE(Z2,AB2)</f>
+        <f t="shared" ref="AA2:AA33" si="1">AVERAGE(Z2,AB2)</f>
         <v>18.825000000000014</v>
       </c>
       <c r="AB2" s="52">
@@ -4242,7 +4240,7 @@
         <v>43.75</v>
       </c>
       <c r="AE2" s="52">
-        <f>((AF2-E2)/E2)*100</f>
+        <f t="shared" ref="AE2:AE33" si="2">((AF2-E2)/E2)*100</f>
         <v>0.88724206149356999</v>
       </c>
       <c r="AF2" s="62">
@@ -4291,7 +4289,7 @@
         <v>368877</v>
       </c>
       <c r="AU2" s="53">
-        <f>(AT2/E2)*100</f>
+        <f t="shared" ref="AU2:AU33" si="3">(AT2/E2)*100</f>
         <v>39.563413197993498</v>
       </c>
       <c r="AV2" s="3">
@@ -4320,7 +4318,7 @@
       </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A3" s="150">
+      <c r="A3" s="140">
         <v>4</v>
       </c>
       <c r="B3" s="3">
@@ -4336,7 +4334,7 @@
         <v>1751430</v>
       </c>
       <c r="F3" s="36">
-        <f>(E3/$E$139)*100</f>
+        <f t="shared" si="0"/>
         <v>2.3475966217706223</v>
       </c>
       <c r="G3" s="139" t="s">
@@ -4400,7 +4398,7 @@
         <v>10.2388888888889</v>
       </c>
       <c r="AA3" s="52">
-        <f>AVERAGE(Z3,AB3)</f>
+        <f t="shared" si="1"/>
         <v>18.147222222222251</v>
       </c>
       <c r="AB3" s="52">
@@ -4413,7 +4411,7 @@
         <v>24.5833333333333</v>
       </c>
       <c r="AE3" s="52">
-        <f>((AF3-E3)/E3)*100</f>
+        <f t="shared" si="2"/>
         <v>2.1868515304596854</v>
       </c>
       <c r="AF3" s="62">
@@ -4462,7 +4460,7 @@
         <v>661856</v>
       </c>
       <c r="AU3" s="53">
-        <f>(AT3/E3)*100</f>
+        <f t="shared" si="3"/>
         <v>37.789463466995542</v>
       </c>
       <c r="AV3" s="3">
@@ -4491,7 +4489,7 @@
       </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A4" s="151">
+      <c r="A4" s="141">
         <v>3</v>
       </c>
       <c r="B4" s="3">
@@ -4507,7 +4505,7 @@
         <v>936826</v>
       </c>
       <c r="F4" s="36">
-        <f>(E4/$E$139)*100</f>
+        <f t="shared" si="0"/>
         <v>1.2557107922023061</v>
       </c>
       <c r="G4" s="61" t="s">
@@ -4571,7 +4569,7 @@
         <v>16.75</v>
       </c>
       <c r="AA4" s="52">
-        <f>AVERAGE(Z4,AB4)</f>
+        <f t="shared" si="1"/>
         <v>22.58333333333335</v>
       </c>
       <c r="AB4" s="52">
@@ -4584,7 +4582,7 @@
         <v>98.75</v>
       </c>
       <c r="AE4" s="52">
-        <f>((AF4-E4)/E4)*100</f>
+        <f t="shared" si="2"/>
         <v>2.2321306436873063</v>
       </c>
       <c r="AF4" s="62">
@@ -4633,7 +4631,7 @@
         <v>376269</v>
       </c>
       <c r="AU4" s="53">
-        <f>(AT4/E4)*100</f>
+        <f t="shared" si="3"/>
         <v>40.164235407642401</v>
       </c>
       <c r="AV4" s="3">
@@ -4662,7 +4660,7 @@
       </c>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A5" s="151">
+      <c r="A5" s="141">
         <v>26</v>
       </c>
       <c r="B5" s="3">
@@ -4678,7 +4676,7 @@
         <v>1215817</v>
       </c>
       <c r="F5" s="36">
-        <f>(E5/$E$139)*100</f>
+        <f t="shared" si="0"/>
         <v>1.6296671188065139</v>
       </c>
       <c r="G5" s="61" t="s">
@@ -4742,7 +4740,7 @@
         <v>7.93611111111111</v>
       </c>
       <c r="AA5" s="52">
-        <f>AVERAGE(Z5,AB5)</f>
+        <f t="shared" si="1"/>
         <v>16.370833333333355</v>
       </c>
       <c r="AB5" s="52">
@@ -4755,7 +4753,7 @@
         <v>65.625</v>
       </c>
       <c r="AE5" s="52">
-        <f>((AF5-E5)/E5)*100</f>
+        <f t="shared" si="2"/>
         <v>1.6155902752313938</v>
       </c>
       <c r="AF5" s="62">
@@ -4804,7 +4802,7 @@
         <v>373178</v>
       </c>
       <c r="AU5" s="53">
-        <f>(AT5/E5)*100</f>
+        <f t="shared" si="3"/>
         <v>30.693599447943239</v>
       </c>
       <c r="AV5" s="3" t="s">
@@ -4833,7 +4831,7 @@
       </c>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A6" s="151">
+      <c r="A6" s="141">
         <v>24</v>
       </c>
       <c r="B6" s="3">
@@ -4849,7 +4847,7 @@
         <v>823128</v>
       </c>
       <c r="F6" s="36">
-        <f>(E6/$E$139)*100</f>
+        <f t="shared" si="0"/>
         <v>1.1033113010995637</v>
       </c>
       <c r="G6" s="139" t="s">
@@ -4913,7 +4911,7 @@
         <v>11.858333333333301</v>
       </c>
       <c r="AA6" s="52">
-        <f>AVERAGE(Z6,AB6)</f>
+        <f t="shared" si="1"/>
         <v>20.74305555555555</v>
       </c>
       <c r="AB6" s="52">
@@ -4926,7 +4924,7 @@
         <v>100</v>
       </c>
       <c r="AE6" s="52">
-        <f>((AF6-E6)/E6)*100</f>
+        <f t="shared" si="2"/>
         <v>1.2156275031718007</v>
       </c>
       <c r="AF6" s="62">
@@ -4975,7 +4973,7 @@
         <v>309736</v>
       </c>
       <c r="AU6" s="53">
-        <f>(AT6/E6)*100</f>
+        <f t="shared" si="3"/>
         <v>37.629141518694539</v>
       </c>
       <c r="AV6" s="3" t="s">
@@ -5004,7 +5002,7 @@
       </c>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A7" s="151">
+      <c r="A7" s="141">
         <v>21</v>
       </c>
       <c r="B7" s="3">
@@ -5020,7 +5018,7 @@
         <v>317313</v>
       </c>
       <c r="F7" s="36">
-        <f>(E7/$E$139)*100</f>
+        <f t="shared" si="0"/>
         <v>0.42532269450900201</v>
       </c>
       <c r="G7" s="3" t="s">
@@ -5084,7 +5082,7 @@
         <v>11.641666666666699</v>
       </c>
       <c r="AA7" s="52">
-        <f>AVERAGE(Z7,AB7)</f>
+        <f t="shared" si="1"/>
         <v>20.350000000000001</v>
       </c>
       <c r="AB7" s="52">
@@ -5097,7 +5095,7 @@
         <v>100</v>
       </c>
       <c r="AE7" s="52">
-        <f>((AF7-E7)/E7)*100</f>
+        <f t="shared" si="2"/>
         <v>1.2567153873569645</v>
       </c>
       <c r="AF7" s="62">
@@ -5146,7 +5144,7 @@
         <v>119907</v>
       </c>
       <c r="AU7" s="53">
-        <f>(AT7/E7)*100</f>
+        <f t="shared" si="3"/>
         <v>37.788240633065776</v>
       </c>
       <c r="AV7" s="3" t="s">
@@ -5175,7 +5173,7 @@
       </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A8" s="150">
+      <c r="A8" s="140">
         <v>22</v>
       </c>
       <c r="B8" s="3">
@@ -5191,7 +5189,7 @@
         <v>180734</v>
       </c>
       <c r="F8" s="36">
-        <f>(E8/$E$139)*100</f>
+        <f t="shared" si="0"/>
         <v>0.24225377425252029</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -5255,7 +5253,7 @@
         <v>13.0666666666667</v>
       </c>
       <c r="AA8" s="52">
-        <f>AVERAGE(Z8,AB8)</f>
+        <f t="shared" si="1"/>
         <v>20.839583333333351</v>
       </c>
       <c r="AB8" s="52">
@@ -5268,7 +5266,7 @@
         <v>100</v>
       </c>
       <c r="AE8" s="52">
-        <f>((AF8-E8)/E8)*100</f>
+        <f t="shared" si="2"/>
         <v>1.1866292725043435</v>
       </c>
       <c r="AF8" s="62">
@@ -5317,7 +5315,7 @@
         <v>72372</v>
       </c>
       <c r="AU8" s="53">
-        <f>(AT8/E8)*100</f>
+        <f t="shared" si="3"/>
         <v>40.043378666991266</v>
       </c>
       <c r="AV8" s="3" t="s">
@@ -5346,7 +5344,7 @@
       </c>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A9" s="151">
+      <c r="A9" s="141">
         <v>27</v>
       </c>
       <c r="B9" s="3">
@@ -5362,7 +5360,7 @@
         <v>334240</v>
       </c>
       <c r="F9" s="36">
-        <f>(E9/$E$139)*100</f>
+        <f t="shared" si="0"/>
         <v>0.44801145056360386</v>
       </c>
       <c r="G9" s="3" t="s">
@@ -5426,7 +5424,7 @@
         <v>18.41</v>
       </c>
       <c r="AA9" s="52">
-        <f>AVERAGE(Z9,AB9)</f>
+        <f t="shared" si="1"/>
         <v>25.577500000000001</v>
       </c>
       <c r="AB9" s="52">
@@ -5439,7 +5437,7 @@
         <v>43</v>
       </c>
       <c r="AE9" s="52">
-        <f>((AF9-E9)/E9)*100</f>
+        <f t="shared" si="2"/>
         <v>1.2223276639277212</v>
       </c>
       <c r="AF9" s="62">
@@ -5488,7 +5486,7 @@
         <v>153109</v>
       </c>
       <c r="AU9" s="53">
-        <f>(AT9/E9)*100</f>
+        <f t="shared" si="3"/>
         <v>45.80810196266156</v>
       </c>
       <c r="AV9" s="3">
@@ -5517,7 +5515,7 @@
       </c>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A10" s="151">
+      <c r="A10" s="141">
         <v>29</v>
       </c>
       <c r="B10" s="3">
@@ -5533,7 +5531,7 @@
         <v>141421</v>
       </c>
       <c r="F10" s="36">
-        <f>(E10/$E$139)*100</f>
+        <f t="shared" si="0"/>
         <v>0.18955908134919644</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -5597,7 +5595,7 @@
         <v>16.75</v>
       </c>
       <c r="AA10" s="52">
-        <f>AVERAGE(Z10,AB10)</f>
+        <f t="shared" si="1"/>
         <v>23.662500000000001</v>
       </c>
       <c r="AB10" s="52">
@@ -5610,7 +5608,7 @@
         <v>33.75</v>
       </c>
       <c r="AE10" s="52">
-        <f>((AF10-E10)/E10)*100</f>
+        <f t="shared" si="2"/>
         <v>1.4260811550491175</v>
       </c>
       <c r="AF10" s="62">
@@ -5659,7 +5657,7 @@
         <v>54207</v>
       </c>
       <c r="AU10" s="53">
-        <f>(AT10/E10)*100</f>
+        <f t="shared" si="3"/>
         <v>38.330233840801583</v>
       </c>
       <c r="AV10" s="3">
@@ -5688,7 +5686,7 @@
       </c>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A11" s="151">
+      <c r="A11" s="141">
         <v>14</v>
       </c>
       <c r="B11" s="3">
@@ -5704,7 +5702,7 @@
         <v>684156</v>
       </c>
       <c r="F11" s="36">
-        <f>(E11/$E$139)*100</f>
+        <f t="shared" si="0"/>
         <v>0.91703483117458406</v>
       </c>
       <c r="G11" s="61" t="s">
@@ -5768,7 +5766,7 @@
         <v>20.266666666666701</v>
       </c>
       <c r="AA11" s="52">
-        <f>AVERAGE(Z11,AB11)</f>
+        <f t="shared" si="1"/>
         <v>26.116666666666703</v>
       </c>
       <c r="AB11" s="52">
@@ -5781,7 +5779,7 @@
         <v>7.9166666666666696</v>
       </c>
       <c r="AE11" s="52">
-        <f>((AF11-E11)/E11)*100</f>
+        <f t="shared" si="2"/>
         <v>2.3132819269931129</v>
       </c>
       <c r="AF11" s="62">
@@ -5830,7 +5828,7 @@
         <v>281749</v>
       </c>
       <c r="AU11" s="53">
-        <f>(AT11/E11)*100</f>
+        <f t="shared" si="3"/>
         <v>41.181981887171929</v>
       </c>
       <c r="AV11" s="3">
@@ -5859,7 +5857,7 @@
       </c>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A12" s="150">
+      <c r="A12" s="140">
         <v>19</v>
       </c>
       <c r="B12" s="3">
@@ -5875,7 +5873,7 @@
         <v>1332131</v>
       </c>
       <c r="F12" s="36">
-        <f>(E12/$E$139)*100</f>
+        <f t="shared" si="0"/>
         <v>1.7855730662121354</v>
       </c>
       <c r="G12" s="139" t="s">
@@ -5939,7 +5937,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="AA12" s="52">
-        <f>AVERAGE(Z12,AB12)</f>
+        <f t="shared" si="1"/>
         <v>18.462499999999999</v>
       </c>
       <c r="AB12" s="52">
@@ -5952,7 +5950,7 @@
         <v>37.5</v>
       </c>
       <c r="AE12" s="52">
-        <f>((AF12-E12)/E12)*100</f>
+        <f t="shared" si="2"/>
         <v>3.451538242822219</v>
       </c>
       <c r="AF12" s="62">
@@ -6001,7 +5999,7 @@
         <v>417216</v>
       </c>
       <c r="AU12" s="53">
-        <f>(AT12/E12)*100</f>
+        <f t="shared" si="3"/>
         <v>31.319442307100427</v>
       </c>
       <c r="AV12" s="3">
@@ -6030,7 +6028,7 @@
       </c>
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A13" s="151">
+      <c r="A13" s="141">
         <v>15</v>
       </c>
       <c r="B13" s="3">
@@ -6046,7 +6044,7 @@
         <v>852533</v>
       </c>
       <c r="F13" s="36">
-        <f>(E13/$E$139)*100</f>
+        <f t="shared" si="0"/>
         <v>1.1427254247945815</v>
       </c>
       <c r="G13" s="139" t="s">
@@ -6110,7 +6108,7 @@
         <v>7.3958333333333304</v>
       </c>
       <c r="AA13" s="52">
-        <f>AVERAGE(Z13,AB13)</f>
+        <f t="shared" si="1"/>
         <v>15.895833333333314</v>
       </c>
       <c r="AB13" s="52">
@@ -6123,7 +6121,7 @@
         <v>35</v>
       </c>
       <c r="AE13" s="52">
-        <f>((AF13-E13)/E13)*100</f>
+        <f t="shared" si="2"/>
         <v>3.5512330898166957</v>
       </c>
       <c r="AF13" s="62">
@@ -6172,7 +6170,7 @@
         <v>330427</v>
       </c>
       <c r="AU13" s="53">
-        <f>(AT13/E13)*100</f>
+        <f t="shared" si="3"/>
         <v>38.758265075956004</v>
       </c>
       <c r="AV13" s="3">
@@ -6201,7 +6199,7 @@
       </c>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A14" s="150">
+      <c r="A14" s="140">
         <v>10</v>
       </c>
       <c r="B14" s="3">
@@ -6217,7 +6215,7 @@
         <v>20116842</v>
       </c>
       <c r="F14" s="36">
-        <f>(E14/$E$139)*100</f>
+        <f t="shared" si="0"/>
         <v>26.964383572220051</v>
       </c>
       <c r="G14" s="139" t="s">
@@ -6281,7 +6279,7 @@
         <v>7.46313131313131</v>
       </c>
       <c r="AA14" s="52">
-        <f>AVERAGE(Z14,AB14)</f>
+        <f t="shared" si="1"/>
         <v>15.252777777777755</v>
       </c>
       <c r="AB14" s="52">
@@ -6294,7 +6292,7 @@
         <v>16.540570175438599</v>
       </c>
       <c r="AE14" s="52">
-        <f>((AF14-E14)/E14)*100</f>
+        <f t="shared" si="2"/>
         <v>1.913430102671184</v>
       </c>
       <c r="AF14" s="62">
@@ -6343,7 +6341,7 @@
         <v>6387561</v>
       </c>
       <c r="AU14" s="53">
-        <f>(AT14/E14)*100</f>
+        <f t="shared" si="3"/>
         <v>31.752304859778686</v>
       </c>
       <c r="AV14" s="3">
@@ -6372,7 +6370,7 @@
       </c>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A15" s="150">
+      <c r="A15" s="140">
         <v>37</v>
       </c>
       <c r="B15" s="3">
@@ -6388,7 +6386,7 @@
         <v>1609504</v>
       </c>
       <c r="F15" s="36">
-        <f>(E15/$E$139)*100</f>
+        <f t="shared" si="0"/>
         <v>2.1573606442314586</v>
       </c>
       <c r="G15" s="48" t="s">
@@ -6452,7 +6450,7 @@
         <v>10.0833333333333</v>
       </c>
       <c r="AA15" s="52">
-        <f>AVERAGE(Z15,AB15)</f>
+        <f t="shared" si="1"/>
         <v>17.264583333333299</v>
       </c>
       <c r="AB15" s="52">
@@ -6465,7 +6463,7 @@
         <v>33.75</v>
       </c>
       <c r="AE15" s="52">
-        <f>((AF15-E15)/E15)*100</f>
+        <f t="shared" si="2"/>
         <v>1.2792834979857179</v>
       </c>
       <c r="AF15" s="62">
@@ -6514,7 +6512,7 @@
         <v>562354</v>
       </c>
       <c r="AU15" s="53">
-        <f>(AT15/E15)*100</f>
+        <f t="shared" si="3"/>
         <v>34.939583871801503</v>
       </c>
       <c r="AV15" s="3">
@@ -6543,7 +6541,7 @@
       </c>
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A16" s="150">
+      <c r="A16" s="140">
         <v>40</v>
       </c>
       <c r="B16" s="3">
@@ -6559,7 +6557,7 @@
         <v>182365</v>
       </c>
       <c r="F16" s="36">
-        <f>(E16/$E$139)*100</f>
+        <f t="shared" si="0"/>
         <v>0.24443994788783996</v>
       </c>
       <c r="G16" s="3" t="s">
@@ -6623,7 +6621,7 @@
         <v>8.8666666666666707</v>
       </c>
       <c r="AA16" s="52">
-        <f>AVERAGE(Z16,AB16)</f>
+        <f t="shared" si="1"/>
         <v>17.724999999999987</v>
       </c>
       <c r="AB16" s="52">
@@ -6636,7 +6634,7 @@
         <v>25.625</v>
       </c>
       <c r="AE16" s="52">
-        <f>((AF16-E16)/E16)*100</f>
+        <f t="shared" si="2"/>
         <v>1.3856682945071639</v>
       </c>
       <c r="AF16" s="62">
@@ -6685,7 +6683,7 @@
         <v>66079</v>
       </c>
       <c r="AU16" s="53">
-        <f>(AT16/E16)*100</f>
+        <f t="shared" si="3"/>
         <v>36.234474816987913</v>
       </c>
       <c r="AV16" s="3">
@@ -6714,7 +6712,7 @@
       </c>
     </row>
     <row r="17" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A17" s="151">
+      <c r="A17" s="141">
         <v>38</v>
       </c>
       <c r="B17" s="3">
@@ -6730,7 +6728,7 @@
         <v>108669</v>
       </c>
       <c r="F17" s="36">
-        <f>(E17/$E$139)*100</f>
+        <f t="shared" si="0"/>
         <v>0.14565867736146562</v>
       </c>
       <c r="G17" s="3" t="s">
@@ -6794,7 +6792,7 @@
         <v>12.0875</v>
       </c>
       <c r="AA17" s="52">
-        <f>AVERAGE(Z17,AB17)</f>
+        <f t="shared" si="1"/>
         <v>20.17708333333335</v>
       </c>
       <c r="AB17" s="52">
@@ -6807,7 +6805,7 @@
         <v>23.75</v>
       </c>
       <c r="AE17" s="52">
-        <f>((AF17-E17)/E17)*100</f>
+        <f t="shared" si="2"/>
         <v>1.162535489695314</v>
       </c>
       <c r="AF17" s="62">
@@ -6856,7 +6854,7 @@
         <v>52116</v>
       </c>
       <c r="AU17" s="53">
-        <f>(AT17/E17)*100</f>
+        <f t="shared" si="3"/>
         <v>47.958479419153576</v>
       </c>
       <c r="AV17" s="3">
@@ -6885,7 +6883,7 @@
       </c>
     </row>
     <row r="18" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A18" s="151">
+      <c r="A18" s="141">
         <v>45</v>
       </c>
       <c r="B18" s="3">
@@ -6901,7 +6899,7 @@
         <v>863431</v>
       </c>
       <c r="F18" s="36">
-        <f>(E18/$E$139)*100</f>
+        <f t="shared" si="0"/>
         <v>1.1573329786129221</v>
       </c>
       <c r="G18" s="139" t="s">
@@ -6965,7 +6963,7 @@
         <v>18.5416666666667</v>
       </c>
       <c r="AA18" s="52">
-        <f>AVERAGE(Z18,AB18)</f>
+        <f t="shared" si="1"/>
         <v>25.779166666666701</v>
       </c>
       <c r="AB18" s="52">
@@ -6978,7 +6976,7 @@
         <v>45.625</v>
       </c>
       <c r="AE18" s="52">
-        <f>((AF18-E18)/E18)*100</f>
+        <f t="shared" si="2"/>
         <v>1.6382965638214313</v>
       </c>
       <c r="AF18" s="62">
@@ -7027,7 +7025,7 @@
         <v>270486</v>
       </c>
       <c r="AU18" s="53">
-        <f>(AT18/E18)*100</f>
+        <f t="shared" si="3"/>
         <v>31.326880781440554</v>
       </c>
       <c r="AV18" s="3">
@@ -7056,7 +7054,7 @@
       </c>
     </row>
     <row r="19" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A19" s="151">
+      <c r="A19" s="141">
         <v>50</v>
       </c>
       <c r="B19" s="3">
@@ -7072,7 +7070,7 @@
         <v>512196</v>
       </c>
       <c r="F19" s="36">
-        <f>(E19/$E$139)*100</f>
+        <f t="shared" si="0"/>
         <v>0.68654162557705734</v>
       </c>
       <c r="G19" s="139" t="s">
@@ -7136,7 +7134,7 @@
         <v>8.7895833333333293</v>
       </c>
       <c r="AA19" s="52">
-        <f>AVERAGE(Z19,AB19)</f>
+        <f t="shared" si="1"/>
         <v>16.023958333333315</v>
       </c>
       <c r="AB19" s="52">
@@ -7149,7 +7147,7 @@
         <v>19.821428571428601</v>
       </c>
       <c r="AE19" s="52">
-        <f>((AF19-E19)/E19)*100</f>
+        <f t="shared" si="2"/>
         <v>0.87573865894794156</v>
       </c>
       <c r="AF19" s="62">
@@ -7198,7 +7196,7 @@
         <v>232916</v>
       </c>
       <c r="AU19" s="53">
-        <f>(AT19/E19)*100</f>
+        <f t="shared" si="3"/>
         <v>45.473998235050644</v>
       </c>
       <c r="AV19" s="3">
@@ -7227,7 +7225,7 @@
       </c>
     </row>
     <row r="20" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A20" s="150">
+      <c r="A20" s="140">
         <v>52</v>
       </c>
       <c r="B20" s="3">
@@ -7243,7 +7241,7 @@
         <v>239579</v>
       </c>
       <c r="F20" s="36">
-        <f>(E20/$E$139)*100</f>
+        <f t="shared" si="0"/>
         <v>0.32112893523988051</v>
       </c>
       <c r="G20" s="3" t="s">
@@ -7307,7 +7305,7 @@
         <v>8.8333333333333304</v>
       </c>
       <c r="AA20" s="52">
-        <f>AVERAGE(Z20,AB20)</f>
+        <f t="shared" si="1"/>
         <v>15.840277777777764</v>
       </c>
       <c r="AB20" s="52">
@@ -7320,7 +7318,7 @@
         <v>33.75</v>
       </c>
       <c r="AE20" s="52">
-        <f>((AF20-E20)/E20)*100</f>
+        <f t="shared" si="2"/>
         <v>0.91528906727217674</v>
       </c>
       <c r="AF20" s="62">
@@ -7369,7 +7367,7 @@
         <v>77209</v>
       </c>
       <c r="AU20" s="53">
-        <f>(AT20/E20)*100</f>
+        <f t="shared" si="3"/>
         <v>32.226948104800506</v>
       </c>
       <c r="AV20" s="3">
@@ -7398,7 +7396,7 @@
       </c>
     </row>
     <row r="21" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A21" s="151">
+      <c r="A21" s="141">
         <v>51</v>
       </c>
       <c r="B21" s="3">
@@ -7414,7 +7412,7 @@
         <v>205812</v>
       </c>
       <c r="F21" s="36">
-        <f>(E21/$E$139)*100</f>
+        <f t="shared" si="0"/>
         <v>0.27586803692974043</v>
       </c>
       <c r="G21" s="3" t="s">
@@ -7478,7 +7476,7 @@
         <v>8.7166666666666703</v>
       </c>
       <c r="AA21" s="52">
-        <f>AVERAGE(Z21,AB21)</f>
+        <f t="shared" si="1"/>
         <v>16.541666666666686</v>
       </c>
       <c r="AB21" s="52">
@@ -7491,7 +7489,7 @@
         <v>32.75</v>
       </c>
       <c r="AE21" s="52">
-        <f>((AF21-E21)/E21)*100</f>
+        <f t="shared" si="2"/>
         <v>0.93125103259139241</v>
       </c>
       <c r="AF21" s="62">
@@ -7540,7 +7538,7 @@
         <v>79871</v>
       </c>
       <c r="AU21" s="53">
-        <f>(AT21/E21)*100</f>
+        <f t="shared" si="3"/>
         <v>38.807746875789555</v>
       </c>
       <c r="AV21" s="3">
@@ -7569,7 +7567,7 @@
       </c>
     </row>
     <row r="22" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A22" s="150">
+      <c r="A22" s="140">
         <v>55</v>
       </c>
       <c r="B22" s="3">
@@ -7585,7 +7583,7 @@
         <v>4434878</v>
       </c>
       <c r="F22" s="36">
-        <f>(E22/$E$139)*100</f>
+        <f t="shared" si="0"/>
         <v>5.9444594478596651</v>
       </c>
       <c r="G22" s="139" t="s">
@@ -7649,7 +7647,7 @@
         <v>11.53</v>
       </c>
       <c r="AA22" s="52">
-        <f>AVERAGE(Z22,AB22)</f>
+        <f t="shared" si="1"/>
         <v>19.942499999999999</v>
       </c>
       <c r="AB22" s="52">
@@ -7662,7 +7660,7 @@
         <v>55.15625</v>
       </c>
       <c r="AE22" s="52">
-        <f>((AF22-E22)/E22)*100</f>
+        <f t="shared" si="2"/>
         <v>1.2311036622272271</v>
       </c>
       <c r="AF22" s="62">
@@ -7711,7 +7709,7 @@
         <v>1552357</v>
       </c>
       <c r="AU22" s="53">
-        <f>(AT22/E22)*100</f>
+        <f t="shared" si="3"/>
         <v>35.003375515628612</v>
       </c>
       <c r="AV22" s="3">
@@ -7740,7 +7738,7 @@
       </c>
     </row>
     <row r="23" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A23" s="151">
+      <c r="A23" s="141">
         <v>59</v>
       </c>
       <c r="B23" s="3">
@@ -7756,7 +7754,7 @@
         <v>379886</v>
       </c>
       <c r="F23" s="36">
-        <f>(E23/$E$139)*100</f>
+        <f t="shared" si="0"/>
         <v>0.50919482380566428</v>
       </c>
       <c r="G23" s="3" t="s">
@@ -7820,7 +7818,7 @@
         <v>18.816666666666698</v>
       </c>
       <c r="AA23" s="52">
-        <f>AVERAGE(Z23,AB23)</f>
+        <f t="shared" si="1"/>
         <v>26.391666666666698</v>
       </c>
       <c r="AB23" s="52">
@@ -7833,7 +7831,7 @@
         <v>50.625</v>
       </c>
       <c r="AE23" s="52">
-        <f>((AF23-E23)/E23)*100</f>
+        <f t="shared" si="2"/>
         <v>1.7362652418064899</v>
       </c>
       <c r="AF23" s="62">
@@ -7882,7 +7880,7 @@
         <v>193156</v>
       </c>
       <c r="AU23" s="53">
-        <f>(AT23/E23)*100</f>
+        <f t="shared" si="3"/>
         <v>50.845780049804411</v>
       </c>
       <c r="AV23" s="3">
@@ -7911,7 +7909,7 @@
       </c>
     </row>
     <row r="24" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A24" s="151">
+      <c r="A24" s="141">
         <v>57</v>
       </c>
       <c r="B24" s="3">
@@ -7927,7 +7925,7 @@
         <v>141375</v>
       </c>
       <c r="F24" s="36">
-        <f>(E24/$E$139)*100</f>
+        <f t="shared" si="0"/>
         <v>0.18949742347842716</v>
       </c>
       <c r="G24" s="3" t="s">
@@ -7991,7 +7989,7 @@
         <v>13.6041666666667</v>
       </c>
       <c r="AA24" s="52">
-        <f>AVERAGE(Z24,AB24)</f>
+        <f t="shared" si="1"/>
         <v>21.170833333333348</v>
       </c>
       <c r="AB24" s="52">
@@ -8004,7 +8002,7 @@
         <v>33.75</v>
       </c>
       <c r="AE24" s="52">
-        <f>((AF24-E24)/E24)*100</f>
+        <f t="shared" si="2"/>
         <v>1.2924489678415634</v>
       </c>
       <c r="AF24" s="62">
@@ -8053,7 +8051,7 @@
         <v>54399</v>
       </c>
       <c r="AU24" s="53">
-        <f>(AT24/E24)*100</f>
+        <f t="shared" si="3"/>
         <v>38.478514588859412</v>
       </c>
       <c r="AV24" s="3">
@@ -8082,7 +8080,7 @@
       </c>
     </row>
     <row r="25" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A25" s="150">
+      <c r="A25" s="140">
         <v>61</v>
       </c>
       <c r="B25" s="3">
@@ -8098,7 +8096,7 @@
         <v>1936126</v>
       </c>
       <c r="F25" s="36">
-        <f>(E25/$E$139)*100</f>
+        <f t="shared" si="0"/>
         <v>2.5951610152402709</v>
       </c>
       <c r="G25" s="61" t="s">
@@ -8162,7 +8160,7 @@
         <v>7.1061111111111099</v>
       </c>
       <c r="AA25" s="52">
-        <f>AVERAGE(Z25,AB25)</f>
+        <f t="shared" si="1"/>
         <v>14.623611111111106</v>
       </c>
       <c r="AB25" s="52">
@@ -8175,7 +8173,7 @@
         <v>36.6666666666667</v>
       </c>
       <c r="AE25" s="52">
-        <f>((AF25-E25)/E25)*100</f>
+        <f t="shared" si="2"/>
         <v>2.6019361399361345</v>
       </c>
       <c r="AF25" s="62">
@@ -8224,7 +8222,7 @@
         <v>609926</v>
       </c>
       <c r="AU25" s="53">
-        <f>(AT25/E25)*100</f>
+        <f t="shared" si="3"/>
         <v>31.502391889784032</v>
       </c>
       <c r="AV25" s="3">
@@ -8253,7 +8251,7 @@
       </c>
     </row>
     <row r="26" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A26" s="151">
+      <c r="A26" s="141">
         <v>65</v>
       </c>
       <c r="B26" s="3">
@@ -8269,7 +8267,7 @@
         <v>829625</v>
       </c>
       <c r="F26" s="36">
-        <f>(E26/$E$139)*100</f>
+        <f t="shared" si="0"/>
         <v>1.1120198051514776</v>
       </c>
       <c r="G26" s="139" t="s">
@@ -8333,7 +8331,7 @@
         <v>11.827777777777801</v>
       </c>
       <c r="AA26" s="52">
-        <f>AVERAGE(Z26,AB26)</f>
+        <f t="shared" si="1"/>
         <v>19.577777777777801</v>
       </c>
       <c r="AB26" s="52">
@@ -8346,7 +8344,7 @@
         <v>43.3333333333333</v>
       </c>
       <c r="AE26" s="52">
-        <f>((AF26-E26)/E26)*100</f>
+        <f t="shared" si="2"/>
         <v>1.6002675322454165</v>
       </c>
       <c r="AF26" s="62">
@@ -8395,7 +8393,7 @@
         <v>362957</v>
       </c>
       <c r="AU26" s="53">
-        <f>(AT26/E26)*100</f>
+        <f t="shared" si="3"/>
         <v>43.749525387976497</v>
       </c>
       <c r="AV26" s="3">
@@ -8424,7 +8422,7 @@
       </c>
     </row>
     <row r="27" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A27" s="150">
+      <c r="A27" s="140">
         <v>70</v>
       </c>
       <c r="B27" s="3">
@@ -8440,7 +8438,7 @@
         <v>250113</v>
       </c>
       <c r="F27" s="36">
-        <f>(E27/$E$139)*100</f>
+        <f t="shared" si="0"/>
         <v>0.3352485876460467</v>
       </c>
       <c r="G27" s="3" t="s">
@@ -8504,7 +8502,7 @@
         <v>9.9166666666666696</v>
       </c>
       <c r="AA27" s="52">
-        <f>AVERAGE(Z27,AB27)</f>
+        <f t="shared" si="1"/>
         <v>17.897916666666685</v>
       </c>
       <c r="AB27" s="52">
@@ -8517,7 +8515,7 @@
         <v>32.5</v>
       </c>
       <c r="AE27" s="52">
-        <f>((AF27-E27)/E27)*100</f>
+        <f t="shared" si="2"/>
         <v>1.6195225663827959</v>
       </c>
       <c r="AF27" s="62">
@@ -8566,7 +8564,7 @@
         <v>104113</v>
       </c>
       <c r="AU27" s="53">
-        <f>(AT27/E27)*100</f>
+        <f t="shared" si="3"/>
         <v>41.626384874036937</v>
       </c>
       <c r="AV27" s="3">
@@ -8595,7 +8593,7 @@
       </c>
     </row>
     <row r="28" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A28" s="151">
+      <c r="A28" s="141">
         <v>44</v>
       </c>
       <c r="B28" s="3">
@@ -8611,7 +8609,7 @@
         <v>249512</v>
       </c>
       <c r="F28" s="36">
-        <f>(E28/$E$139)*100</f>
+        <f t="shared" si="0"/>
         <v>0.33444301416056105</v>
       </c>
       <c r="G28" s="3" t="s">
@@ -8675,7 +8673,7 @@
         <v>8.75</v>
       </c>
       <c r="AA28" s="52">
-        <f>AVERAGE(Z28,AB28)</f>
+        <f t="shared" si="1"/>
         <v>18.262499999999999</v>
       </c>
       <c r="AB28" s="52">
@@ -8688,7 +8686,7 @@
         <v>31.875</v>
       </c>
       <c r="AE28" s="52">
-        <f>((AF28-E28)/E28)*100</f>
+        <f t="shared" si="2"/>
         <v>1.4214261797320411</v>
       </c>
       <c r="AF28" s="62">
@@ -8737,7 +8735,7 @@
         <v>94273</v>
       </c>
       <c r="AU28" s="53">
-        <f>(AT28/E28)*100</f>
+        <f t="shared" si="3"/>
         <v>37.782952322934364</v>
       </c>
       <c r="AV28" s="3">
@@ -8766,7 +8764,7 @@
       </c>
     </row>
     <row r="29" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A29" s="150">
+      <c r="A29" s="140">
         <v>73</v>
       </c>
       <c r="B29" s="3">
@@ -8782,7 +8780,7 @@
         <v>924964</v>
       </c>
       <c r="F29" s="36">
-        <f>(E29/$E$139)*100</f>
+        <f t="shared" si="0"/>
         <v>1.2398111038748005</v>
       </c>
       <c r="G29" s="139" t="s">
@@ -8846,7 +8844,7 @@
         <v>13.277380952381</v>
       </c>
       <c r="AA29" s="52">
-        <f>AVERAGE(Z29,AB29)</f>
+        <f t="shared" si="1"/>
         <v>21.3232142857143</v>
       </c>
       <c r="AB29" s="52">
@@ -8859,7 +8857,7 @@
         <v>28.4375</v>
       </c>
       <c r="AE29" s="52">
-        <f>((AF29-E29)/E29)*100</f>
+        <f t="shared" si="2"/>
         <v>1.4535907915975144</v>
       </c>
       <c r="AF29" s="62">
@@ -8908,7 +8906,7 @@
         <v>401872</v>
       </c>
       <c r="AU29" s="53">
-        <f>(AT29/E29)*100</f>
+        <f t="shared" si="3"/>
         <v>43.447312544055769</v>
       </c>
       <c r="AV29" s="3">
@@ -8937,7 +8935,7 @@
       </c>
     </row>
     <row r="30" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A30" s="151">
+      <c r="A30" s="141">
         <v>72</v>
       </c>
       <c r="B30" s="3">
@@ -8953,7 +8951,7 @@
         <v>434147</v>
       </c>
       <c r="F30" s="36">
-        <f>(E30/$E$139)*100</f>
+        <f t="shared" si="0"/>
         <v>0.58192564393201562</v>
       </c>
       <c r="G30" s="3" t="s">
@@ -9017,7 +9015,7 @@
         <v>15.1916666666667</v>
       </c>
       <c r="AA30" s="52">
-        <f>AVERAGE(Z30,AB30)</f>
+        <f t="shared" si="1"/>
         <v>22.2291666666667</v>
       </c>
       <c r="AB30" s="52">
@@ -9030,7 +9028,7 @@
         <v>33.75</v>
       </c>
       <c r="AE30" s="52">
-        <f>((AF30-E30)/E30)*100</f>
+        <f t="shared" si="2"/>
         <v>1.5029611347861496</v>
       </c>
       <c r="AF30" s="62">
@@ -9079,7 +9077,7 @@
         <v>193878</v>
       </c>
       <c r="AU30" s="53">
-        <f>(AT30/E30)*100</f>
+        <f t="shared" si="3"/>
         <v>44.657224396345022</v>
       </c>
       <c r="AV30" s="3">
@@ -9108,7 +9106,7 @@
       </c>
     </row>
     <row r="31" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A31" s="151">
+      <c r="A31" s="141">
         <v>74</v>
       </c>
       <c r="B31" s="3">
@@ -9124,7 +9122,7 @@
         <v>429351</v>
       </c>
       <c r="F31" s="36">
-        <f>(E31/$E$139)*100</f>
+        <f t="shared" si="0"/>
         <v>0.57549714071007019</v>
       </c>
       <c r="G31" s="3" t="s">
@@ -9188,7 +9186,7 @@
         <v>19.8</v>
       </c>
       <c r="AA31" s="52">
-        <f>AVERAGE(Z31,AB31)</f>
+        <f t="shared" si="1"/>
         <v>26.737499999999997</v>
       </c>
       <c r="AB31" s="52">
@@ -9201,7 +9199,7 @@
         <v>55.625</v>
       </c>
       <c r="AE31" s="52">
-        <f>((AF31-E31)/E31)*100</f>
+        <f t="shared" si="2"/>
         <v>2.2279127092525752</v>
       </c>
       <c r="AF31" s="62">
@@ -9250,7 +9248,7 @@
         <v>180262</v>
       </c>
       <c r="AU31" s="53">
-        <f>(AT31/E31)*100</f>
+        <f t="shared" si="3"/>
         <v>41.984763049346576</v>
       </c>
       <c r="AV31" s="3">
@@ -9279,7 +9277,7 @@
       </c>
     </row>
     <row r="32" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A32" s="150">
+      <c r="A32" s="140">
         <v>76</v>
       </c>
       <c r="B32" s="3">
@@ -9295,7 +9293,7 @@
         <v>4106054</v>
       </c>
       <c r="F32" s="36">
-        <f>(E32/$E$139)*100</f>
+        <f t="shared" si="0"/>
         <v>5.5037075413848964</v>
       </c>
       <c r="G32" s="139" t="s">
@@ -9359,7 +9357,7 @@
         <v>14.591666666666701</v>
       </c>
       <c r="AA32" s="52">
-        <f>AVERAGE(Z32,AB32)</f>
+        <f t="shared" si="1"/>
         <v>21.310897435897452</v>
       </c>
       <c r="AB32" s="52">
@@ -9372,7 +9370,7 @@
         <v>26.3461538461539</v>
       </c>
       <c r="AE32" s="52">
-        <f>((AF32-E32)/E32)*100</f>
+        <f t="shared" si="2"/>
         <v>1.5012510404680515</v>
       </c>
       <c r="AF32" s="62">
@@ -9421,7 +9419,7 @@
         <v>1548465</v>
       </c>
       <c r="AU32" s="53">
-        <f>(AT32/E32)*100</f>
+        <f t="shared" si="3"/>
         <v>37.711754399722949</v>
       </c>
       <c r="AV32" s="3">
@@ -9450,7 +9448,7 @@
       </c>
     </row>
     <row r="33" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A33" s="150">
+      <c r="A33" s="140">
         <v>79</v>
       </c>
       <c r="B33" s="3">
@@ -9466,7 +9464,7 @@
         <v>607963</v>
       </c>
       <c r="F33" s="36">
-        <f>(E33/$E$139)*100</f>
+        <f t="shared" si="0"/>
         <v>0.81490661057623359</v>
       </c>
       <c r="G33" s="61" t="s">
@@ -9530,7 +9528,7 @@
         <v>14.765833333333299</v>
       </c>
       <c r="AA33" s="52">
-        <f>AVERAGE(Z33,AB33)</f>
+        <f t="shared" si="1"/>
         <v>22.038333333333298</v>
       </c>
       <c r="AB33" s="52">
@@ -9543,7 +9541,7 @@
         <v>19.147727272727298</v>
       </c>
       <c r="AE33" s="52">
-        <f>((AF33-E33)/E33)*100</f>
+        <f t="shared" si="2"/>
         <v>1.8188368064671789</v>
       </c>
       <c r="AF33" s="62">
@@ -9592,7 +9590,7 @@
         <v>273999</v>
       </c>
       <c r="AU33" s="53">
-        <f>(AT33/E33)*100</f>
+        <f t="shared" si="3"/>
         <v>45.068367647373279</v>
       </c>
       <c r="AV33" s="3">
@@ -9621,7 +9619,7 @@
       </c>
     </row>
     <row r="34" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A34" s="151">
+      <c r="A34" s="141">
         <v>81</v>
       </c>
       <c r="B34" s="3">
@@ -9637,7 +9635,7 @@
         <v>161337</v>
       </c>
       <c r="F34" s="36">
-        <f>(E34/$E$139)*100</f>
+        <f t="shared" ref="F34:F65" si="4">(E34/$E$139)*100</f>
         <v>0.21625425861530684</v>
       </c>
       <c r="G34" s="3" t="s">
@@ -9701,7 +9699,7 @@
         <v>11.574999999999999</v>
       </c>
       <c r="AA34" s="52">
-        <f>AVERAGE(Z34,AB34)</f>
+        <f t="shared" ref="AA34:AA65" si="5">AVERAGE(Z34,AB34)</f>
         <v>19.272916666666649</v>
       </c>
       <c r="AB34" s="52">
@@ -9714,7 +9712,7 @@
         <v>28.3333333333333</v>
       </c>
       <c r="AE34" s="52">
-        <f>((AF34-E34)/E34)*100</f>
+        <f t="shared" ref="AE34:AE65" si="6">((AF34-E34)/E34)*100</f>
         <v>1.7041603032373205</v>
       </c>
       <c r="AF34" s="62">
@@ -9763,7 +9761,7 @@
         <v>63019</v>
       </c>
       <c r="AU34" s="53">
-        <f>(AT34/E34)*100</f>
+        <f t="shared" ref="AU34:AU65" si="7">(AT34/E34)*100</f>
         <v>39.060475898275037</v>
       </c>
       <c r="AV34" s="3" t="s">
@@ -9792,7 +9790,7 @@
       </c>
     </row>
     <row r="35" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A35" s="151">
+      <c r="A35" s="141">
         <v>87</v>
       </c>
       <c r="B35" s="3">
@@ -9808,7 +9806,7 @@
         <v>2728790</v>
       </c>
       <c r="F35" s="36">
-        <f>(E35/$E$139)*100</f>
+        <f t="shared" si="4"/>
         <v>3.6576387212286279</v>
       </c>
       <c r="G35" s="139" t="s">
@@ -9872,7 +9870,7 @@
         <v>8.1493333333333293</v>
       </c>
       <c r="AA35" s="52">
-        <f>AVERAGE(Z35,AB35)</f>
+        <f t="shared" si="5"/>
         <v>16.003666666666664</v>
       </c>
       <c r="AB35" s="52">
@@ -9885,7 +9883,7 @@
         <v>18.269230769230798</v>
       </c>
       <c r="AE35" s="52">
-        <f>((AF35-E35)/E35)*100</f>
+        <f t="shared" si="6"/>
         <v>1.3724530690862971</v>
       </c>
       <c r="AF35" s="62">
@@ -9934,7 +9932,7 @@
         <v>1068524</v>
       </c>
       <c r="AU35" s="53">
-        <f>(AT35/E35)*100</f>
+        <f t="shared" si="7"/>
         <v>39.157428750471823</v>
       </c>
       <c r="AV35" s="3">
@@ -9963,7 +9961,7 @@
       </c>
     </row>
     <row r="36" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A36" s="150">
+      <c r="A36" s="140">
         <v>85</v>
       </c>
       <c r="B36" s="3">
@@ -9979,7 +9977,7 @@
         <v>296899</v>
       </c>
       <c r="F36" s="36">
-        <f>(E36/$E$139)*100</f>
+        <f t="shared" si="4"/>
         <v>0.39796000377238944</v>
       </c>
       <c r="G36" s="3" t="s">
@@ -10043,7 +10041,7 @@
         <v>10.558737373737401</v>
       </c>
       <c r="AA36" s="52">
-        <f>AVERAGE(Z36,AB36)</f>
+        <f t="shared" si="5"/>
         <v>18.018902417027448</v>
       </c>
       <c r="AB36" s="52">
@@ -10056,7 +10054,7 @@
         <v>25.625</v>
       </c>
       <c r="AE36" s="52">
-        <f>((AF36-E36)/E36)*100</f>
+        <f t="shared" si="6"/>
         <v>1.451074865654653</v>
       </c>
       <c r="AF36" s="62">
@@ -10105,7 +10103,7 @@
         <v>114030</v>
       </c>
       <c r="AU36" s="53">
-        <f>(AT36/E36)*100</f>
+        <f t="shared" si="7"/>
         <v>38.407000360391919</v>
       </c>
       <c r="AV36" s="3">
@@ -10134,7 +10132,7 @@
       </c>
     </row>
     <row r="37" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A37" s="150">
+      <c r="A37" s="140">
         <v>88</v>
       </c>
       <c r="B37" s="3">
@@ -10150,7 +10148,7 @@
         <v>1097025</v>
       </c>
       <c r="F37" s="36">
-        <f>(E37/$E$139)*100</f>
+        <f t="shared" si="4"/>
         <v>1.4704396887103206</v>
       </c>
       <c r="G37" s="139" t="s">
@@ -10214,7 +10212,7 @@
         <v>13.25</v>
       </c>
       <c r="AA37" s="52">
-        <f>AVERAGE(Z37,AB37)</f>
+        <f t="shared" si="5"/>
         <v>21.172916666666652</v>
       </c>
       <c r="AB37" s="52">
@@ -10227,7 +10225,7 @@
         <v>53.4375</v>
       </c>
       <c r="AE37" s="52">
-        <f>((AF37-E37)/E37)*100</f>
+        <f t="shared" si="6"/>
         <v>1.0803880566796549</v>
       </c>
       <c r="AF37" s="62">
@@ -10276,7 +10274,7 @@
         <v>473578</v>
       </c>
       <c r="AU37" s="53">
-        <f>(AT37/E37)*100</f>
+        <f t="shared" si="7"/>
         <v>43.169298785351288</v>
       </c>
       <c r="AV37" s="3">
@@ -10305,7 +10303,7 @@
       </c>
     </row>
     <row r="38" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A38" s="151">
+      <c r="A38" s="141">
         <v>90</v>
       </c>
       <c r="B38" s="3">
@@ -10321,7 +10319,7 @@
         <v>677379</v>
       </c>
       <c r="F38" s="36">
-        <f>(E38/$E$139)*100</f>
+        <f t="shared" si="4"/>
         <v>0.90795101834407443</v>
       </c>
       <c r="G38" s="61" t="s">
@@ -10385,7 +10383,7 @@
         <v>20.283333333333299</v>
       </c>
       <c r="AA38" s="52">
-        <f>AVERAGE(Z38,AB38)</f>
+        <f t="shared" si="5"/>
         <v>26.054166666666649</v>
       </c>
       <c r="AB38" s="52">
@@ -10398,7 +10396,7 @@
         <v>25</v>
       </c>
       <c r="AE38" s="52">
-        <f>((AF38-E38)/E38)*100</f>
+        <f t="shared" si="6"/>
         <v>1.9224876440257241</v>
       </c>
       <c r="AF38" s="62">
@@ -10447,7 +10445,7 @@
         <v>293673</v>
       </c>
       <c r="AU38" s="53">
-        <f>(AT38/E38)*100</f>
+        <f t="shared" si="7"/>
         <v>43.354311249684443</v>
       </c>
       <c r="AV38" s="3">
@@ -10476,7 +10474,7 @@
       </c>
     </row>
     <row r="39" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A39" s="150">
+      <c r="A39" s="140">
         <v>97</v>
       </c>
       <c r="B39" s="3">
@@ -10492,7 +10490,7 @@
         <v>1040443</v>
       </c>
       <c r="F39" s="36">
-        <f>(E39/$E$139)*100</f>
+        <f t="shared" si="4"/>
         <v>1.3945978268871102</v>
       </c>
       <c r="G39" s="139" t="s">
@@ -10556,7 +10554,7 @@
         <v>16.3333333333333</v>
       </c>
       <c r="AA39" s="52">
-        <f>AVERAGE(Z39,AB39)</f>
+        <f t="shared" si="5"/>
         <v>22.925000000000001</v>
       </c>
       <c r="AB39" s="52">
@@ -10569,7 +10567,7 @@
         <v>31.25</v>
       </c>
       <c r="AE39" s="52">
-        <f>((AF39-E39)/E39)*100</f>
+        <f t="shared" si="6"/>
         <v>1.1774823880193301</v>
       </c>
       <c r="AF39" s="62">
@@ -10618,7 +10616,7 @@
         <v>416288</v>
       </c>
       <c r="AU39" s="53">
-        <f>(AT39/E39)*100</f>
+        <f t="shared" si="7"/>
         <v>40.010649309957394</v>
       </c>
       <c r="AV39" s="3">
@@ -10647,7 +10645,7 @@
       </c>
     </row>
     <row r="40" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A40" s="151">
+      <c r="A40" s="141">
         <v>96</v>
       </c>
       <c r="B40" s="3">
@@ -10663,7 +10661,7 @@
         <v>135452</v>
       </c>
       <c r="F40" s="36">
-        <f>(E40/$E$139)*100</f>
+        <f t="shared" si="4"/>
         <v>0.18155830242263424</v>
       </c>
       <c r="G40" s="3" t="s">
@@ -10727,7 +10725,7 @@
         <v>9.8333333333333304</v>
       </c>
       <c r="AA40" s="52">
-        <f>AVERAGE(Z40,AB40)</f>
+        <f t="shared" si="5"/>
         <v>18.095833333333314</v>
       </c>
       <c r="AB40" s="52">
@@ -10740,7 +10738,7 @@
         <v>28.75</v>
       </c>
       <c r="AE40" s="52">
-        <f>((AF40-E40)/E40)*100</f>
+        <f t="shared" si="6"/>
         <v>1.2466149728494158</v>
       </c>
       <c r="AF40" s="62">
@@ -10789,7 +10787,7 @@
         <v>52023</v>
       </c>
       <c r="AU40" s="53">
-        <f>(AT40/E40)*100</f>
+        <f t="shared" si="7"/>
         <v>38.406963352331452</v>
       </c>
       <c r="AV40" s="3">
@@ -10818,7 +10816,7 @@
       </c>
     </row>
     <row r="41" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A41" s="151">
+      <c r="A41" s="141">
         <v>105</v>
       </c>
       <c r="B41" s="3">
@@ -10834,7 +10832,7 @@
         <v>203430</v>
       </c>
       <c r="F41" s="36">
-        <f>(E41/$E$139)*100</f>
+        <f t="shared" si="4"/>
         <v>0.27267523153468748</v>
       </c>
       <c r="G41" s="3" t="s">
@@ -10898,7 +10896,7 @@
         <v>12.591666666666701</v>
       </c>
       <c r="AA41" s="52">
-        <f>AVERAGE(Z41,AB41)</f>
+        <f t="shared" si="5"/>
         <v>21.897916666666703</v>
       </c>
       <c r="AB41" s="52">
@@ -10911,7 +10909,7 @@
         <v>38.125</v>
       </c>
       <c r="AE41" s="52">
-        <f>((AF41-E41)/E41)*100</f>
+        <f t="shared" si="6"/>
         <v>2.3988842926033516</v>
       </c>
       <c r="AF41" s="62">
@@ -10960,7 +10958,7 @@
         <v>75674</v>
       </c>
       <c r="AU41" s="53">
-        <f>(AT41/E41)*100</f>
+        <f t="shared" si="7"/>
         <v>37.199036523619917</v>
       </c>
       <c r="AV41" s="3">
@@ -10989,7 +10987,7 @@
       </c>
     </row>
     <row r="42" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A42" s="151">
+      <c r="A42" s="141">
         <v>113</v>
       </c>
       <c r="B42" s="3">
@@ -11005,7 +11003,7 @@
         <v>755425</v>
       </c>
       <c r="F42" s="36">
-        <f>(E42/$E$139)*100</f>
+        <f t="shared" si="4"/>
         <v>1.012562978823631</v>
       </c>
       <c r="G42" s="139" t="s">
@@ -11069,7 +11067,7 @@
         <v>21.45</v>
       </c>
       <c r="AA42" s="52">
-        <f>AVERAGE(Z42,AB42)</f>
+        <f t="shared" si="5"/>
         <v>26.672916666666652</v>
       </c>
       <c r="AB42" s="52">
@@ -11082,7 +11080,7 @@
         <v>39.375</v>
       </c>
       <c r="AE42" s="52">
-        <f>((AF42-E42)/E42)*100</f>
+        <f t="shared" si="6"/>
         <v>0.6781794326275874</v>
       </c>
       <c r="AF42" s="62">
@@ -11131,7 +11129,7 @@
         <v>286192</v>
       </c>
       <c r="AU42" s="53">
-        <f>(AT42/E42)*100</f>
+        <f t="shared" si="7"/>
         <v>37.884899228910882</v>
       </c>
       <c r="AV42" s="3">
@@ -11160,7 +11158,7 @@
       </c>
     </row>
     <row r="43" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A43" s="151">
+      <c r="A43" s="141">
         <v>119</v>
       </c>
       <c r="B43" s="3">
@@ -11176,7 +11174,7 @@
         <v>859419</v>
       </c>
       <c r="F43" s="36">
-        <f>(E43/$E$139)*100</f>
+        <f t="shared" si="4"/>
         <v>1.1519553399710443</v>
       </c>
       <c r="G43" s="139" t="s">
@@ -11240,7 +11238,7 @@
         <v>18.1316666666667</v>
       </c>
       <c r="AA43" s="52">
-        <f>AVERAGE(Z43,AB43)</f>
+        <f t="shared" si="5"/>
         <v>24.419166666666698</v>
       </c>
       <c r="AB43" s="52">
@@ -11253,7 +11251,7 @@
         <v>37.5</v>
       </c>
       <c r="AE43" s="52">
-        <f>((AF43-E43)/E43)*100</f>
+        <f t="shared" si="6"/>
         <v>1.8592019431629989</v>
       </c>
       <c r="AF43" s="62">
@@ -11302,7 +11300,7 @@
         <v>341177</v>
       </c>
       <c r="AU43" s="53">
-        <f>(AT43/E43)*100</f>
+        <f t="shared" si="7"/>
         <v>39.698563797169953</v>
       </c>
       <c r="AV43" s="3">
@@ -11331,7 +11329,7 @@
       </c>
     </row>
     <row r="44" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A44" s="150">
+      <c r="A44" s="140">
         <v>118</v>
       </c>
       <c r="B44" s="3">
@@ -11347,7 +11345,7 @@
         <v>727150</v>
       </c>
       <c r="F44" s="36">
-        <f>(E44/$E$139)*100</f>
+        <f t="shared" si="4"/>
         <v>0.97466349412794562</v>
       </c>
       <c r="G44" s="139" t="s">
@@ -11411,7 +11409,7 @@
         <v>17.508333333333301</v>
       </c>
       <c r="AA44" s="52">
-        <f>AVERAGE(Z44,AB44)</f>
+        <f t="shared" si="5"/>
         <v>23.727083333333301</v>
       </c>
       <c r="AB44" s="52">
@@ -11424,7 +11422,7 @@
         <v>42.5</v>
       </c>
       <c r="AE44" s="52">
-        <f>((AF44-E44)/E44)*100</f>
+        <f t="shared" si="6"/>
         <v>2.0269331422311727</v>
       </c>
       <c r="AF44" s="62">
@@ -11473,7 +11471,7 @@
         <v>274977</v>
       </c>
       <c r="AU44" s="53">
-        <f>(AT44/E44)*100</f>
+        <f t="shared" si="7"/>
         <v>37.815718902564811</v>
       </c>
       <c r="AV44" s="3">
@@ -11502,7 +11500,7 @@
       </c>
     </row>
     <row r="45" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A45" s="151">
+      <c r="A45" s="141">
         <v>116</v>
       </c>
       <c r="B45" s="3">
@@ -11518,7 +11516,7 @@
         <v>489193</v>
       </c>
       <c r="F45" s="36">
-        <f>(E45/$E$139)*100</f>
+        <f t="shared" si="4"/>
         <v>0.65570866902692992</v>
       </c>
       <c r="G45" s="3" t="s">
@@ -11582,7 +11580,7 @@
         <v>16.823370577281199</v>
       </c>
       <c r="AA45" s="52">
-        <f>AVERAGE(Z45,AB45)</f>
+        <f t="shared" si="5"/>
         <v>23.352863128491599</v>
       </c>
       <c r="AB45" s="52">
@@ -11595,7 +11593,7 @@
         <v>42.5</v>
       </c>
       <c r="AE45" s="52">
-        <f>((AF45-E45)/E45)*100</f>
+        <f t="shared" si="6"/>
         <v>1.9949176549267897</v>
       </c>
       <c r="AF45" s="62">
@@ -11644,7 +11642,7 @@
         <v>173171</v>
       </c>
       <c r="AU45" s="53">
-        <f>(AT45/E45)*100</f>
+        <f t="shared" si="7"/>
         <v>35.399320922417118</v>
       </c>
       <c r="AV45" s="3">
@@ -11673,7 +11671,7 @@
       </c>
     </row>
     <row r="46" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A46" s="151">
+      <c r="A46" s="141">
         <v>117</v>
       </c>
       <c r="B46" s="3">
@@ -11689,7 +11687,7 @@
         <v>384033</v>
       </c>
       <c r="F46" s="36">
-        <f>(E46/$E$139)*100</f>
+        <f t="shared" si="4"/>
         <v>0.51475341489436477</v>
       </c>
       <c r="G46" s="3" t="s">
@@ -11753,7 +11751,7 @@
         <v>16.823370577281199</v>
       </c>
       <c r="AA46" s="52">
-        <f>AVERAGE(Z46,AB46)</f>
+        <f t="shared" si="5"/>
         <v>23.352863128491599</v>
       </c>
       <c r="AB46" s="52">
@@ -11766,7 +11764,7 @@
         <v>58.75</v>
       </c>
       <c r="AE46" s="52">
-        <f>((AF46-E46)/E46)*100</f>
+        <f t="shared" si="6"/>
         <v>1.9832279102306265</v>
       </c>
       <c r="AF46" s="62">
@@ -11815,7 +11813,7 @@
         <v>130935</v>
       </c>
       <c r="AU46" s="53">
-        <f>(AT46/E46)*100</f>
+        <f t="shared" si="7"/>
         <v>34.094726234464225</v>
       </c>
       <c r="AV46" s="3">
@@ -11844,7 +11842,7 @@
       </c>
     </row>
     <row r="47" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A47" s="150">
+      <c r="A47" s="140">
         <v>121</v>
       </c>
       <c r="B47" s="3">
@@ -11860,7 +11858,7 @@
         <v>499567</v>
       </c>
       <c r="F47" s="36">
-        <f>(E47/$E$139)*100</f>
+        <f t="shared" si="4"/>
         <v>0.66961385927389871</v>
       </c>
       <c r="G47" s="3" t="s">
@@ -11924,7 +11922,7 @@
         <v>5.4203703703703701</v>
       </c>
       <c r="AA47" s="52">
-        <f>AVERAGE(Z47,AB47)</f>
+        <f t="shared" si="5"/>
         <v>14.072685185185186</v>
       </c>
       <c r="AB47" s="52">
@@ -11937,7 +11935,7 @@
         <v>11.644736842105299</v>
       </c>
       <c r="AE47" s="52">
-        <f>((AF47-E47)/E47)*100</f>
+        <f t="shared" si="6"/>
         <v>1.3404997402172332</v>
       </c>
       <c r="AF47" s="62">
@@ -11986,7 +11984,7 @@
         <v>183672</v>
       </c>
       <c r="AU47" s="53">
-        <f>(AT47/E47)*100</f>
+        <f t="shared" si="7"/>
         <v>36.766239563461959</v>
       </c>
       <c r="AV47" s="3">
@@ -12015,7 +12013,7 @@
       </c>
     </row>
     <row r="48" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A48" s="151">
+      <c r="A48" s="141">
         <v>131</v>
       </c>
       <c r="B48" s="3">
@@ -12031,7 +12029,7 @@
         <v>811671</v>
       </c>
       <c r="F48" s="36">
-        <f>(E48/$E$139)*100</f>
+        <f t="shared" si="4"/>
         <v>1.0879544701125268</v>
       </c>
       <c r="G48" s="139" t="s">
@@ -12095,7 +12093,7 @@
         <v>19.9516666666667</v>
       </c>
       <c r="AA48" s="52">
-        <f>AVERAGE(Z48,AB48)</f>
+        <f t="shared" si="5"/>
         <v>25.314166666666701</v>
       </c>
       <c r="AB48" s="52">
@@ -12108,7 +12106,7 @@
         <v>26.25</v>
       </c>
       <c r="AE48" s="52">
-        <f>((AF48-E48)/E48)*100</f>
+        <f t="shared" si="6"/>
         <v>0.84975979438146798</v>
       </c>
       <c r="AF48" s="62">
@@ -12157,7 +12155,7 @@
         <v>371238</v>
       </c>
       <c r="AU48" s="53">
-        <f>(AT48/E48)*100</f>
+        <f t="shared" si="7"/>
         <v>45.737497089337921</v>
       </c>
       <c r="AV48" s="3">
@@ -12186,7 +12184,7 @@
       </c>
     </row>
     <row r="49" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A49" s="151">
+      <c r="A49" s="141">
         <v>132</v>
       </c>
       <c r="B49" s="3">
@@ -12202,7 +12200,7 @@
         <v>666535</v>
       </c>
       <c r="F49" s="36">
-        <f>(E49/$E$139)*100</f>
+        <f t="shared" si="4"/>
         <v>0.89341584550446296</v>
       </c>
       <c r="G49" s="139" t="s">
@@ -12266,7 +12264,7 @@
         <v>17.8125</v>
       </c>
       <c r="AA49" s="52">
-        <f>AVERAGE(Z49,AB49)</f>
+        <f t="shared" si="5"/>
         <v>23.728472222222202</v>
       </c>
       <c r="AB49" s="52">
@@ -12279,7 +12277,7 @@
         <v>20.8928571428571</v>
       </c>
       <c r="AE49" s="52">
-        <f>((AF49-E49)/E49)*100</f>
+        <f t="shared" si="6"/>
         <v>0.86766862500063324</v>
       </c>
       <c r="AF49" s="62">
@@ -12328,7 +12326,7 @@
         <v>285167</v>
       </c>
       <c r="AU49" s="53">
-        <f>(AT49/E49)*100</f>
+        <f t="shared" si="7"/>
         <v>42.783499741198888</v>
       </c>
       <c r="AV49" s="3">
@@ -12357,7 +12355,7 @@
       </c>
     </row>
     <row r="50" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A50" s="151">
+      <c r="A50" s="141">
         <v>128</v>
       </c>
       <c r="B50" s="3">
@@ -12373,7 +12371,7 @@
         <v>513518</v>
       </c>
       <c r="F50" s="36">
-        <f>(E50/$E$139)*100</f>
+        <f t="shared" si="4"/>
         <v>0.68831361916742684</v>
       </c>
       <c r="G50" s="139" t="s">
@@ -12437,7 +12435,7 @@
         <v>14.7816666666667</v>
       </c>
       <c r="AA50" s="52">
-        <f>AVERAGE(Z50,AB50)</f>
+        <f t="shared" si="5"/>
         <v>19.658333333333349</v>
       </c>
       <c r="AB50" s="52">
@@ -12450,7 +12448,7 @@
         <v>21.75</v>
       </c>
       <c r="AE50" s="52">
-        <f>((AF50-E50)/E50)*100</f>
+        <f t="shared" si="6"/>
         <v>0.87934865604321133</v>
       </c>
       <c r="AF50" s="62">
@@ -12499,7 +12497,7 @@
         <v>194329</v>
       </c>
       <c r="AU50" s="53">
-        <f>(AT50/E50)*100</f>
+        <f t="shared" si="7"/>
         <v>37.84268516390857</v>
       </c>
       <c r="AV50" s="3">
@@ -12528,7 +12526,7 @@
       </c>
     </row>
     <row r="51" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A51" s="150">
+      <c r="A51" s="140">
         <v>127</v>
       </c>
       <c r="B51" s="3">
@@ -12544,7 +12542,7 @@
         <v>427406</v>
       </c>
       <c r="F51" s="36">
-        <f>(E51/$E$139)*100</f>
+        <f t="shared" si="4"/>
         <v>0.57289008508732553</v>
       </c>
       <c r="G51" s="3" t="s">
@@ -12608,7 +12606,7 @@
         <v>16.540740740740699</v>
       </c>
       <c r="AA51" s="52">
-        <f>AVERAGE(Z51,AB51)</f>
+        <f t="shared" si="5"/>
         <v>22.0087962962963</v>
       </c>
       <c r="AB51" s="52">
@@ -12621,7 +12619,7 @@
         <v>19.0625</v>
       </c>
       <c r="AE51" s="52">
-        <f>((AF51-E51)/E51)*100</f>
+        <f t="shared" si="6"/>
         <v>0.88130463246749313</v>
       </c>
       <c r="AF51" s="62">
@@ -12670,7 +12668,7 @@
         <v>135555</v>
       </c>
       <c r="AU51" s="53">
-        <f>(AT51/E51)*100</f>
+        <f t="shared" si="7"/>
         <v>31.715745684431194</v>
       </c>
       <c r="AV51" s="3">
@@ -12699,7 +12697,7 @@
       </c>
     </row>
     <row r="52" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A52" s="151">
+      <c r="A52" s="141">
         <v>126</v>
       </c>
       <c r="B52" s="3">
@@ -12715,7 +12713,7 @@
         <v>356137</v>
       </c>
       <c r="F52" s="36">
-        <f>(E52/$E$139)*100</f>
+        <f t="shared" si="4"/>
         <v>0.47736193743827848</v>
       </c>
       <c r="G52" s="3" t="s">
@@ -12779,7 +12777,7 @@
         <v>18.126666666666701</v>
       </c>
       <c r="AA52" s="52">
-        <f>AVERAGE(Z52,AB52)</f>
+        <f t="shared" si="5"/>
         <v>23.335000000000001</v>
       </c>
       <c r="AB52" s="52">
@@ -12792,7 +12790,7 @@
         <v>16.875</v>
       </c>
       <c r="AE52" s="52">
-        <f>((AF52-E52)/E52)*100</f>
+        <f t="shared" si="6"/>
         <v>0.9616848758604144</v>
       </c>
       <c r="AF52" s="62">
@@ -12841,7 +12839,7 @@
         <v>126658</v>
       </c>
       <c r="AU52" s="53">
-        <f>(AT52/E52)*100</f>
+        <f t="shared" si="7"/>
         <v>35.564403586260347</v>
       </c>
       <c r="AV52" s="3">
@@ -12870,7 +12868,7 @@
       </c>
     </row>
     <row r="53" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A53" s="151">
+      <c r="A53" s="141">
         <v>123</v>
       </c>
       <c r="B53" s="3">
@@ -12886,7 +12884,7 @@
         <v>347257</v>
       </c>
       <c r="F53" s="36">
-        <f>(E53/$E$139)*100</f>
+        <f t="shared" si="4"/>
         <v>0.46545928760281646</v>
       </c>
       <c r="G53" s="3" t="s">
@@ -12950,7 +12948,7 @@
         <v>16.4166666666667</v>
       </c>
       <c r="AA53" s="52">
-        <f>AVERAGE(Z53,AB53)</f>
+        <f t="shared" si="5"/>
         <v>22.433333333333351</v>
       </c>
       <c r="AB53" s="52">
@@ -12963,7 +12961,7 @@
         <v>18.75</v>
       </c>
       <c r="AE53" s="52">
-        <f>((AF53-E53)/E53)*100</f>
+        <f t="shared" si="6"/>
         <v>0.95123966576628349</v>
       </c>
       <c r="AF53" s="62">
@@ -13012,7 +13010,7 @@
         <v>159248</v>
       </c>
       <c r="AU53" s="53">
-        <f>(AT53/E53)*100</f>
+        <f t="shared" si="7"/>
         <v>45.858830779509127</v>
       </c>
       <c r="AV53" s="3">
@@ -13041,7 +13039,7 @@
       </c>
     </row>
     <row r="54" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A54" s="151">
+      <c r="A54" s="141">
         <v>122</v>
       </c>
       <c r="B54" s="3">
@@ -13057,7 +13055,7 @@
         <v>112996</v>
       </c>
       <c r="F54" s="36">
-        <f>(E54/$E$139)*100</f>
+        <f t="shared" si="4"/>
         <v>0.15145853837926335</v>
       </c>
       <c r="G54" s="3" t="s">
@@ -13121,7 +13119,7 @@
         <v>19.100000000000001</v>
       </c>
       <c r="AA54" s="52">
-        <f>AVERAGE(Z54,AB54)</f>
+        <f t="shared" si="5"/>
         <v>25.054166666666653</v>
       </c>
       <c r="AB54" s="52">
@@ -13134,7 +13132,7 @@
         <v>199</v>
       </c>
       <c r="AE54" s="52">
-        <f>((AF54-E54)/E54)*100</f>
+        <f t="shared" si="6"/>
         <v>0.99585299750079359</v>
       </c>
       <c r="AF54" s="62">
@@ -13183,7 +13181,7 @@
         <v>42265</v>
       </c>
       <c r="AU54" s="53">
-        <f>(AT54/E54)*100</f>
+        <f t="shared" si="7"/>
         <v>37.403978901908033</v>
       </c>
       <c r="AV54" s="3">
@@ -13212,7 +13210,7 @@
       </c>
     </row>
     <row r="55" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A55" s="150">
+      <c r="A55" s="140">
         <v>124</v>
       </c>
       <c r="B55" s="3">
@@ -13228,7 +13226,7 @@
         <v>316032</v>
       </c>
       <c r="F55" s="36">
-        <f>(E55/$E$139)*100</f>
+        <f t="shared" si="4"/>
         <v>0.42360565684692691</v>
       </c>
       <c r="G55" s="3" t="s">
@@ -13292,7 +13290,7 @@
         <v>20.1944444444444</v>
       </c>
       <c r="AA55" s="52">
-        <f>AVERAGE(Z55,AB55)</f>
+        <f t="shared" si="5"/>
         <v>25.816666666666649</v>
       </c>
       <c r="AB55" s="52">
@@ -13305,7 +13303,7 @@
         <v>22.5</v>
       </c>
       <c r="AE55" s="52">
-        <f>((AF55-E55)/E55)*100</f>
+        <f t="shared" si="6"/>
         <v>0.8952678768494956</v>
       </c>
       <c r="AF55" s="62">
@@ -13354,7 +13352,7 @@
         <v>123028</v>
       </c>
       <c r="AU55" s="53">
-        <f>(AT55/E55)*100</f>
+        <f t="shared" si="7"/>
         <v>38.92896921830701</v>
       </c>
       <c r="AV55" s="3">
@@ -13383,7 +13381,7 @@
       </c>
     </row>
     <row r="56" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A56" s="150">
+      <c r="A56" s="140">
         <v>133</v>
       </c>
       <c r="B56" s="3">
@@ -13399,7 +13397,7 @@
         <v>973046</v>
       </c>
       <c r="F56" s="36">
-        <f>(E56/$E$139)*100</f>
+        <f t="shared" si="4"/>
         <v>1.3042596634906429</v>
       </c>
       <c r="G56" s="61" t="s">
@@ -13463,7 +13461,7 @@
         <v>19.308333333333302</v>
       </c>
       <c r="AA56" s="52">
-        <f>AVERAGE(Z56,AB56)</f>
+        <f t="shared" si="5"/>
         <v>26.077083333333302</v>
       </c>
       <c r="AB56" s="52">
@@ -13476,7 +13474,7 @@
         <v>22</v>
       </c>
       <c r="AE56" s="52">
-        <f>((AF56-E56)/E56)*100</f>
+        <f t="shared" si="6"/>
         <v>1.1967992449814286</v>
       </c>
       <c r="AF56" s="62">
@@ -13525,7 +13523,7 @@
         <v>437389</v>
       </c>
       <c r="AU56" s="53">
-        <f>(AT56/E56)*100</f>
+        <f t="shared" si="7"/>
         <v>44.950495660020181</v>
       </c>
       <c r="AV56" s="3">
@@ -13554,7 +13552,7 @@
       </c>
     </row>
     <row r="57" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A57" s="151">
+      <c r="A57" s="141">
         <v>135</v>
       </c>
       <c r="B57" s="3">
@@ -13570,7 +13568,7 @@
         <v>309660</v>
       </c>
       <c r="F57" s="36">
-        <f>(E57/$E$139)*100</f>
+        <f t="shared" si="4"/>
         <v>0.415064701356886</v>
       </c>
       <c r="G57" s="3" t="s">
@@ -13634,7 +13632,7 @@
         <v>10.5972222222222</v>
       </c>
       <c r="AA57" s="52">
-        <f>AVERAGE(Z57,AB57)</f>
+        <f t="shared" si="5"/>
         <v>19.748611111111099</v>
       </c>
       <c r="AB57" s="52">
@@ -13647,7 +13645,7 @@
         <v>46.6666666666667</v>
       </c>
       <c r="AE57" s="52">
-        <f>((AF57-E57)/E57)*100</f>
+        <f t="shared" si="6"/>
         <v>1.2506671776667997</v>
       </c>
       <c r="AF57" s="62">
@@ -13696,7 +13694,7 @@
         <v>134903</v>
       </c>
       <c r="AU57" s="53">
-        <f>(AT57/E57)*100</f>
+        <f t="shared" si="7"/>
         <v>43.564877607698769</v>
       </c>
       <c r="AV57" s="3">
@@ -13725,7 +13723,7 @@
       </c>
     </row>
     <row r="58" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A58" s="151">
+      <c r="A58" s="141">
         <v>32</v>
       </c>
       <c r="B58" s="3">
@@ -13741,7 +13739,7 @@
         <v>602045</v>
       </c>
       <c r="F58" s="36">
-        <f>(E58/$E$139)*100</f>
+        <f t="shared" si="4"/>
         <v>0.8069741914629156</v>
       </c>
       <c r="G58" s="139" t="s">
@@ -13805,7 +13803,7 @@
         <v>10.9333333333333</v>
       </c>
       <c r="AA58" s="52">
-        <f>AVERAGE(Z58,AB58)</f>
+        <f t="shared" si="5"/>
         <v>18.668055555555551</v>
       </c>
       <c r="AB58" s="52">
@@ -13818,7 +13816,7 @@
         <v>30.8333333333333</v>
       </c>
       <c r="AE58" s="52">
-        <f>((AF58-E58)/E58)*100</f>
+        <f t="shared" si="6"/>
         <v>1.2841522257417626</v>
       </c>
       <c r="AF58" s="62">
@@ -13867,7 +13865,7 @@
         <v>223476</v>
       </c>
       <c r="AU58" s="53">
-        <f>(AT58/E58)*100</f>
+        <f t="shared" si="7"/>
         <v>37.119484423921797</v>
       </c>
       <c r="AV58" s="3">
@@ -13896,7 +13894,7 @@
       </c>
     </row>
     <row r="59" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A59" s="151">
+      <c r="A59" s="141">
         <v>60</v>
       </c>
       <c r="B59" s="3">
@@ -13912,7 +13910,7 @@
         <v>157944</v>
       </c>
       <c r="F59" s="36">
-        <f>(E59/$E$139)*100</f>
+        <f t="shared" si="4"/>
         <v>0.21170632045182458</v>
       </c>
       <c r="G59" s="3" t="s">
@@ -13976,7 +13974,7 @@
         <v>11.7</v>
       </c>
       <c r="AA59" s="52">
-        <f>AVERAGE(Z59,AB59)</f>
+        <f t="shared" si="5"/>
         <v>18.75083333333335</v>
       </c>
       <c r="AB59" s="52">
@@ -13989,7 +13987,7 @@
         <v>199</v>
       </c>
       <c r="AE59" s="52">
-        <f>((AF59-E59)/E59)*100</f>
+        <f t="shared" si="6"/>
         <v>2.6299167394842535</v>
       </c>
       <c r="AF59" s="62">
@@ -14038,7 +14036,7 @@
         <v>41965</v>
       </c>
       <c r="AU59" s="53">
-        <f>(AT59/E59)*100</f>
+        <f t="shared" si="7"/>
         <v>26.56954363571899</v>
       </c>
       <c r="AV59" s="3">
@@ -14067,7 +14065,7 @@
       </c>
     </row>
     <row r="60" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A60" s="151">
+      <c r="A60" s="141">
         <v>86</v>
       </c>
       <c r="B60" s="3">
@@ -14083,7 +14081,7 @@
         <v>122500</v>
       </c>
       <c r="F60" s="36">
-        <f>(E60/$E$139)*100</f>
+        <f t="shared" si="4"/>
         <v>0.16419759063559558</v>
       </c>
       <c r="G60" s="3" t="s">
@@ -14147,7 +14145,7 @@
         <v>11.545833333333301</v>
       </c>
       <c r="AA60" s="52">
-        <f>AVERAGE(Z60,AB60)</f>
+        <f t="shared" si="5"/>
         <v>17.3958333333333</v>
       </c>
       <c r="AB60" s="52">
@@ -14160,7 +14158,7 @@
         <v>199</v>
       </c>
       <c r="AE60" s="52">
-        <f>((AF60-E60)/E60)*100</f>
+        <f t="shared" si="6"/>
         <v>1.4746169170310213</v>
       </c>
       <c r="AF60" s="62">
@@ -14209,7 +14207,7 @@
         <v>42910</v>
       </c>
       <c r="AU60" s="53">
-        <f>(AT60/E60)*100</f>
+        <f t="shared" si="7"/>
         <v>35.028571428571432</v>
       </c>
       <c r="AV60" s="3">
@@ -14238,7 +14236,7 @@
       </c>
     </row>
     <row r="61" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A61" s="151">
+      <c r="A61" s="141">
         <v>2</v>
       </c>
       <c r="B61" s="3">
@@ -14254,7 +14252,7 @@
         <v>288597</v>
       </c>
       <c r="F61" s="36">
-        <f>(E61/$E$139)*100</f>
+        <f t="shared" si="4"/>
         <v>0.38683209848702843</v>
       </c>
       <c r="G61" s="3" t="s">
@@ -14318,7 +14316,7 @@
         <v>13.8858574327752</v>
       </c>
       <c r="AA61" s="52">
-        <f>AVERAGE(Z61,AB61)</f>
+        <f t="shared" si="5"/>
         <v>21.254784288791001</v>
       </c>
       <c r="AB61" s="52">
@@ -14331,7 +14329,7 @@
         <v>199</v>
       </c>
       <c r="AE61" s="52">
-        <f>((AF61-E61)/E61)*100</f>
+        <f t="shared" si="6"/>
         <v>2.2624009222285708</v>
       </c>
       <c r="AF61" s="62">
@@ -14380,7 +14378,7 @@
         <v>120021.96374358999</v>
       </c>
       <c r="AU61" s="53">
-        <f>(AT61/E61)*100</f>
+        <f t="shared" si="7"/>
         <v>41.588084333374916</v>
       </c>
       <c r="AV61" s="3">
@@ -14409,7 +14407,7 @@
       </c>
     </row>
     <row r="62" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A62" s="150">
+      <c r="A62" s="140">
         <v>7</v>
       </c>
       <c r="B62" s="3">
@@ -14425,7 +14423,7 @@
         <v>87488</v>
       </c>
       <c r="F62" s="36">
-        <f>(E62/$E$139)*100</f>
+        <f t="shared" si="4"/>
         <v>0.11726790864919989</v>
       </c>
       <c r="G62" s="3" t="s">
@@ -14489,7 +14487,7 @@
         <v>14.675000000000001</v>
       </c>
       <c r="AA62" s="52">
-        <f>AVERAGE(Z62,AB62)</f>
+        <f t="shared" si="5"/>
         <v>22.566666666666649</v>
       </c>
       <c r="AB62" s="52">
@@ -14502,7 +14500,7 @@
         <v>199</v>
       </c>
       <c r="AE62" s="52">
-        <f>((AF62-E62)/E62)*100</f>
+        <f t="shared" si="6"/>
         <v>2.0048125637942413</v>
       </c>
       <c r="AF62" s="62">
@@ -14551,7 +14549,7 @@
         <v>39954.2974837203</v>
       </c>
       <c r="AU62" s="53">
-        <f>(AT62/E62)*100</f>
+        <f t="shared" si="7"/>
         <v>45.668317350631291</v>
       </c>
       <c r="AV62" s="3">
@@ -14580,7 +14578,7 @@
       </c>
     </row>
     <row r="63" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A63" s="151">
+      <c r="A63" s="141">
         <v>5</v>
       </c>
       <c r="B63" s="3">
@@ -14596,7 +14594,7 @@
         <v>128057</v>
       </c>
       <c r="F63" s="36">
-        <f>(E63/$E$139)*100</f>
+        <f t="shared" si="4"/>
         <v>0.17164612950222422</v>
       </c>
       <c r="G63" s="3" t="s">
@@ -14660,7 +14658,7 @@
         <v>14.675000000000001</v>
       </c>
       <c r="AA63" s="52">
-        <f>AVERAGE(Z63,AB63)</f>
+        <f t="shared" si="5"/>
         <v>22.566666666666649</v>
       </c>
       <c r="AB63" s="52">
@@ -14673,7 +14671,7 @@
         <v>23.75</v>
       </c>
       <c r="AE63" s="52">
-        <f>((AF63-E63)/E63)*100</f>
+        <f t="shared" si="6"/>
         <v>2.004812563794252</v>
       </c>
       <c r="AF63" s="62">
@@ -14722,7 +14720,7 @@
         <v>58481.477149697901</v>
       </c>
       <c r="AU63" s="53">
-        <f>(AT63/E63)*100</f>
+        <f t="shared" si="7"/>
         <v>45.668317350631284</v>
       </c>
       <c r="AV63" s="3">
@@ -14751,7 +14749,7 @@
       </c>
     </row>
     <row r="64" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A64" s="151">
+      <c r="A64" s="141">
         <v>8</v>
       </c>
       <c r="B64" s="3">
@@ -14767,7 +14765,7 @@
         <v>228670</v>
       </c>
       <c r="F64" s="36">
-        <f>(E64/$E$139)*100</f>
+        <f t="shared" si="4"/>
         <v>0.30650663714809506</v>
       </c>
       <c r="G64" s="3" t="s">
@@ -14831,7 +14829,7 @@
         <v>20.524999999999999</v>
       </c>
       <c r="AA64" s="52">
-        <f>AVERAGE(Z64,AB64)</f>
+        <f t="shared" si="5"/>
         <v>27.529166666666651</v>
       </c>
       <c r="AB64" s="52">
@@ -14844,7 +14842,7 @@
         <v>50</v>
       </c>
       <c r="AE64" s="52">
-        <f>((AF64-E64)/E64)*100</f>
+        <f t="shared" si="6"/>
         <v>1.7245037990698371</v>
       </c>
       <c r="AF64" s="62">
@@ -14893,7 +14891,7 @@
         <v>90991.245497191194</v>
       </c>
       <c r="AU64" s="53">
-        <f>(AT64/E64)*100</f>
+        <f t="shared" si="7"/>
         <v>39.79150981641282</v>
       </c>
       <c r="AV64" s="3">
@@ -14922,7 +14920,7 @@
       </c>
     </row>
     <row r="65" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A65" s="150">
+      <c r="A65" s="140">
         <v>28</v>
       </c>
       <c r="B65" s="3">
@@ -14938,7 +14936,7 @@
         <v>140290</v>
       </c>
       <c r="F65" s="36">
-        <f>(E65/$E$139)*100</f>
+        <f t="shared" si="4"/>
         <v>0.18804310196136903</v>
       </c>
       <c r="G65" s="3" t="s">
@@ -15002,7 +15000,7 @@
         <v>15.4333333333333</v>
       </c>
       <c r="AA65" s="52">
-        <f>AVERAGE(Z65,AB65)</f>
+        <f t="shared" si="5"/>
         <v>23.516666666666652</v>
       </c>
       <c r="AB65" s="52">
@@ -15015,7 +15013,7 @@
         <v>55</v>
       </c>
       <c r="AE65" s="52">
-        <f>((AF65-E65)/E65)*100</f>
+        <f t="shared" si="6"/>
         <v>1.2849357241193342</v>
       </c>
       <c r="AF65" s="62">
@@ -15064,7 +15062,7 @@
         <v>70618.659088093205</v>
       </c>
       <c r="AU65" s="53">
-        <f>(AT65/E65)*100</f>
+        <f t="shared" si="7"/>
         <v>50.337628546648517</v>
       </c>
       <c r="AV65" s="3">
@@ -15093,7 +15091,7 @@
       </c>
     </row>
     <row r="66" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A66" s="150">
+      <c r="A66" s="140">
         <v>13</v>
       </c>
       <c r="B66" s="3">
@@ -15109,7 +15107,7 @@
         <v>215235</v>
       </c>
       <c r="F66" s="36">
-        <f>(E66/$E$139)*100</f>
+        <f t="shared" ref="F66:F97" si="8">(E66/$E$139)*100</f>
         <v>0.28849851771797896</v>
       </c>
       <c r="G66" s="3" t="s">
@@ -15173,7 +15171,7 @@
         <v>18.108333333333299</v>
       </c>
       <c r="AA66" s="52">
-        <f>AVERAGE(Z66,AB66)</f>
+        <f t="shared" ref="AA66:AA97" si="9">AVERAGE(Z66,AB66)</f>
         <v>23.558333333333302</v>
       </c>
       <c r="AB66" s="52">
@@ -15186,7 +15184,7 @@
         <v>12.5</v>
       </c>
       <c r="AE66" s="52">
-        <f>((AF66-E66)/E66)*100</f>
+        <f t="shared" ref="AE66:AE97" si="10">((AF66-E66)/E66)*100</f>
         <v>2.2322620582196162</v>
       </c>
       <c r="AF66" s="62">
@@ -15235,7 +15233,7 @@
         <v>81963.005420485497</v>
       </c>
       <c r="AU66" s="53">
-        <f>(AT66/E66)*100</f>
+        <f t="shared" ref="AU66:AU97" si="11">(AT66/E66)*100</f>
         <v>38.080705006381628</v>
       </c>
       <c r="AV66" s="3">
@@ -15264,7 +15262,7 @@
       </c>
     </row>
     <row r="67" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A67" s="151">
+      <c r="A67" s="141">
         <v>35</v>
       </c>
       <c r="B67" s="3">
@@ -15280,7 +15278,7 @@
         <v>110011</v>
       </c>
       <c r="F67" s="36">
-        <f>(E67/$E$139)*100</f>
+        <f t="shared" si="8"/>
         <v>0.14745747872173476</v>
       </c>
       <c r="G67" s="3" t="s">
@@ -15344,7 +15342,7 @@
         <v>9.3333333333333304</v>
       </c>
       <c r="AA67" s="52">
-        <f>AVERAGE(Z67,AB67)</f>
+        <f t="shared" si="9"/>
         <v>17.250000000000014</v>
       </c>
       <c r="AB67" s="52">
@@ -15357,7 +15355,7 @@
         <v>18.75</v>
       </c>
       <c r="AE67" s="52">
-        <f>((AF67-E67)/E67)*100</f>
+        <f t="shared" si="10"/>
         <v>1.3744875875230698</v>
       </c>
       <c r="AF67" s="62">
@@ -15406,7 +15404,7 @@
         <v>39037.442655888699</v>
       </c>
       <c r="AU67" s="53">
-        <f>(AT67/E67)*100</f>
+        <f t="shared" si="11"/>
         <v>35.48503572905318</v>
       </c>
       <c r="AV67" s="3">
@@ -15435,7 +15433,7 @@
       </c>
     </row>
     <row r="68" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A68" s="151">
+      <c r="A68" s="141">
         <v>36</v>
       </c>
       <c r="B68" s="3">
@@ -15451,7 +15449,7 @@
         <v>393862</v>
       </c>
       <c r="F68" s="36">
-        <f>(E68/$E$139)*100</f>
+        <f t="shared" si="8"/>
         <v>0.52792809341156699</v>
       </c>
       <c r="G68" s="3" t="s">
@@ -15515,7 +15513,7 @@
         <v>9.2583333333333293</v>
       </c>
       <c r="AA68" s="52">
-        <f>AVERAGE(Z68,AB68)</f>
+        <f t="shared" si="9"/>
         <v>18.150000000000013</v>
       </c>
       <c r="AB68" s="52">
@@ -15528,7 +15526,7 @@
         <v>37.5</v>
       </c>
       <c r="AE68" s="52">
-        <f>((AF68-E68)/E68)*100</f>
+        <f t="shared" si="10"/>
         <v>1.3399367181647384</v>
       </c>
       <c r="AF68" s="62">
@@ -15577,7 +15575,7 @@
         <v>123573.607362496</v>
       </c>
       <c r="AU68" s="53">
-        <f>(AT68/E68)*100</f>
+        <f t="shared" si="11"/>
         <v>31.374848896947661</v>
       </c>
       <c r="AV68" s="3">
@@ -15606,7 +15604,7 @@
       </c>
     </row>
     <row r="69" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A69" s="151">
+      <c r="A69" s="141">
         <v>41</v>
       </c>
       <c r="B69" s="3">
@@ -15622,7 +15620,7 @@
         <v>56630</v>
       </c>
       <c r="F69" s="36">
-        <f>(E69/$E$139)*100</f>
+        <f t="shared" si="8"/>
         <v>7.5906200470969631E-2</v>
       </c>
       <c r="G69" s="3" t="s">
@@ -15686,7 +15684,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="AA69" s="52">
-        <f>AVERAGE(Z69,AB69)</f>
+        <f t="shared" si="9"/>
         <v>17.691666666666649</v>
       </c>
       <c r="AB69" s="52">
@@ -15699,7 +15697,7 @@
         <v>199</v>
       </c>
       <c r="AE69" s="52">
-        <f>((AF69-E69)/E69)*100</f>
+        <f t="shared" si="10"/>
         <v>1.3862304187614372</v>
       </c>
       <c r="AF69" s="62">
@@ -15748,7 +15746,7 @@
         <v>16721.753562288199</v>
       </c>
       <c r="AU69" s="53">
-        <f>(AT69/E69)*100</f>
+        <f t="shared" si="11"/>
         <v>29.528083281455409</v>
       </c>
       <c r="AV69" s="3">
@@ -15777,7 +15775,7 @@
       </c>
     </row>
     <row r="70" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A70" s="150">
+      <c r="A70" s="140">
         <v>46</v>
       </c>
       <c r="B70" s="3">
@@ -15793,7 +15791,7 @@
         <v>197052</v>
       </c>
       <c r="F70" s="36">
-        <f>(E70/$E$139)*100</f>
+        <f t="shared" si="8"/>
         <v>0.26412623371367661</v>
       </c>
       <c r="G70" s="3" t="s">
@@ -15857,7 +15855,7 @@
         <v>19.1666666666667</v>
       </c>
       <c r="AA70" s="52">
-        <f>AVERAGE(Z70,AB70)</f>
+        <f t="shared" si="9"/>
         <v>26.675000000000001</v>
       </c>
       <c r="AB70" s="52">
@@ -15870,7 +15868,7 @@
         <v>13.75</v>
       </c>
       <c r="AE70" s="52">
-        <f>((AF70-E70)/E70)*100</f>
+        <f t="shared" si="10"/>
         <v>1.7211267470814795</v>
       </c>
       <c r="AF70" s="62">
@@ -15919,7 +15917,7 @@
         <v>78898.408734180906</v>
       </c>
       <c r="AU70" s="53">
-        <f>(AT70/E70)*100</f>
+        <f t="shared" si="11"/>
         <v>40.039384900524176</v>
       </c>
       <c r="AV70" s="3">
@@ -15948,7 +15946,7 @@
       </c>
     </row>
     <row r="71" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A71" s="150">
+      <c r="A71" s="140">
         <v>64</v>
       </c>
       <c r="B71" s="3">
@@ -15964,7 +15962,7 @@
         <v>137306</v>
       </c>
       <c r="F71" s="36">
-        <f>(E71/$E$139)*100</f>
+        <f t="shared" si="8"/>
         <v>0.18404338269233542</v>
       </c>
       <c r="G71" s="3" t="s">
@@ -16028,7 +16026,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="AA71" s="52">
-        <f>AVERAGE(Z71,AB71)</f>
+        <f t="shared" si="9"/>
         <v>17.524999999999999</v>
       </c>
       <c r="AB71" s="52">
@@ -16041,7 +16039,7 @@
         <v>199</v>
       </c>
       <c r="AE71" s="52">
-        <f>((AF71-E71)/E71)*100</f>
+        <f t="shared" si="10"/>
         <v>1.7047264413485148</v>
       </c>
       <c r="AF71" s="62">
@@ -16090,7 +16088,7 @@
         <v>57761.323274632698</v>
       </c>
       <c r="AU71" s="53">
-        <f>(AT71/E71)*100</f>
+        <f t="shared" si="11"/>
         <v>42.067588652085632</v>
       </c>
       <c r="AV71" s="3">
@@ -16119,7 +16117,7 @@
       </c>
     </row>
     <row r="72" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A72" s="151">
+      <c r="A72" s="141">
         <v>68</v>
       </c>
       <c r="B72" s="3">
@@ -16135,7 +16133,7 @@
         <v>276839</v>
       </c>
       <c r="F72" s="36">
-        <f>(E72/$E$139)*100</f>
+        <f t="shared" si="8"/>
         <v>0.37107181056300126</v>
       </c>
       <c r="G72" s="3" t="s">
@@ -16199,7 +16197,7 @@
         <v>22.5416666666667</v>
       </c>
       <c r="AA72" s="52">
-        <f>AVERAGE(Z72,AB72)</f>
+        <f t="shared" si="9"/>
         <v>27.233333333333348</v>
       </c>
       <c r="AB72" s="52">
@@ -16212,7 +16210,7 @@
         <v>43.75</v>
       </c>
       <c r="AE72" s="52">
-        <f>((AF72-E72)/E72)*100</f>
+        <f t="shared" si="10"/>
         <v>1.6151156432442593</v>
       </c>
       <c r="AF72" s="62">
@@ -16261,7 +16259,7 @@
         <v>106717.549887427</v>
       </c>
       <c r="AU72" s="53">
-        <f>(AT72/E72)*100</f>
+        <f t="shared" si="11"/>
         <v>38.548596797209569</v>
       </c>
       <c r="AV72" s="3">
@@ -16290,7 +16288,7 @@
       </c>
     </row>
     <row r="73" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A73" s="151">
+      <c r="A73" s="141">
         <v>71</v>
       </c>
       <c r="B73" s="3">
@@ -16306,7 +16304,7 @@
         <v>90520</v>
       </c>
       <c r="F73" s="36">
-        <f>(E73/$E$139)*100</f>
+        <f t="shared" si="8"/>
         <v>0.12133196656599277</v>
       </c>
       <c r="G73" s="3" t="s">
@@ -16370,7 +16368,7 @@
         <v>20.6666666666667</v>
       </c>
       <c r="AA73" s="52">
-        <f>AVERAGE(Z73,AB73)</f>
+        <f t="shared" si="9"/>
         <v>26.620833333333351</v>
       </c>
       <c r="AB73" s="52">
@@ -16383,7 +16381,7 @@
         <v>199</v>
       </c>
       <c r="AE73" s="52">
-        <f>((AF73-E73)/E73)*100</f>
+        <f t="shared" si="10"/>
         <v>1.5453777054584636</v>
       </c>
       <c r="AF73" s="62">
@@ -16432,7 +16430,7 @@
         <v>29970.993094757399</v>
       </c>
       <c r="AU73" s="53">
-        <f>(AT73/E73)*100</f>
+        <f t="shared" si="11"/>
         <v>33.109802358326782</v>
       </c>
       <c r="AV73" s="3">
@@ -16461,7 +16459,7 @@
       </c>
     </row>
     <row r="74" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A74" s="151">
+      <c r="A74" s="141">
         <v>80</v>
       </c>
       <c r="B74" s="3">
@@ -16477,7 +16475,7 @@
         <v>105182</v>
       </c>
       <c r="F74" s="36">
-        <f>(E74/$E$139)*100</f>
+        <f t="shared" si="8"/>
         <v>0.14098474267945485</v>
       </c>
       <c r="G74" s="3" t="s">
@@ -16541,7 +16539,7 @@
         <v>15.675000000000001</v>
       </c>
       <c r="AA74" s="52">
-        <f>AVERAGE(Z74,AB74)</f>
+        <f t="shared" si="9"/>
         <v>23.245833333333351</v>
       </c>
       <c r="AB74" s="52">
@@ -16554,7 +16552,7 @@
         <v>199</v>
       </c>
       <c r="AE74" s="52">
-        <f>((AF74-E74)/E74)*100</f>
+        <f t="shared" si="10"/>
         <v>1.6921681351324405</v>
       </c>
       <c r="AF74" s="62">
@@ -16603,7 +16601,7 @@
         <v>39208.767189245402</v>
       </c>
       <c r="AU74" s="53">
-        <f>(AT74/E74)*100</f>
+        <f t="shared" si="11"/>
         <v>37.277069450329336</v>
       </c>
       <c r="AV74" s="3">
@@ -16632,7 +16630,7 @@
       </c>
     </row>
     <row r="75" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A75" s="150">
+      <c r="A75" s="140">
         <v>82</v>
       </c>
       <c r="B75" s="3">
@@ -16648,7 +16646,7 @@
         <v>59552</v>
       </c>
       <c r="F75" s="36">
-        <f>(E75/$E$139)*100</f>
+        <f t="shared" si="8"/>
         <v>7.98228156533142E-2</v>
       </c>
       <c r="G75" s="3" t="s">
@@ -16712,7 +16710,7 @@
         <v>13.445833333333301</v>
       </c>
       <c r="AA75" s="52">
-        <f>AVERAGE(Z75,AB75)</f>
+        <f t="shared" si="9"/>
         <v>20.439583333333303</v>
       </c>
       <c r="AB75" s="52">
@@ -16725,7 +16723,7 @@
         <v>199</v>
       </c>
       <c r="AE75" s="52">
-        <f>((AF75-E75)/E75)*100</f>
+        <f t="shared" si="10"/>
         <v>1.6485039153837016</v>
       </c>
       <c r="AF75" s="62">
@@ -16774,7 +16772,7 @@
         <v>16241.3672887596</v>
       </c>
       <c r="AU75" s="53">
-        <f>(AT75/E75)*100</f>
+        <f t="shared" si="11"/>
         <v>27.272580750872518</v>
       </c>
       <c r="AV75" s="3" t="s">
@@ -16803,7 +16801,7 @@
       </c>
     </row>
     <row r="76" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A76" s="151">
+      <c r="A76" s="141">
         <v>84</v>
       </c>
       <c r="B76" s="3">
@@ -16819,7 +16817,7 @@
         <v>59256</v>
       </c>
       <c r="F76" s="36">
-        <f>(E76/$E$139)*100</f>
+        <f t="shared" si="8"/>
         <v>7.94260606587988E-2</v>
       </c>
       <c r="G76" s="3" t="s">
@@ -16883,7 +16881,7 @@
         <v>9.0583333333333407</v>
       </c>
       <c r="AA76" s="52">
-        <f>AVERAGE(Z76,AB76)</f>
+        <f t="shared" si="9"/>
         <v>17.10833333333332</v>
       </c>
       <c r="AB76" s="52">
@@ -16896,7 +16894,7 @@
         <v>199</v>
       </c>
       <c r="AE76" s="52">
-        <f>((AF76-E76)/E76)*100</f>
+        <f t="shared" si="10"/>
         <v>1.5049935230638307</v>
       </c>
       <c r="AF76" s="62">
@@ -16945,7 +16943,7 @@
         <v>12944.3866070607</v>
       </c>
       <c r="AU76" s="53">
-        <f>(AT76/E76)*100</f>
+        <f t="shared" si="11"/>
         <v>21.84485386637758</v>
       </c>
       <c r="AV76" s="3">
@@ -16974,7 +16972,7 @@
       </c>
     </row>
     <row r="77" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A77" s="150">
+      <c r="A77" s="140">
         <v>91</v>
       </c>
       <c r="B77" s="3">
@@ -16990,7 +16988,7 @@
         <v>156569</v>
       </c>
       <c r="F77" s="36">
-        <f>(E77/$E$139)*100</f>
+        <f t="shared" si="8"/>
         <v>0.20986328627122097</v>
       </c>
       <c r="G77" s="3" t="s">
@@ -17054,7 +17052,7 @@
         <v>20.55</v>
       </c>
       <c r="AA77" s="52">
-        <f>AVERAGE(Z77,AB77)</f>
+        <f t="shared" si="9"/>
         <v>25.97916666666665</v>
       </c>
       <c r="AB77" s="52">
@@ -17067,7 +17065,7 @@
         <v>37.5</v>
       </c>
       <c r="AE77" s="52">
-        <f>((AF77-E77)/E77)*100</f>
+        <f t="shared" si="10"/>
         <v>1.9384349097752378</v>
       </c>
       <c r="AF77" s="62">
@@ -17116,7 +17114,7 @@
         <v>54639.381794539397</v>
       </c>
       <c r="AU77" s="53">
-        <f>(AT77/E77)*100</f>
+        <f t="shared" si="11"/>
         <v>34.897956680147026</v>
       </c>
       <c r="AV77" s="3">
@@ -17145,7 +17143,7 @@
       </c>
     </row>
     <row r="78" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A78" s="151">
+      <c r="A78" s="141">
         <v>104</v>
       </c>
       <c r="B78" s="3">
@@ -17161,7 +17159,7 @@
         <v>303126</v>
       </c>
       <c r="F78" s="36">
-        <f>(E78/$E$139)*100</f>
+        <f t="shared" si="8"/>
         <v>0.40630660293065762</v>
       </c>
       <c r="G78" s="3" t="s">
@@ -17225,7 +17223,7 @@
         <v>17.366666666666699</v>
       </c>
       <c r="AA78" s="52">
-        <f>AVERAGE(Z78,AB78)</f>
+        <f t="shared" si="9"/>
         <v>24.9375</v>
       </c>
       <c r="AB78" s="52">
@@ -17238,7 +17236,7 @@
         <v>199</v>
       </c>
       <c r="AE78" s="52">
-        <f>((AF78-E78)/E78)*100</f>
+        <f t="shared" si="10"/>
         <v>2.4038250230197944</v>
       </c>
       <c r="AF78" s="62">
@@ -17287,7 +17285,7 @@
         <v>116075.981192739</v>
       </c>
       <c r="AU78" s="53">
-        <f>(AT78/E78)*100</f>
+        <f t="shared" si="11"/>
         <v>38.292980870245046</v>
       </c>
       <c r="AV78" s="3">
@@ -17316,7 +17314,7 @@
       </c>
     </row>
     <row r="79" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A79" s="150">
+      <c r="A79" s="140">
         <v>112</v>
       </c>
       <c r="B79" s="3">
@@ -17332,7 +17330,7 @@
         <v>95379</v>
       </c>
       <c r="F79" s="36">
-        <f>(E79/$E$139)*100</f>
+        <f t="shared" si="8"/>
         <v>0.12784491426312222</v>
       </c>
       <c r="G79" s="3" t="s">
@@ -17396,7 +17394,7 @@
         <v>21.1451515151515</v>
       </c>
       <c r="AA79" s="52">
-        <f>AVERAGE(Z79,AB79)</f>
+        <f t="shared" si="9"/>
         <v>26.588181818181802</v>
       </c>
       <c r="AB79" s="52">
@@ -17409,7 +17407,7 @@
         <v>33.75</v>
       </c>
       <c r="AE79" s="52">
-        <f>((AF79-E79)/E79)*100</f>
+        <f t="shared" si="10"/>
         <v>0.62737367685319012</v>
       </c>
       <c r="AF79" s="62">
@@ -17458,7 +17456,7 @@
         <v>27371.451869559402</v>
       </c>
       <c r="AU79" s="53">
-        <f>(AT79/E79)*100</f>
+        <f t="shared" si="11"/>
         <v>28.697566413528559</v>
       </c>
       <c r="AV79" s="3">
@@ -17487,7 +17485,7 @@
       </c>
     </row>
     <row r="80" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A80" s="151">
+      <c r="A80" s="141">
         <v>120</v>
       </c>
       <c r="B80" s="3">
@@ -17503,7 +17501,7 @@
         <v>58912</v>
       </c>
       <c r="F80" s="36">
-        <f>(E80/$E$139)*100</f>
+        <f t="shared" si="8"/>
         <v>7.896496701652414E-2</v>
       </c>
       <c r="G80" s="3" t="s">
@@ -17567,7 +17565,7 @@
         <v>3.1166666666666698</v>
       </c>
       <c r="AA80" s="52">
-        <f>AVERAGE(Z80,AB80)</f>
+        <f t="shared" si="9"/>
         <v>11.212499999999986</v>
       </c>
       <c r="AB80" s="52">
@@ -17580,7 +17578,7 @@
         <v>199</v>
       </c>
       <c r="AE80" s="52">
-        <f>((AF80-E80)/E80)*100</f>
+        <f t="shared" si="10"/>
         <v>1.4664763363039848</v>
       </c>
       <c r="AF80" s="62">
@@ -17629,7 +17627,7 @@
         <v>16971.542051565699</v>
       </c>
       <c r="AU80" s="53">
-        <f>(AT80/E80)*100</f>
+        <f t="shared" si="11"/>
         <v>28.808293813765783</v>
       </c>
       <c r="AV80" s="3">
@@ -17658,7 +17656,7 @@
       </c>
     </row>
     <row r="81" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A81" s="151">
+      <c r="A81" s="141">
         <v>125</v>
       </c>
       <c r="B81" s="3">
@@ -17674,7 +17672,7 @@
         <v>78219</v>
       </c>
       <c r="F81" s="36">
-        <f>(E81/$E$139)*100</f>
+        <f t="shared" si="8"/>
         <v>0.104843847689189</v>
       </c>
       <c r="G81" s="3" t="s">
@@ -17738,7 +17736,7 @@
         <v>19.016666666666701</v>
       </c>
       <c r="AA81" s="52">
-        <f>AVERAGE(Z81,AB81)</f>
+        <f t="shared" si="9"/>
         <v>24.39583333333335</v>
       </c>
       <c r="AB81" s="52">
@@ -17751,7 +17749,7 @@
         <v>199</v>
       </c>
       <c r="AE81" s="52">
-        <f>((AF81-E81)/E81)*100</f>
+        <f t="shared" si="10"/>
         <v>0.88966596655672203</v>
       </c>
       <c r="AF81" s="62">
@@ -17800,7 +17798,7 @@
         <v>34202.2899472481</v>
       </c>
       <c r="AU81" s="53">
-        <f>(AT81/E81)*100</f>
+        <f t="shared" si="11"/>
         <v>43.726319624705127</v>
       </c>
       <c r="AV81" s="3">
@@ -17829,7 +17827,7 @@
       </c>
     </row>
     <row r="82" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A82" s="150">
+      <c r="A82" s="140">
         <v>130</v>
       </c>
       <c r="B82" s="3">
@@ -17845,7 +17843,7 @@
         <v>108418</v>
       </c>
       <c r="F82" s="36">
-        <f>(E82/$E$139)*100</f>
+        <f t="shared" si="8"/>
         <v>0.14532223984922452</v>
       </c>
       <c r="G82" s="3" t="s">
@@ -17909,7 +17907,7 @@
         <v>20.3</v>
       </c>
       <c r="AA82" s="52">
-        <f>AVERAGE(Z82,AB82)</f>
+        <f t="shared" si="9"/>
         <v>25.379166666666649</v>
       </c>
       <c r="AB82" s="52">
@@ -17922,7 +17920,7 @@
         <v>199</v>
       </c>
       <c r="AE82" s="52">
-        <f>((AF82-E82)/E82)*100</f>
+        <f t="shared" si="10"/>
         <v>0.95076453769115488</v>
       </c>
       <c r="AF82" s="62">
@@ -17971,7 +17969,7 @@
         <v>45012.202396729997</v>
       </c>
       <c r="AU82" s="53">
-        <f>(AT82/E82)*100</f>
+        <f t="shared" si="11"/>
         <v>41.517277939760923</v>
       </c>
       <c r="AV82" s="3">
@@ -18000,7 +17998,7 @@
       </c>
     </row>
     <row r="83" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A83" s="151">
+      <c r="A83" s="141">
         <v>134</v>
       </c>
       <c r="B83" s="3">
@@ -18016,7 +18014,7 @@
         <v>125846</v>
       </c>
       <c r="F83" s="36">
-        <f>(E83/$E$139)*100</f>
+        <f t="shared" si="8"/>
         <v>0.16868253053981358</v>
       </c>
       <c r="G83" s="3" t="s">
@@ -18080,7 +18078,7 @@
         <v>7.55</v>
       </c>
       <c r="AA83" s="52">
-        <f>AVERAGE(Z83,AB83)</f>
+        <f t="shared" si="9"/>
         <v>16.8</v>
       </c>
       <c r="AB83" s="52">
@@ -18093,7 +18091,7 @@
         <v>199</v>
       </c>
       <c r="AE83" s="52">
-        <f>((AF83-E83)/E83)*100</f>
+        <f t="shared" si="10"/>
         <v>1.2505512906735163</v>
       </c>
       <c r="AF83" s="62">
@@ -18142,7 +18140,7 @@
         <v>47186.271785079203</v>
       </c>
       <c r="AU83" s="53">
-        <f>(AT83/E83)*100</f>
+        <f t="shared" si="11"/>
         <v>37.495249578913274</v>
       </c>
       <c r="AV83" s="3">
@@ -18171,7 +18169,7 @@
       </c>
     </row>
     <row r="84" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A84" s="151">
+      <c r="A84" s="141">
         <v>6</v>
       </c>
       <c r="B84" s="3">
@@ -18187,7 +18185,7 @@
         <v>215178</v>
       </c>
       <c r="F84" s="36">
-        <f>(E84/$E$139)*100</f>
+        <f t="shared" si="8"/>
         <v>0.28842211557376485</v>
       </c>
       <c r="G84" s="3" t="s">
@@ -18251,7 +18249,7 @@
         <v>17.516666666666701</v>
       </c>
       <c r="AA84" s="52">
-        <f>AVERAGE(Z84,AB84)</f>
+        <f t="shared" si="9"/>
         <v>23.450000000000003</v>
       </c>
       <c r="AB84" s="52">
@@ -18264,7 +18262,7 @@
         <v>21.25</v>
       </c>
       <c r="AE84" s="52">
-        <f>((AF84-E84)/E84)*100</f>
+        <f t="shared" si="10"/>
         <v>1.9082633648091307</v>
       </c>
       <c r="AF84" s="62">
@@ -18313,7 +18311,7 @@
         <v>95311.164810557806</v>
       </c>
       <c r="AU84" s="53">
-        <f>(AT84/E84)*100</f>
+        <f t="shared" si="11"/>
         <v>44.294102933644616</v>
       </c>
       <c r="AV84" s="3">
@@ -18342,7 +18340,7 @@
       </c>
     </row>
     <row r="85" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A85" s="151">
+      <c r="A85" s="141">
         <v>9</v>
       </c>
       <c r="B85" s="3">
@@ -18358,7 +18356,7 @@
         <v>169466</v>
       </c>
       <c r="F85" s="36">
-        <f>(E85/$E$139)*100</f>
+        <f t="shared" si="8"/>
         <v>0.22715027669103546</v>
       </c>
       <c r="G85" s="3" t="s">
@@ -18422,7 +18420,7 @@
         <v>19.72</v>
       </c>
       <c r="AA85" s="52">
-        <f>AVERAGE(Z85,AB85)</f>
+        <f t="shared" si="9"/>
         <v>26.23</v>
       </c>
       <c r="AB85" s="52">
@@ -18435,7 +18433,7 @@
         <v>52.5</v>
       </c>
       <c r="AE85" s="52">
-        <f>((AF85-E85)/E85)*100</f>
+        <f t="shared" si="10"/>
         <v>1.7557706719873087</v>
       </c>
       <c r="AF85" s="62">
@@ -18484,7 +18482,7 @@
         <v>71132.428731670705</v>
       </c>
       <c r="AU85" s="53">
-        <f>(AT85/E85)*100</f>
+        <f t="shared" si="11"/>
         <v>41.974454304503972</v>
       </c>
       <c r="AV85" s="3">
@@ -18513,7 +18511,7 @@
       </c>
     </row>
     <row r="86" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A86" s="150">
+      <c r="A86" s="140">
         <v>25</v>
       </c>
       <c r="B86" s="3">
@@ -18529,7 +18527,7 @@
         <v>134233</v>
       </c>
       <c r="F86" s="36">
-        <f>(E86/$E$139)*100</f>
+        <f t="shared" si="8"/>
         <v>0.17992436884724819</v>
       </c>
       <c r="G86" s="3" t="s">
@@ -18593,7 +18591,7 @@
         <v>13.883333333333301</v>
       </c>
       <c r="AA86" s="52">
-        <f>AVERAGE(Z86,AB86)</f>
+        <f t="shared" si="9"/>
         <v>21.962499999999999</v>
       </c>
       <c r="AB86" s="52">
@@ -18606,7 +18604,7 @@
         <v>100</v>
       </c>
       <c r="AE86" s="52">
-        <f>((AF86-E86)/E86)*100</f>
+        <f t="shared" si="10"/>
         <v>1.1598035051030595</v>
       </c>
       <c r="AF86" s="62">
@@ -18655,7 +18653,7 @@
         <v>49628.567240685901</v>
       </c>
       <c r="AU86" s="53">
-        <f>(AT86/E86)*100</f>
+        <f t="shared" si="11"/>
         <v>36.971957149647181</v>
       </c>
       <c r="AV86" s="3" t="s">
@@ -18684,7 +18682,7 @@
       </c>
     </row>
     <row r="87" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A87" s="151">
+      <c r="A87" s="141">
         <v>23</v>
       </c>
       <c r="B87" s="3">
@@ -18700,7 +18698,7 @@
         <v>54905</v>
       </c>
       <c r="F87" s="36">
-        <f>(E87/$E$139)*100</f>
+        <f t="shared" si="8"/>
         <v>7.3594030317121445E-2</v>
       </c>
       <c r="G87" s="3" t="s">
@@ -18764,7 +18762,7 @@
         <v>13.1</v>
       </c>
       <c r="AA87" s="52">
-        <f>AVERAGE(Z87,AB87)</f>
+        <f t="shared" si="9"/>
         <v>21.420833333333348</v>
       </c>
       <c r="AB87" s="52">
@@ -18777,7 +18775,7 @@
         <v>100</v>
       </c>
       <c r="AE87" s="52">
-        <f>((AF87-E87)/E87)*100</f>
+        <f t="shared" si="10"/>
         <v>1.2790899737424586</v>
       </c>
       <c r="AF87" s="62">
@@ -18826,7 +18824,7 @@
         <v>23106.354216313001</v>
       </c>
       <c r="AU87" s="53">
-        <f>(AT87/E87)*100</f>
+        <f t="shared" si="11"/>
         <v>42.084244087629543</v>
       </c>
       <c r="AV87" s="3" t="s">
@@ -18855,7 +18853,7 @@
       </c>
     </row>
     <row r="88" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A88" s="151">
+      <c r="A88" s="141">
         <v>11</v>
       </c>
       <c r="B88" s="3">
@@ -18871,7 +18869,7 @@
         <v>97537</v>
       </c>
       <c r="F88" s="36">
-        <f>(E88/$E$139)*100</f>
+        <f t="shared" si="8"/>
         <v>0.1307374726352987</v>
       </c>
       <c r="G88" s="3" t="s">
@@ -18935,7 +18933,7 @@
         <v>21.875</v>
       </c>
       <c r="AA88" s="52">
-        <f>AVERAGE(Z88,AB88)</f>
+        <f t="shared" si="9"/>
         <v>28.308333333333351</v>
       </c>
       <c r="AB88" s="52">
@@ -18948,7 +18946,7 @@
         <v>199</v>
       </c>
       <c r="AE88" s="52">
-        <f>((AF88-E88)/E88)*100</f>
+        <f t="shared" si="10"/>
         <v>2.2861680512938642</v>
       </c>
       <c r="AF88" s="62">
@@ -18997,7 +18995,7 @@
         <v>38406.667910050797</v>
       </c>
       <c r="AU88" s="53">
-        <f>(AT88/E88)*100</f>
+        <f t="shared" si="11"/>
         <v>39.376511385475048</v>
       </c>
       <c r="AV88" s="3">
@@ -19026,7 +19024,7 @@
       </c>
     </row>
     <row r="89" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A89" s="151">
+      <c r="A89" s="141">
         <v>12</v>
       </c>
       <c r="B89" s="3">
@@ -19042,7 +19040,7 @@
         <v>158027</v>
       </c>
       <c r="F89" s="36">
-        <f>(E89/$E$139)*100</f>
+        <f t="shared" si="8"/>
         <v>0.21181757269690829</v>
       </c>
       <c r="G89" s="3" t="s">
@@ -19106,7 +19104,7 @@
         <v>21.233333333333299</v>
       </c>
       <c r="AA89" s="52">
-        <f>AVERAGE(Z89,AB89)</f>
+        <f t="shared" si="9"/>
         <v>27.804166666666649</v>
       </c>
       <c r="AB89" s="52">
@@ -19119,7 +19117,7 @@
         <v>199</v>
       </c>
       <c r="AE89" s="52">
-        <f>((AF89-E89)/E89)*100</f>
+        <f t="shared" si="10"/>
         <v>2.2688105103077372</v>
       </c>
       <c r="AF89" s="62">
@@ -19168,7 +19166,7 @@
         <v>58236.8471145726</v>
       </c>
       <c r="AU89" s="53">
-        <f>(AT89/E89)*100</f>
+        <f t="shared" si="11"/>
         <v>36.852466423188822</v>
       </c>
       <c r="AV89" s="3">
@@ -19197,7 +19195,7 @@
       </c>
     </row>
     <row r="90" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A90" s="150">
+      <c r="A90" s="140">
         <v>16</v>
       </c>
       <c r="B90" s="3">
@@ -19213,7 +19211,7 @@
         <v>114007</v>
       </c>
       <c r="F90" s="36">
-        <f>(E90/$E$139)*100</f>
+        <f t="shared" si="8"/>
         <v>0.15281367114769265</v>
       </c>
       <c r="G90" s="3" t="s">
@@ -19277,7 +19275,7 @@
         <v>9.1416666666666693</v>
       </c>
       <c r="AA90" s="52">
-        <f>AVERAGE(Z90,AB90)</f>
+        <f t="shared" si="9"/>
         <v>16.945833333333333</v>
       </c>
       <c r="AB90" s="52">
@@ -19290,7 +19288,7 @@
         <v>199</v>
       </c>
       <c r="AE90" s="52">
-        <f>((AF90-E90)/E90)*100</f>
+        <f t="shared" si="10"/>
         <v>3.5364889370600014</v>
       </c>
       <c r="AF90" s="62">
@@ -19339,7 +19337,7 @@
         <v>55032.472545735603</v>
       </c>
       <c r="AU90" s="53">
-        <f>(AT90/E90)*100</f>
+        <f t="shared" si="11"/>
         <v>48.271134707286045</v>
       </c>
       <c r="AV90" s="3">
@@ -19368,7 +19366,7 @@
       </c>
     </row>
     <row r="91" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A91" s="151">
+      <c r="A91" s="141">
         <v>17</v>
       </c>
       <c r="B91" s="3">
@@ -19384,7 +19382,7 @@
         <v>118071</v>
       </c>
       <c r="F91" s="36">
-        <f>(E91/$E$139)*100</f>
+        <f t="shared" si="8"/>
         <v>0.15826100999130946</v>
       </c>
       <c r="G91" s="3" t="s">
@@ -19448,7 +19446,7 @@
         <v>2.9</v>
       </c>
       <c r="AA91" s="52">
-        <f>AVERAGE(Z91,AB91)</f>
+        <f t="shared" si="9"/>
         <v>12.554166666666649</v>
       </c>
       <c r="AB91" s="52">
@@ -19461,7 +19459,7 @@
         <v>53.75</v>
       </c>
       <c r="AE91" s="52">
-        <f>((AF91-E91)/E91)*100</f>
+        <f t="shared" si="10"/>
         <v>3.5679186310025326</v>
       </c>
       <c r="AF91" s="62">
@@ -19510,7 +19508,7 @@
         <v>48515.8091709863</v>
       </c>
       <c r="AU91" s="53">
-        <f>(AT91/E91)*100</f>
+        <f t="shared" si="11"/>
         <v>41.09036865190123</v>
       </c>
       <c r="AV91" s="3">
@@ -19539,7 +19537,7 @@
       </c>
     </row>
     <row r="92" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A92" s="151">
+      <c r="A92" s="141">
         <v>18</v>
       </c>
       <c r="B92" s="3">
@@ -19555,7 +19553,7 @@
         <v>104836</v>
       </c>
       <c r="F92" s="36">
-        <f>(E92/$E$139)*100</f>
+        <f t="shared" si="8"/>
         <v>0.1405209682601902</v>
       </c>
       <c r="G92" s="3" t="s">
@@ -19619,7 +19617,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="AA92" s="52">
-        <f>AVERAGE(Z92,AB92)</f>
+        <f t="shared" si="9"/>
         <v>13.662500000000001</v>
       </c>
       <c r="AB92" s="52">
@@ -19632,7 +19630,7 @@
         <v>199</v>
       </c>
       <c r="AE92" s="52">
-        <f>((AF92-E92)/E92)*100</f>
+        <f t="shared" si="10"/>
         <v>3.6200368090569985</v>
       </c>
       <c r="AF92" s="62">
@@ -19681,7 +19679,7 @@
         <v>42388.365212355602</v>
       </c>
       <c r="AU92" s="53">
-        <f>(AT92/E92)*100</f>
+        <f t="shared" si="11"/>
         <v>40.433024163794499</v>
       </c>
       <c r="AV92" s="3">
@@ -19710,7 +19708,7 @@
       </c>
     </row>
     <row r="93" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A93" s="151">
+      <c r="A93" s="141">
         <v>20</v>
       </c>
       <c r="B93" s="3">
@@ -19726,7 +19724,7 @@
         <v>55553</v>
       </c>
       <c r="F93" s="36">
-        <f>(E93/$E$139)*100</f>
+        <f t="shared" si="8"/>
         <v>7.4462602061871358E-2</v>
       </c>
       <c r="G93" s="3" t="s">
@@ -19790,7 +19788,7 @@
         <v>9.7249999999999996</v>
       </c>
       <c r="AA93" s="52">
-        <f>AVERAGE(Z93,AB93)</f>
+        <f t="shared" si="9"/>
         <v>17.179166666666649</v>
       </c>
       <c r="AB93" s="52">
@@ -19803,7 +19801,7 @@
         <v>199</v>
       </c>
       <c r="AE93" s="52">
-        <f>((AF93-E93)/E93)*100</f>
+        <f t="shared" si="10"/>
         <v>3.4490271801130485</v>
       </c>
       <c r="AF93" s="62">
@@ -19852,7 +19850,7 @@
         <v>24364.414648532998</v>
       </c>
       <c r="AU93" s="53">
-        <f>(AT93/E93)*100</f>
+        <f t="shared" si="11"/>
         <v>43.857963833695749</v>
       </c>
       <c r="AV93" s="3">
@@ -19881,7 +19879,7 @@
       </c>
     </row>
     <row r="94" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A94" s="151">
+      <c r="A94" s="141">
         <v>30</v>
       </c>
       <c r="B94" s="3">
@@ -19897,7 +19895,7 @@
         <v>518709</v>
       </c>
       <c r="F94" s="36">
-        <f>(E94/$E$139)*100</f>
+        <f t="shared" si="8"/>
         <v>0.69527157584489108</v>
       </c>
       <c r="G94" s="139" t="s">
@@ -19961,7 +19959,7 @@
         <v>10.5416666666667</v>
       </c>
       <c r="AA94" s="52">
-        <f>AVERAGE(Z94,AB94)</f>
+        <f t="shared" si="9"/>
         <v>20.191666666666698</v>
       </c>
       <c r="AB94" s="52">
@@ -19974,7 +19972,7 @@
         <v>43.75</v>
       </c>
       <c r="AE94" s="52">
-        <f>((AF94-E94)/E94)*100</f>
+        <f t="shared" si="10"/>
         <v>2.2885473642387058</v>
       </c>
       <c r="AF94" s="62">
@@ -20023,7 +20021,7 @@
         <v>180981.17240544301</v>
       </c>
       <c r="AU94" s="53">
-        <f>(AT94/E94)*100</f>
+        <f t="shared" si="11"/>
         <v>34.890694475215007</v>
       </c>
       <c r="AV94" s="3">
@@ -20052,7 +20050,7 @@
       </c>
     </row>
     <row r="95" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A95" s="150">
+      <c r="A95" s="140">
         <v>31</v>
       </c>
       <c r="B95" s="3">
@@ -20068,7 +20066,7 @@
         <v>57972</v>
       </c>
       <c r="F95" s="36">
-        <f>(E95/$E$139)*100</f>
+        <f t="shared" si="8"/>
         <v>7.7705001831238754E-2</v>
       </c>
       <c r="G95" s="3" t="s">
@@ -20132,7 +20130,7 @@
         <v>10.175000000000001</v>
       </c>
       <c r="AA95" s="52">
-        <f>AVERAGE(Z95,AB95)</f>
+        <f t="shared" si="9"/>
         <v>18.566666666666649</v>
       </c>
       <c r="AB95" s="52">
@@ -20145,7 +20143,7 @@
         <v>199</v>
       </c>
       <c r="AE95" s="52">
-        <f>((AF95-E95)/E95)*100</f>
+        <f t="shared" si="10"/>
         <v>1.2623516360411948</v>
       </c>
       <c r="AF95" s="62">
@@ -20194,7 +20192,7 @@
         <v>24220.843034027301</v>
       </c>
       <c r="AU95" s="53">
-        <f>(AT95/E95)*100</f>
+        <f t="shared" si="11"/>
         <v>41.780243969549616</v>
       </c>
       <c r="AV95" s="3">
@@ -20223,7 +20221,7 @@
       </c>
     </row>
     <row r="96" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A96" s="151">
+      <c r="A96" s="141">
         <v>42</v>
       </c>
       <c r="B96" s="3">
@@ -20239,7 +20237,7 @@
         <v>69811</v>
       </c>
       <c r="F96" s="36">
-        <f>(E96/$E$139)*100</f>
+        <f t="shared" si="8"/>
         <v>9.3573861223359714E-2</v>
       </c>
       <c r="G96" s="3" t="s">
@@ -20303,7 +20301,7 @@
         <v>10.8333333333333</v>
       </c>
       <c r="AA96" s="52">
-        <f>AVERAGE(Z96,AB96)</f>
+        <f t="shared" si="9"/>
         <v>19.179166666666649</v>
       </c>
       <c r="AB96" s="52">
@@ -20316,7 +20314,7 @@
         <v>199</v>
       </c>
       <c r="AE96" s="52">
-        <f>((AF96-E96)/E96)*100</f>
+        <f t="shared" si="10"/>
         <v>1.344955277618705</v>
       </c>
       <c r="AF96" s="62">
@@ -20365,7 +20363,7 @@
         <v>24977.053690229</v>
       </c>
       <c r="AU96" s="53">
-        <f>(AT96/E96)*100</f>
+        <f t="shared" si="11"/>
         <v>35.778106158383352</v>
       </c>
       <c r="AV96" s="3">
@@ -20394,7 +20392,7 @@
       </c>
     </row>
     <row r="97" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A97" s="151">
+      <c r="A97" s="141">
         <v>33</v>
       </c>
       <c r="B97" s="3">
@@ -20410,7 +20408,7 @@
         <v>61658</v>
       </c>
       <c r="F97" s="36">
-        <f>(E97/$E$139)*100</f>
+        <f t="shared" si="8"/>
         <v>8.2645673823751459E-2</v>
       </c>
       <c r="G97" s="3" t="s">
@@ -20474,7 +20472,7 @@
         <v>9.35</v>
       </c>
       <c r="AA97" s="52">
-        <f>AVERAGE(Z97,AB97)</f>
+        <f t="shared" si="9"/>
         <v>17.72916666666665</v>
       </c>
       <c r="AB97" s="52">
@@ -20487,7 +20485,7 @@
         <v>199</v>
       </c>
       <c r="AE97" s="52">
-        <f>((AF97-E97)/E97)*100</f>
+        <f t="shared" si="10"/>
         <v>1.2887329991452858</v>
       </c>
       <c r="AF97" s="62">
@@ -20536,7 +20534,7 @@
         <v>21710.0721743951</v>
       </c>
       <c r="AU97" s="53">
-        <f>(AT97/E97)*100</f>
+        <f t="shared" si="11"/>
         <v>35.210470943584127</v>
       </c>
       <c r="AV97" s="3">
@@ -20565,7 +20563,7 @@
       </c>
     </row>
     <row r="98" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A98" s="150">
+      <c r="A98" s="140">
         <v>34</v>
       </c>
       <c r="B98" s="3">
@@ -20581,7 +20579,7 @@
         <v>59240</v>
       </c>
       <c r="F98" s="36">
-        <f>(E98/$E$139)*100</f>
+        <f t="shared" ref="F98:F129" si="12">(E98/$E$139)*100</f>
         <v>7.9404614442879051E-2</v>
       </c>
       <c r="G98" s="3" t="s">
@@ -20645,7 +20643,7 @@
         <v>10.108333333333301</v>
       </c>
       <c r="AA98" s="52">
-        <f>AVERAGE(Z98,AB98)</f>
+        <f t="shared" ref="AA98:AA129" si="13">AVERAGE(Z98,AB98)</f>
         <v>18.408333333333299</v>
       </c>
       <c r="AB98" s="52">
@@ -20658,7 +20656,7 @@
         <v>199</v>
       </c>
       <c r="AE98" s="52">
-        <f>((AF98-E98)/E98)*100</f>
+        <f t="shared" ref="AE98:AE129" si="14">((AF98-E98)/E98)*100</f>
         <v>1.3734490239326498</v>
       </c>
       <c r="AF98" s="62">
@@ -20707,7 +20705,7 @@
         <v>17036.8023863997</v>
       </c>
       <c r="AU98" s="53">
-        <f>(AT98/E98)*100</f>
+        <f t="shared" ref="AU98:AU129" si="15">(AT98/E98)*100</f>
         <v>28.758950686022448</v>
       </c>
       <c r="AV98" s="3">
@@ -20736,7 +20734,7 @@
       </c>
     </row>
     <row r="99" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A99" s="151">
+      <c r="A99" s="141">
         <v>39</v>
       </c>
       <c r="B99" s="3">
@@ -20752,7 +20750,7 @@
         <v>160169</v>
       </c>
       <c r="F99" s="36">
-        <f>(E99/$E$139)*100</f>
+        <f t="shared" si="12"/>
         <v>0.214688684853165</v>
       </c>
       <c r="G99" s="3" t="s">
@@ -20816,7 +20814,7 @@
         <v>11.0416666666667</v>
       </c>
       <c r="AA99" s="52">
-        <f>AVERAGE(Z99,AB99)</f>
+        <f t="shared" si="13"/>
         <v>18.787500000000001</v>
       </c>
       <c r="AB99" s="52">
@@ -20829,7 +20827,7 @@
         <v>37.5</v>
       </c>
       <c r="AE99" s="52">
-        <f>((AF99-E99)/E99)*100</f>
+        <f t="shared" si="14"/>
         <v>1.2817548368211065</v>
       </c>
       <c r="AF99" s="62">
@@ -20878,7 +20876,7 @@
         <v>62652.363887056403</v>
       </c>
       <c r="AU99" s="53">
-        <f>(AT99/E99)*100</f>
+        <f t="shared" si="15"/>
         <v>39.116410720586629</v>
       </c>
       <c r="AV99" s="3">
@@ -20907,7 +20905,7 @@
       </c>
     </row>
     <row r="100" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A100" s="150">
+      <c r="A100" s="140">
         <v>43</v>
       </c>
       <c r="B100" s="3">
@@ -20923,7 +20921,7 @@
         <v>68058</v>
       </c>
       <c r="F100" s="36">
-        <f>(E100/$E$139)*100</f>
+        <f t="shared" si="12"/>
         <v>9.1224160191651957E-2</v>
       </c>
       <c r="G100" s="3" t="s">
@@ -20987,7 +20985,7 @@
         <v>7.8416666666666703</v>
       </c>
       <c r="AA100" s="52">
-        <f>AVERAGE(Z100,AB100)</f>
+        <f t="shared" si="13"/>
         <v>16.341666666666686</v>
       </c>
       <c r="AB100" s="52">
@@ -21000,7 +20998,7 @@
         <v>199</v>
       </c>
       <c r="AE100" s="52">
-        <f>((AF100-E100)/E100)*100</f>
+        <f t="shared" si="14"/>
         <v>1.2994110450833123</v>
       </c>
       <c r="AF100" s="62">
@@ -21049,7 +21047,7 @@
         <v>25879.872548880601</v>
       </c>
       <c r="AU100" s="53">
-        <f>(AT100/E100)*100</f>
+        <f t="shared" si="15"/>
         <v>38.026201987834789</v>
       </c>
       <c r="AV100" s="3">
@@ -21078,7 +21076,7 @@
       </c>
     </row>
     <row r="101" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A101" s="151">
+      <c r="A101" s="141">
         <v>47</v>
       </c>
       <c r="B101" s="3">
@@ -21094,7 +21092,7 @@
         <v>118468</v>
       </c>
       <c r="F101" s="36">
-        <f>(E101/$E$139)*100</f>
+        <f t="shared" si="12"/>
         <v>0.15879314422381829</v>
       </c>
       <c r="G101" s="3" t="s">
@@ -21158,7 +21156,7 @@
         <v>13.383333333333301</v>
       </c>
       <c r="AA101" s="52">
-        <f>AVERAGE(Z101,AB101)</f>
+        <f t="shared" si="13"/>
         <v>21.4583333333333</v>
       </c>
       <c r="AB101" s="52">
@@ -21171,7 +21169,7 @@
         <v>199</v>
       </c>
       <c r="AE101" s="52">
-        <f>((AF101-E101)/E101)*100</f>
+        <f t="shared" si="14"/>
         <v>1.6278088774352513</v>
       </c>
       <c r="AF101" s="62">
@@ -21220,7 +21218,7 @@
         <v>50813.718287582902</v>
       </c>
       <c r="AU101" s="53">
-        <f>(AT101/E101)*100</f>
+        <f t="shared" si="15"/>
         <v>42.892357672606025</v>
       </c>
       <c r="AV101" s="3">
@@ -21249,7 +21247,7 @@
       </c>
     </row>
     <row r="102" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A102" s="150">
+      <c r="A102" s="140">
         <v>49</v>
       </c>
       <c r="B102" s="3">
@@ -21265,7 +21263,7 @@
         <v>67408</v>
       </c>
       <c r="F102" s="36">
-        <f>(E102/$E$139)*100</f>
+        <f t="shared" si="12"/>
         <v>9.0352907669912066E-2</v>
       </c>
       <c r="G102" s="3" t="s">
@@ -21329,7 +21327,7 @@
         <v>16.149999999999999</v>
       </c>
       <c r="AA102" s="52">
-        <f>AVERAGE(Z102,AB102)</f>
+        <f t="shared" si="13"/>
         <v>23.320833333333347</v>
       </c>
       <c r="AB102" s="52">
@@ -21342,7 +21340,7 @@
         <v>199</v>
       </c>
       <c r="AE102" s="52">
-        <f>((AF102-E102)/E102)*100</f>
+        <f t="shared" si="14"/>
         <v>1.8455548140897258</v>
       </c>
       <c r="AF102" s="62">
@@ -21391,7 +21389,7 @@
         <v>33395.788209219099</v>
       </c>
       <c r="AU102" s="53">
-        <f>(AT102/E102)*100</f>
+        <f t="shared" si="15"/>
         <v>49.542766747595394</v>
       </c>
       <c r="AV102" s="3">
@@ -21420,7 +21418,7 @@
       </c>
     </row>
     <row r="103" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A103" s="151">
+      <c r="A103" s="141">
         <v>48</v>
       </c>
       <c r="B103" s="3">
@@ -21436,7 +21434,7 @@
         <v>52217</v>
       </c>
       <c r="F103" s="36">
-        <f>(E103/$E$139)*100</f>
+        <f t="shared" si="12"/>
         <v>6.9991066042603231E-2</v>
       </c>
       <c r="G103" s="3" t="s">
@@ -21500,7 +21498,7 @@
         <v>15.824999999999999</v>
       </c>
       <c r="AA103" s="52">
-        <f>AVERAGE(Z103,AB103)</f>
+        <f t="shared" si="13"/>
         <v>22.2</v>
       </c>
       <c r="AB103" s="52">
@@ -21513,7 +21511,7 @@
         <v>199</v>
       </c>
       <c r="AE103" s="52">
-        <f>((AF103-E103)/E103)*100</f>
+        <f t="shared" si="14"/>
         <v>1.5160305941810177</v>
       </c>
       <c r="AF103" s="62">
@@ -21562,7 +21560,7 @@
         <v>20141.480899157199</v>
       </c>
       <c r="AU103" s="53">
-        <f>(AT103/E103)*100</f>
+        <f t="shared" si="15"/>
         <v>38.572650476199705</v>
       </c>
       <c r="AV103" s="3">
@@ -21591,7 +21589,7 @@
       </c>
     </row>
     <row r="104" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A104" s="151">
+      <c r="A104" s="141">
         <v>53</v>
       </c>
       <c r="B104" s="3">
@@ -21607,7 +21605,7 @@
         <v>52175</v>
       </c>
       <c r="F104" s="36">
-        <f>(E104/$E$139)*100</f>
+        <f t="shared" si="12"/>
         <v>6.9934769725813889E-2</v>
       </c>
       <c r="G104" s="3" t="s">
@@ -21671,7 +21669,7 @@
         <v>13.275</v>
       </c>
       <c r="AA104" s="52">
-        <f>AVERAGE(Z104,AB104)</f>
+        <f t="shared" si="13"/>
         <v>20.954166666666652</v>
       </c>
       <c r="AB104" s="52">
@@ -21684,7 +21682,7 @@
         <v>199</v>
       </c>
       <c r="AE104" s="52">
-        <f>((AF104-E104)/E104)*100</f>
+        <f t="shared" si="14"/>
         <v>1.2159237282386193</v>
       </c>
       <c r="AF104" s="62">
@@ -21733,7 +21731,7 @@
         <v>24592.7319672581</v>
       </c>
       <c r="AU104" s="53">
-        <f>(AT104/E104)*100</f>
+        <f t="shared" si="15"/>
         <v>47.135087622919215</v>
       </c>
       <c r="AV104" s="3">
@@ -21762,7 +21760,7 @@
       </c>
     </row>
     <row r="105" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A105" s="151">
+      <c r="A105" s="141">
         <v>54</v>
       </c>
       <c r="B105" s="3">
@@ -21778,7 +21776,7 @@
         <v>97750</v>
       </c>
       <c r="F105" s="36">
-        <f>(E105/$E$139)*100</f>
+        <f t="shared" si="12"/>
         <v>0.13102297538473034</v>
       </c>
       <c r="G105" s="3" t="s">
@@ -21842,7 +21840,7 @@
         <v>15.2083333333333</v>
       </c>
       <c r="AA105" s="52">
-        <f>AVERAGE(Z105,AB105)</f>
+        <f t="shared" si="13"/>
         <v>24.529166666666651</v>
       </c>
       <c r="AB105" s="52">
@@ -21855,7 +21853,7 @@
         <v>199</v>
       </c>
       <c r="AE105" s="52">
-        <f>((AF105-E105)/E105)*100</f>
+        <f t="shared" si="14"/>
         <v>1.1783941411011754</v>
       </c>
       <c r="AF105" s="62">
@@ -21904,7 +21902,7 @@
         <v>41098.481608212103</v>
       </c>
       <c r="AU105" s="53">
-        <f>(AT105/E105)*100</f>
+        <f t="shared" si="15"/>
         <v>42.044482463644094</v>
       </c>
       <c r="AV105" s="3">
@@ -21933,7 +21931,7 @@
       </c>
     </row>
     <row r="106" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A106" s="151">
+      <c r="A106" s="141">
         <v>56</v>
       </c>
       <c r="B106" s="3">
@@ -21949,7 +21947,7 @@
         <v>98206</v>
       </c>
       <c r="F106" s="36">
-        <f>(E106/$E$139)*100</f>
+        <f t="shared" si="12"/>
         <v>0.1316341925384433</v>
       </c>
       <c r="G106" s="3" t="s">
@@ -22013,7 +22011,7 @@
         <v>8.9749999999999996</v>
       </c>
       <c r="AA106" s="52">
-        <f>AVERAGE(Z106,AB106)</f>
+        <f t="shared" si="13"/>
         <v>18.129166666666649</v>
       </c>
       <c r="AB106" s="52">
@@ -22026,7 +22024,7 @@
         <v>199</v>
       </c>
       <c r="AE106" s="52">
-        <f>((AF106-E106)/E106)*100</f>
+        <f t="shared" si="14"/>
         <v>1.3153718583599758</v>
       </c>
       <c r="AF106" s="62">
@@ -22075,7 +22073,7 @@
         <v>38598.737044670001</v>
       </c>
       <c r="AU106" s="53">
-        <f>(AT106/E106)*100</f>
+        <f t="shared" si="15"/>
         <v>39.303848079211043</v>
       </c>
       <c r="AV106" s="3">
@@ -22104,7 +22102,7 @@
       </c>
     </row>
     <row r="107" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A107" s="150">
+      <c r="A107" s="140">
         <v>58</v>
       </c>
       <c r="B107" s="3">
@@ -22120,7 +22118,7 @@
         <v>91959</v>
       </c>
       <c r="F107" s="36">
-        <f>(E107/$E$139)*100</f>
+        <f t="shared" si="12"/>
         <v>0.1232607856102754</v>
       </c>
       <c r="G107" s="3" t="s">
@@ -22184,7 +22182,7 @@
         <v>12.2083333333333</v>
       </c>
       <c r="AA107" s="52">
-        <f>AVERAGE(Z107,AB107)</f>
+        <f t="shared" si="13"/>
         <v>21.137499999999999</v>
       </c>
       <c r="AB107" s="52">
@@ -22197,7 +22195,7 @@
         <v>199</v>
       </c>
       <c r="AE107" s="52">
-        <f>((AF107-E107)/E107)*100</f>
+        <f t="shared" si="14"/>
         <v>1.2659740104044253</v>
       </c>
       <c r="AF107" s="62">
@@ -22246,7 +22244,7 @@
         <v>41130.681486596703</v>
       </c>
       <c r="AU107" s="53">
-        <f>(AT107/E107)*100</f>
+        <f t="shared" si="15"/>
         <v>44.727195257230619</v>
       </c>
       <c r="AV107" s="3">
@@ -22275,7 +22273,7 @@
       </c>
     </row>
     <row r="108" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A108" s="151">
+      <c r="A108" s="141">
         <v>62</v>
       </c>
       <c r="B108" s="3">
@@ -22291,7 +22289,7 @@
         <v>99010</v>
       </c>
       <c r="F108" s="36">
-        <f>(E108/$E$139)*100</f>
+        <f t="shared" si="12"/>
         <v>0.13271186488841077</v>
       </c>
       <c r="G108" s="3" t="s">
@@ -22355,7 +22353,7 @@
         <v>19.391666666666701</v>
       </c>
       <c r="AA108" s="52">
-        <f>AVERAGE(Z108,AB108)</f>
+        <f t="shared" si="13"/>
         <v>26.841666666666701</v>
       </c>
       <c r="AB108" s="52">
@@ -22368,7 +22366,7 @@
         <v>199</v>
       </c>
       <c r="AE108" s="52">
-        <f>((AF108-E108)/E108)*100</f>
+        <f t="shared" si="14"/>
         <v>1.643296144806585</v>
       </c>
       <c r="AF108" s="62">
@@ -22417,7 +22415,7 @@
         <v>38721.110320342297</v>
       </c>
       <c r="AU108" s="53">
-        <f>(AT108/E108)*100</f>
+        <f t="shared" si="15"/>
         <v>39.108282315263402</v>
       </c>
       <c r="AV108" s="3">
@@ -22446,7 +22444,7 @@
       </c>
     </row>
     <row r="109" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A109" s="151">
+      <c r="A109" s="141">
         <v>63</v>
       </c>
       <c r="B109" s="3">
@@ -22462,7 +22460,7 @@
         <v>60542</v>
       </c>
       <c r="F109" s="36">
-        <f>(E109/$E$139)*100</f>
+        <f t="shared" si="12"/>
         <v>8.1149800263348809E-2</v>
       </c>
       <c r="G109" s="3" t="s">
@@ -22526,7 +22524,7 @@
         <v>9.8666666666666707</v>
       </c>
       <c r="AA109" s="52">
-        <f>AVERAGE(Z109,AB109)</f>
+        <f t="shared" si="13"/>
         <v>17.758333333333333</v>
       </c>
       <c r="AB109" s="52">
@@ -22539,7 +22537,7 @@
         <v>199</v>
       </c>
       <c r="AE109" s="52">
-        <f>((AF109-E109)/E109)*100</f>
+        <f t="shared" si="14"/>
         <v>1.5751372634367926</v>
       </c>
       <c r="AF109" s="62">
@@ -22588,7 +22586,7 @@
         <v>22104.8817377997</v>
       </c>
       <c r="AU109" s="53">
-        <f>(AT109/E109)*100</f>
+        <f t="shared" si="15"/>
         <v>36.511647678966177</v>
       </c>
       <c r="AV109" s="3">
@@ -22617,7 +22615,7 @@
       </c>
     </row>
     <row r="110" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A110" s="151">
+      <c r="A110" s="141">
         <v>66</v>
       </c>
       <c r="B110" s="3">
@@ -22633,7 +22631,7 @@
         <v>55298</v>
       </c>
       <c r="F110" s="36">
-        <f>(E110/$E$139)*100</f>
+        <f t="shared" si="12"/>
         <v>7.4120802995650339E-2</v>
       </c>
       <c r="G110" s="3" t="s">
@@ -22697,7 +22695,7 @@
         <v>12.283333333333299</v>
       </c>
       <c r="AA110" s="52">
-        <f>AVERAGE(Z110,AB110)</f>
+        <f t="shared" si="13"/>
         <v>19.8958333333333</v>
       </c>
       <c r="AB110" s="52">
@@ -22710,7 +22708,7 @@
         <v>199</v>
       </c>
       <c r="AE110" s="52">
-        <f>((AF110-E110)/E110)*100</f>
+        <f t="shared" si="14"/>
         <v>1.6306668050972906</v>
       </c>
       <c r="AF110" s="62">
@@ -22759,7 +22757,7 @@
         <v>20775.328974645199</v>
       </c>
       <c r="AU110" s="53">
-        <f>(AT110/E110)*100</f>
+        <f t="shared" si="15"/>
         <v>37.569765587625589</v>
       </c>
       <c r="AV110" s="3">
@@ -22788,7 +22786,7 @@
       </c>
     </row>
     <row r="111" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A111" s="150">
+      <c r="A111" s="140">
         <v>67</v>
       </c>
       <c r="B111" s="3">
@@ -22804,7 +22802,7 @@
         <v>64431</v>
       </c>
       <c r="F111" s="36">
-        <f>(E111/$E$139)*100</f>
+        <f t="shared" si="12"/>
         <v>8.6362571120343345E-2</v>
       </c>
       <c r="G111" s="3" t="s">
@@ -22868,7 +22866,7 @@
         <v>12.5465889464594</v>
       </c>
       <c r="AA111" s="52">
-        <f>AVERAGE(Z111,AB111)</f>
+        <f t="shared" si="13"/>
         <v>20.3813255613126</v>
       </c>
       <c r="AB111" s="52">
@@ -22881,7 +22879,7 @@
         <v>199</v>
       </c>
       <c r="AE111" s="52">
-        <f>((AF111-E111)/E111)*100</f>
+        <f t="shared" si="14"/>
         <v>1.5697452447986218</v>
       </c>
       <c r="AF111" s="62">
@@ -22930,7 +22928,7 @@
         <v>32478.651556129102</v>
       </c>
       <c r="AU111" s="53">
-        <f>(AT111/E111)*100</f>
+        <f t="shared" si="15"/>
         <v>50.408423827240156</v>
       </c>
       <c r="AV111" s="3">
@@ -22959,7 +22957,7 @@
       </c>
     </row>
     <row r="112" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A112" s="151">
+      <c r="A112" s="141">
         <v>69</v>
       </c>
       <c r="B112" s="3">
@@ -22975,7 +22973,7 @@
         <v>52806</v>
       </c>
       <c r="F112" s="36">
-        <f>(E112/$E$139)*100</f>
+        <f t="shared" si="12"/>
         <v>7.0780554866149079E-2</v>
       </c>
       <c r="G112" s="3" t="s">
@@ -23039,7 +23037,7 @@
         <v>12.5465889464594</v>
       </c>
       <c r="AA112" s="52">
-        <f>AVERAGE(Z112,AB112)</f>
+        <f t="shared" si="13"/>
         <v>20.3813255613126</v>
       </c>
       <c r="AB112" s="52">
@@ -23052,7 +23050,7 @@
         <v>199</v>
       </c>
       <c r="AE112" s="52">
-        <f>((AF112-E112)/E112)*100</f>
+        <f t="shared" si="14"/>
         <v>1.5019370834069949</v>
       </c>
       <c r="AF112" s="62">
@@ -23101,7 +23099,7 @@
         <v>21709.0135184807</v>
       </c>
       <c r="AU112" s="53">
-        <f>(AT112/E112)*100</f>
+        <f t="shared" si="15"/>
         <v>41.110884214825397</v>
       </c>
       <c r="AV112" s="3">
@@ -23130,7 +23128,7 @@
       </c>
     </row>
     <row r="113" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A113" s="151">
+      <c r="A113" s="141">
         <v>75</v>
       </c>
       <c r="B113" s="3">
@@ -23146,7 +23144,7 @@
         <v>63104</v>
       </c>
       <c r="F113" s="36">
-        <f>(E113/$E$139)*100</f>
+        <f t="shared" si="12"/>
         <v>8.4583875587498983E-2</v>
       </c>
       <c r="G113" s="3" t="s">
@@ -23210,7 +23208,7 @@
         <v>5.9</v>
       </c>
       <c r="AA113" s="52">
-        <f>AVERAGE(Z113,AB113)</f>
+        <f t="shared" si="13"/>
         <v>14.008333333333351</v>
       </c>
       <c r="AB113" s="52">
@@ -23223,7 +23221,7 @@
         <v>199</v>
       </c>
       <c r="AE113" s="52">
-        <f>((AF113-E113)/E113)*100</f>
+        <f t="shared" si="14"/>
         <v>1.5600564925968272</v>
       </c>
       <c r="AF113" s="62">
@@ -23272,7 +23270,7 @@
         <v>26151.554081023001</v>
       </c>
       <c r="AU113" s="53">
-        <f>(AT113/E113)*100</f>
+        <f t="shared" si="15"/>
         <v>41.441991127381783</v>
       </c>
       <c r="AV113" s="3">
@@ -23301,7 +23299,7 @@
       </c>
     </row>
     <row r="114" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A114" s="151">
+      <c r="A114" s="141">
         <v>77</v>
       </c>
       <c r="B114" s="3">
@@ -23317,7 +23315,7 @@
         <v>53043</v>
       </c>
       <c r="F114" s="36">
-        <f>(E114/$E$139)*100</f>
+        <f t="shared" si="12"/>
         <v>7.1098226939460399E-2</v>
       </c>
       <c r="G114" s="3" t="s">
@@ -23381,7 +23379,7 @@
         <v>23.016666666666701</v>
       </c>
       <c r="AA114" s="52">
-        <f>AVERAGE(Z114,AB114)</f>
+        <f t="shared" si="13"/>
         <v>27.637499999999999</v>
       </c>
       <c r="AB114" s="52">
@@ -23394,7 +23392,7 @@
         <v>199</v>
       </c>
       <c r="AE114" s="52">
-        <f>((AF114-E114)/E114)*100</f>
+        <f t="shared" si="14"/>
         <v>1.9010195171174293</v>
       </c>
       <c r="AF114" s="62">
@@ -23443,7 +23441,7 @@
         <v>23638.0430561721</v>
       </c>
       <c r="AU114" s="53">
-        <f>(AT114/E114)*100</f>
+        <f t="shared" si="15"/>
         <v>44.563925600309375</v>
       </c>
       <c r="AV114" s="3">
@@ -23472,7 +23470,7 @@
       </c>
     </row>
     <row r="115" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A115" s="151">
+      <c r="A115" s="141">
         <v>78</v>
       </c>
       <c r="B115" s="3">
@@ -23488,7 +23486,7 @@
         <v>74825</v>
       </c>
       <c r="F115" s="36">
-        <f>(E115/$E$139)*100</f>
+        <f t="shared" si="12"/>
         <v>0.10029456913721177</v>
       </c>
       <c r="G115" s="3" t="s">
@@ -23552,7 +23550,7 @@
         <v>21.183333333333302</v>
       </c>
       <c r="AA115" s="52">
-        <f>AVERAGE(Z115,AB115)</f>
+        <f t="shared" si="13"/>
         <v>27.495833333333302</v>
       </c>
       <c r="AB115" s="52">
@@ -23565,7 +23563,7 @@
         <v>199</v>
       </c>
       <c r="AE115" s="52">
-        <f>((AF115-E115)/E115)*100</f>
+        <f t="shared" si="14"/>
         <v>1.8405534493777531</v>
       </c>
       <c r="AF115" s="62">
@@ -23614,7 +23612,7 @@
         <v>25588.544734409599</v>
       </c>
       <c r="AU115" s="53">
-        <f>(AT115/E115)*100</f>
+        <f t="shared" si="15"/>
         <v>34.197854640039559</v>
       </c>
       <c r="AV115" s="3">
@@ -23643,7 +23641,7 @@
       </c>
     </row>
     <row r="116" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A116" s="151">
+      <c r="A116" s="141">
         <v>83</v>
       </c>
       <c r="B116" s="3">
@@ -23659,7 +23657,7 @@
         <v>86690</v>
       </c>
       <c r="F116" s="36">
-        <f>(E116/$E$139)*100</f>
+        <f t="shared" si="12"/>
         <v>0.11619827863020231</v>
       </c>
       <c r="G116" s="3" t="s">
@@ -23723,7 +23721,7 @@
         <v>10.125</v>
       </c>
       <c r="AA116" s="52">
-        <f>AVERAGE(Z116,AB116)</f>
+        <f t="shared" si="13"/>
         <v>18.41666666666665</v>
       </c>
       <c r="AB116" s="52">
@@ -23736,7 +23734,7 @@
         <v>96.25</v>
       </c>
       <c r="AE116" s="52">
-        <f>((AF116-E116)/E116)*100</f>
+        <f t="shared" si="14"/>
         <v>1.4000434709018366</v>
       </c>
       <c r="AF116" s="62">
@@ -23785,7 +23783,7 @@
         <v>37822.744250838201</v>
       </c>
       <c r="AU116" s="53">
-        <f>(AT116/E116)*100</f>
+        <f t="shared" si="15"/>
         <v>43.629881475185371</v>
       </c>
       <c r="AV116" s="3">
@@ -23814,7 +23812,7 @@
       </c>
     </row>
     <row r="117" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A117" s="151">
+      <c r="A117" s="141">
         <v>89</v>
       </c>
       <c r="B117" s="3">
@@ -23830,7 +23828,7 @@
         <v>138878</v>
       </c>
       <c r="F117" s="36">
-        <f>(E117/$E$139)*100</f>
+        <f t="shared" si="12"/>
         <v>0.18615047340645099</v>
       </c>
       <c r="G117" s="3" t="s">
@@ -23894,7 +23892,7 @@
         <v>6.6</v>
       </c>
       <c r="AA117" s="52">
-        <f>AVERAGE(Z117,AB117)</f>
+        <f t="shared" si="13"/>
         <v>13.649999999999999</v>
       </c>
       <c r="AB117" s="52">
@@ -23907,7 +23905,7 @@
         <v>48.75</v>
       </c>
       <c r="AE117" s="52">
-        <f>((AF117-E117)/E117)*100</f>
+        <f t="shared" si="14"/>
         <v>1.1228135149469238</v>
       </c>
       <c r="AF117" s="62">
@@ -23956,7 +23954,7 @@
         <v>60562.435417606197</v>
       </c>
       <c r="AU117" s="53">
-        <f>(AT117/E117)*100</f>
+        <f t="shared" si="15"/>
         <v>43.608372397072394</v>
       </c>
       <c r="AV117" s="3">
@@ -23985,7 +23983,7 @@
       </c>
     </row>
     <row r="118" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A118" s="151">
+      <c r="A118" s="141">
         <v>92</v>
       </c>
       <c r="B118" s="3">
@@ -24001,7 +23999,7 @@
         <v>77236</v>
       </c>
       <c r="F118" s="36">
-        <f>(E118/$E$139)*100</f>
+        <f t="shared" si="12"/>
         <v>0.1035262457986193</v>
       </c>
       <c r="G118" s="3" t="s">
@@ -24065,7 +24063,7 @@
         <v>19.216666666666701</v>
       </c>
       <c r="AA118" s="52">
-        <f>AVERAGE(Z118,AB118)</f>
+        <f t="shared" si="13"/>
         <v>25.466666666666701</v>
       </c>
       <c r="AB118" s="52">
@@ -24078,7 +24076,7 @@
         <v>199</v>
       </c>
       <c r="AE118" s="52">
-        <f>((AF118-E118)/E118)*100</f>
+        <f t="shared" si="14"/>
         <v>1.8619226040482348</v>
       </c>
       <c r="AF118" s="62">
@@ -24127,7 +24125,7 @@
         <v>35174.013402904398</v>
       </c>
       <c r="AU118" s="53">
-        <f>(AT118/E118)*100</f>
+        <f t="shared" si="15"/>
         <v>45.540956811466671</v>
       </c>
       <c r="AV118" s="3">
@@ -24156,7 +24154,7 @@
       </c>
     </row>
     <row r="119" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A119" s="151">
+      <c r="A119" s="141">
         <v>93</v>
       </c>
       <c r="B119" s="3">
@@ -24172,7 +24170,7 @@
         <v>149923</v>
       </c>
       <c r="F119" s="36">
-        <f>(E119/$E$139)*100</f>
+        <f t="shared" si="12"/>
         <v>0.20095506433355428</v>
       </c>
       <c r="G119" s="3" t="s">
@@ -24236,7 +24234,7 @@
         <v>19.8764583333333</v>
       </c>
       <c r="AA119" s="52">
-        <f>AVERAGE(Z119,AB119)</f>
+        <f t="shared" si="13"/>
         <v>25.730208333333351</v>
       </c>
       <c r="AB119" s="52">
@@ -24249,7 +24247,7 @@
         <v>20</v>
       </c>
       <c r="AE119" s="52">
-        <f>((AF119-E119)/E119)*100</f>
+        <f t="shared" si="14"/>
         <v>1.9155550170434219</v>
       </c>
       <c r="AF119" s="62">
@@ -24298,7 +24296,7 @@
         <v>110060.8542841</v>
       </c>
       <c r="AU119" s="53">
-        <f>(AT119/E119)*100</f>
+        <f t="shared" si="15"/>
         <v>73.411587470968428</v>
       </c>
       <c r="AV119" s="3">
@@ -24327,7 +24325,7 @@
       </c>
     </row>
     <row r="120" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A120" s="150">
+      <c r="A120" s="140">
         <v>94</v>
       </c>
       <c r="B120" s="3">
@@ -24343,7 +24341,7 @@
         <v>124644</v>
       </c>
       <c r="F120" s="36">
-        <f>(E120/$E$139)*100</f>
+        <f t="shared" si="12"/>
         <v>0.16707138356884227</v>
       </c>
       <c r="G120" s="3" t="s">
@@ -24407,7 +24405,7 @@
         <v>12.283333333333299</v>
       </c>
       <c r="AA120" s="52">
-        <f>AVERAGE(Z120,AB120)</f>
+        <f t="shared" si="13"/>
         <v>19.962499999999999</v>
       </c>
       <c r="AB120" s="52">
@@ -24420,7 +24418,7 @@
         <v>199</v>
       </c>
       <c r="AE120" s="52">
-        <f>((AF120-E120)/E120)*100</f>
+        <f t="shared" si="14"/>
         <v>1.0973435330060031</v>
       </c>
       <c r="AF120" s="62">
@@ -24469,7 +24467,7 @@
         <v>46186.795442213799</v>
       </c>
       <c r="AU120" s="53">
-        <f>(AT120/E120)*100</f>
+        <f t="shared" si="15"/>
         <v>37.054968905213087</v>
       </c>
       <c r="AV120" s="3">
@@ -24498,7 +24496,7 @@
       </c>
     </row>
     <row r="121" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A121" s="151">
+      <c r="A121" s="141">
         <v>95</v>
       </c>
       <c r="B121" s="3">
@@ -24514,7 +24512,7 @@
         <v>77328</v>
       </c>
       <c r="F121" s="36">
-        <f>(E121/$E$139)*100</f>
+        <f t="shared" si="12"/>
         <v>0.10364956154015785</v>
       </c>
       <c r="G121" s="3" t="s">
@@ -24578,7 +24576,7 @@
         <v>19.3333333333333</v>
       </c>
       <c r="AA121" s="52">
-        <f>AVERAGE(Z121,AB121)</f>
+        <f t="shared" si="13"/>
         <v>25.237500000000001</v>
       </c>
       <c r="AB121" s="52">
@@ -24591,7 +24589,7 @@
         <v>199</v>
       </c>
       <c r="AE121" s="52">
-        <f>((AF121-E121)/E121)*100</f>
+        <f t="shared" si="14"/>
         <v>1.2435706801797577</v>
       </c>
       <c r="AF121" s="62">
@@ -24640,7 +24638,7 @@
         <v>29948.736784598201</v>
       </c>
       <c r="AU121" s="53">
-        <f>(AT121/E121)*100</f>
+        <f t="shared" si="15"/>
         <v>38.729485806691237</v>
       </c>
       <c r="AV121" s="3">
@@ -24669,7 +24667,7 @@
       </c>
     </row>
     <row r="122" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A122" s="151">
+      <c r="A122" s="141">
         <v>101</v>
       </c>
       <c r="B122" s="3">
@@ -24685,7 +24683,7 @@
         <v>256613</v>
       </c>
       <c r="F122" s="36">
-        <f>(E122/$E$139)*100</f>
+        <f t="shared" si="12"/>
         <v>0.34396111286344566</v>
       </c>
       <c r="G122" s="3" t="s">
@@ -24749,7 +24747,7 @@
         <v>16.741666666666699</v>
       </c>
       <c r="AA122" s="52">
-        <f>AVERAGE(Z122,AB122)</f>
+        <f t="shared" si="13"/>
         <v>25.683333333333351</v>
       </c>
       <c r="AB122" s="52">
@@ -24762,7 +24760,7 @@
         <v>46.25</v>
       </c>
       <c r="AE122" s="52">
-        <f>((AF122-E122)/E122)*100</f>
+        <f t="shared" si="14"/>
         <v>2.9844888827300187</v>
       </c>
       <c r="AF122" s="62">
@@ -24811,7 +24809,7 @@
         <v>94839.165426772597</v>
       </c>
       <c r="AU122" s="53">
-        <f>(AT122/E122)*100</f>
+        <f t="shared" si="15"/>
         <v>36.958051784894998</v>
       </c>
       <c r="AV122" s="3">
@@ -24840,7 +24838,7 @@
       </c>
     </row>
     <row r="123" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A123" s="151">
+      <c r="A123" s="141">
         <v>98</v>
       </c>
       <c r="B123" s="3">
@@ -24856,7 +24854,7 @@
         <v>675773</v>
       </c>
       <c r="F123" s="36">
-        <f>(E123/$E$139)*100</f>
+        <f t="shared" si="12"/>
         <v>0.90579835442112944</v>
       </c>
       <c r="G123" s="139" t="s">
@@ -24920,7 +24918,7 @@
         <v>13.841666666666701</v>
       </c>
       <c r="AA123" s="52">
-        <f>AVERAGE(Z123,AB123)</f>
+        <f t="shared" si="13"/>
         <v>24.287500000000001</v>
       </c>
       <c r="AB123" s="52">
@@ -24933,7 +24931,7 @@
         <v>199</v>
       </c>
       <c r="AE123" s="52">
-        <f>((AF123-E123)/E123)*100</f>
+        <f t="shared" si="14"/>
         <v>3.109943912188704</v>
       </c>
       <c r="AF123" s="62">
@@ -24982,7 +24980,7 @@
         <v>264181.23485916102</v>
       </c>
       <c r="AU123" s="53">
-        <f>(AT123/E123)*100</f>
+        <f t="shared" si="15"/>
         <v>39.093191775812443</v>
       </c>
       <c r="AV123" s="3">
@@ -25011,7 +25009,7 @@
       </c>
     </row>
     <row r="124" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A124" s="150">
+      <c r="A124" s="140">
         <v>100</v>
       </c>
       <c r="B124" s="3">
@@ -25027,7 +25025,7 @@
         <v>71196</v>
       </c>
       <c r="F124" s="36">
-        <f>(E124/$E$139)*100</f>
+        <f t="shared" si="12"/>
         <v>9.5430299288913181E-2</v>
       </c>
       <c r="G124" s="3" t="s">
@@ -25091,7 +25089,7 @@
         <v>17.033333333333299</v>
       </c>
       <c r="AA124" s="52">
-        <f>AVERAGE(Z124,AB124)</f>
+        <f t="shared" si="13"/>
         <v>24.466666666666647</v>
       </c>
       <c r="AB124" s="52">
@@ -25104,7 +25102,7 @@
         <v>199</v>
       </c>
       <c r="AE124" s="52">
-        <f>((AF124-E124)/E124)*100</f>
+        <f t="shared" si="14"/>
         <v>2.975147195653967</v>
       </c>
       <c r="AF124" s="62">
@@ -25153,7 +25151,7 @@
         <v>23816.415638378199</v>
       </c>
       <c r="AU124" s="53">
-        <f>(AT124/E124)*100</f>
+        <f t="shared" si="15"/>
         <v>33.451901284311198</v>
       </c>
       <c r="AV124" s="3">
@@ -25182,7 +25180,7 @@
       </c>
     </row>
     <row r="125" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A125" s="151">
+      <c r="A125" s="141">
         <v>102</v>
       </c>
       <c r="B125" s="3">
@@ -25198,7 +25196,7 @@
         <v>381583</v>
       </c>
       <c r="F125" s="36">
-        <f>(E125/$E$139)*100</f>
+        <f t="shared" si="12"/>
         <v>0.51146946308165286</v>
       </c>
       <c r="G125" s="3" t="s">
@@ -25262,7 +25260,7 @@
         <v>16.5</v>
       </c>
       <c r="AA125" s="52">
-        <f>AVERAGE(Z125,AB125)</f>
+        <f t="shared" si="13"/>
         <v>24.512499999999999</v>
       </c>
       <c r="AB125" s="52">
@@ -25275,7 +25273,7 @@
         <v>41.25</v>
       </c>
       <c r="AE125" s="52">
-        <f>((AF125-E125)/E125)*100</f>
+        <f t="shared" si="14"/>
         <v>2.9928759304903489</v>
       </c>
       <c r="AF125" s="62">
@@ -25324,7 +25322,7 @@
         <v>163797.29259820201</v>
       </c>
       <c r="AU125" s="53">
-        <f>(AT125/E125)*100</f>
+        <f t="shared" si="15"/>
         <v>42.925731124867198</v>
       </c>
       <c r="AV125" s="3">
@@ -25353,7 +25351,7 @@
       </c>
     </row>
     <row r="126" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A126" s="151">
+      <c r="A126" s="141">
         <v>99</v>
       </c>
       <c r="B126" s="3">
@@ -25369,7 +25367,7 @@
         <v>63743</v>
       </c>
       <c r="F126" s="36">
-        <f>(E126/$E$139)*100</f>
+        <f t="shared" si="12"/>
         <v>8.5440383835794054E-2</v>
       </c>
       <c r="G126" s="3" t="s">
@@ -25433,7 +25431,7 @@
         <v>17.5</v>
       </c>
       <c r="AA126" s="52">
-        <f>AVERAGE(Z126,AB126)</f>
+        <f t="shared" si="13"/>
         <v>24.970833333333349</v>
       </c>
       <c r="AB126" s="52">
@@ -25446,7 +25444,7 @@
         <v>199</v>
       </c>
       <c r="AE126" s="52">
-        <f>((AF126-E126)/E126)*100</f>
+        <f t="shared" si="14"/>
         <v>3.014185481787325</v>
       </c>
       <c r="AF126" s="62">
@@ -25495,7 +25493,7 @@
         <v>25240.890029714901</v>
       </c>
       <c r="AU126" s="53">
-        <f>(AT126/E126)*100</f>
+        <f t="shared" si="15"/>
         <v>39.597900992602952</v>
       </c>
       <c r="AV126" s="3">
@@ -25524,7 +25522,7 @@
       </c>
     </row>
     <row r="127" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A127" s="150">
+      <c r="A127" s="140">
         <v>103</v>
       </c>
       <c r="B127" s="3">
@@ -25540,7 +25538,7 @@
         <v>77254</v>
       </c>
       <c r="F127" s="36">
-        <f>(E127/$E$139)*100</f>
+        <f t="shared" si="12"/>
         <v>0.103550372791529</v>
       </c>
       <c r="G127" s="3" t="s">
@@ -25604,7 +25602,7 @@
         <v>13.9416666666667</v>
       </c>
       <c r="AA127" s="52">
-        <f>AVERAGE(Z127,AB127)</f>
+        <f t="shared" si="13"/>
         <v>23.375</v>
       </c>
       <c r="AB127" s="52">
@@ -25617,7 +25615,7 @@
         <v>199</v>
       </c>
       <c r="AE127" s="52">
-        <f>((AF127-E127)/E127)*100</f>
+        <f t="shared" si="14"/>
         <v>2.4191060537979951</v>
       </c>
       <c r="AF127" s="62">
@@ -25666,7 +25664,7 @@
         <v>29619.662715762301</v>
       </c>
       <c r="AU127" s="53">
-        <f>(AT127/E127)*100</f>
+        <f t="shared" si="15"/>
         <v>38.340620182466026</v>
       </c>
       <c r="AV127" s="3">
@@ -25695,7 +25693,7 @@
       </c>
     </row>
     <row r="128" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A128" s="151">
+      <c r="A128" s="141">
         <v>107</v>
       </c>
       <c r="B128" s="3">
@@ -25711,7 +25709,7 @@
         <v>59922</v>
       </c>
       <c r="F128" s="36">
-        <f>(E128/$E$139)*100</f>
+        <f t="shared" si="12"/>
         <v>8.0318759396458439E-2</v>
       </c>
       <c r="G128" s="3" t="s">
@@ -25775,7 +25773,7 @@
         <v>13.1666666666667</v>
       </c>
       <c r="AA128" s="52">
-        <f>AVERAGE(Z128,AB128)</f>
+        <f t="shared" si="13"/>
         <v>23.829166666666701</v>
       </c>
       <c r="AB128" s="52">
@@ -25788,7 +25786,7 @@
         <v>199</v>
       </c>
       <c r="AE128" s="52">
-        <f>((AF128-E128)/E128)*100</f>
+        <f t="shared" si="14"/>
         <v>2.4755996559176916</v>
       </c>
       <c r="AF128" s="62">
@@ -25837,7 +25835,7 @@
         <v>25871.205032653201</v>
       </c>
       <c r="AU128" s="53">
-        <f>(AT128/E128)*100</f>
+        <f t="shared" si="15"/>
         <v>43.174802297408633</v>
       </c>
       <c r="AV128" s="3">
@@ -25866,7 +25864,7 @@
       </c>
     </row>
     <row r="129" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A129" s="150">
+      <c r="A129" s="140">
         <v>106</v>
       </c>
       <c r="B129" s="3">
@@ -25882,7 +25880,7 @@
         <v>715061</v>
       </c>
       <c r="F129" s="36">
-        <f>(E129/$E$139)*100</f>
+        <f t="shared" si="12"/>
         <v>0.95845953761207847</v>
       </c>
       <c r="G129" s="69" t="s">
@@ -25946,7 +25944,7 @@
         <v>12.992654639175299</v>
       </c>
       <c r="AA129" s="52">
-        <f>AVERAGE(Z129,AB129)</f>
+        <f t="shared" si="13"/>
         <v>22.01679925836315</v>
       </c>
       <c r="AB129" s="52">
@@ -25959,7 +25957,7 @@
         <v>199</v>
       </c>
       <c r="AE129" s="52">
-        <f>((AF129-E129)/E129)*100</f>
+        <f t="shared" si="14"/>
         <v>2.4930432827287539</v>
       </c>
       <c r="AF129" s="62">
@@ -26008,7 +26006,7 @@
         <v>277793.114722914</v>
       </c>
       <c r="AU129" s="53">
-        <f>(AT129/E129)*100</f>
+        <f t="shared" si="15"/>
         <v>38.848869498254558</v>
       </c>
       <c r="AV129" s="3">
@@ -26037,7 +26035,7 @@
       </c>
     </row>
     <row r="130" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A130" s="150">
+      <c r="A130" s="140">
         <v>109</v>
       </c>
       <c r="B130" s="3">
@@ -26053,7 +26051,7 @@
         <v>113836</v>
       </c>
       <c r="F130" s="36">
-        <f>(E130/$E$139)*100</f>
+        <f t="shared" ref="F130:F161" si="16">(E130/$E$139)*100</f>
         <v>0.1525844647150503</v>
       </c>
       <c r="G130" s="3" t="s">
@@ -26117,7 +26115,7 @@
         <v>12.992654639175299</v>
       </c>
       <c r="AA130" s="52">
-        <f>AVERAGE(Z130,AB130)</f>
+        <f t="shared" ref="AA130:AA161" si="17">AVERAGE(Z130,AB130)</f>
         <v>22.01679925836315</v>
       </c>
       <c r="AB130" s="52">
@@ -26130,7 +26128,7 @@
         <v>199</v>
       </c>
       <c r="AE130" s="52">
-        <f>((AF130-E130)/E130)*100</f>
+        <f t="shared" ref="AE130:AE161" si="18">((AF130-E130)/E130)*100</f>
         <v>2.3361160382567867</v>
       </c>
       <c r="AF130" s="62">
@@ -26179,7 +26177,7 @@
         <v>38495.764279238399</v>
       </c>
       <c r="AU130" s="53">
-        <f>(AT130/E130)*100</f>
+        <f t="shared" ref="AU130:AU161" si="19">(AT130/E130)*100</f>
         <v>33.816863100634599</v>
       </c>
       <c r="AV130" s="3">
@@ -26208,7 +26206,7 @@
       </c>
     </row>
     <row r="131" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A131" s="151">
+      <c r="A131" s="141">
         <v>108</v>
       </c>
       <c r="B131" s="3">
@@ -26224,7 +26222,7 @@
         <v>212533</v>
       </c>
       <c r="F131" s="36">
-        <f>(E131/$E$139)*100</f>
+        <f t="shared" si="16"/>
         <v>0.28487678800453098</v>
       </c>
       <c r="G131" s="3" t="s">
@@ -26288,7 +26286,7 @@
         <v>15.25</v>
       </c>
       <c r="AA131" s="52">
-        <f>AVERAGE(Z131,AB131)</f>
+        <f t="shared" si="17"/>
         <v>24.087499999999999</v>
       </c>
       <c r="AB131" s="52">
@@ -26301,7 +26299,7 @@
         <v>199</v>
       </c>
       <c r="AE131" s="52">
-        <f>((AF131-E131)/E131)*100</f>
+        <f t="shared" si="18"/>
         <v>2.5134144484310728</v>
       </c>
       <c r="AF131" s="62">
@@ -26350,7 +26348,7 @@
         <v>82389.195254480393</v>
       </c>
       <c r="AU131" s="53">
-        <f>(AT131/E131)*100</f>
+        <f t="shared" si="19"/>
         <v>38.765365968805035</v>
       </c>
       <c r="AV131" s="3">
@@ -26379,7 +26377,7 @@
       </c>
     </row>
     <row r="132" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A132" s="151">
+      <c r="A132" s="141">
         <v>110</v>
       </c>
       <c r="B132" s="3">
@@ -26395,7 +26393,7 @@
         <v>56756</v>
       </c>
       <c r="F132" s="36">
-        <f>(E132/$E$139)*100</f>
+        <f t="shared" si="16"/>
         <v>7.6075089421337672E-2</v>
       </c>
       <c r="G132" s="3" t="s">
@@ -26459,7 +26457,7 @@
         <v>15.324999999999999</v>
       </c>
       <c r="AA132" s="52">
-        <f>AVERAGE(Z132,AB132)</f>
+        <f t="shared" si="17"/>
         <v>24.445833333333347</v>
       </c>
       <c r="AB132" s="52">
@@ -26472,7 +26470,7 @@
         <v>199</v>
       </c>
       <c r="AE132" s="52">
-        <f>((AF132-E132)/E132)*100</f>
+        <f t="shared" si="18"/>
         <v>2.5074915770140627</v>
       </c>
       <c r="AF132" s="62">
@@ -26521,7 +26519,7 @@
         <v>29957.689860834998</v>
       </c>
       <c r="AU132" s="53">
-        <f>(AT132/E132)*100</f>
+        <f t="shared" si="19"/>
         <v>52.783300198807169</v>
       </c>
       <c r="AV132" s="3">
@@ -26550,7 +26548,7 @@
       </c>
     </row>
     <row r="133" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A133" s="151">
+      <c r="A133" s="141">
         <v>111</v>
       </c>
       <c r="B133" s="3">
@@ -26566,7 +26564,7 @@
         <v>158089</v>
       </c>
       <c r="F133" s="36">
-        <f>(E133/$E$139)*100</f>
+        <f t="shared" si="16"/>
         <v>0.21190067678359734</v>
       </c>
       <c r="G133" s="3" t="s">
@@ -26630,7 +26628,7 @@
         <v>10.591666666666701</v>
       </c>
       <c r="AA133" s="52">
-        <f>AVERAGE(Z133,AB133)</f>
+        <f t="shared" si="17"/>
         <v>19.737500000000001</v>
       </c>
       <c r="AB133" s="52">
@@ -26643,7 +26641,7 @@
         <v>199</v>
       </c>
       <c r="AE133" s="52">
-        <f>((AF133-E133)/E133)*100</f>
+        <f t="shared" si="18"/>
         <v>2.4057386008014507</v>
       </c>
       <c r="AF133" s="62">
@@ -26692,7 +26690,7 @@
         <v>62842.9919329521</v>
       </c>
       <c r="AU133" s="53">
-        <f>(AT133/E133)*100</f>
+        <f t="shared" si="19"/>
         <v>39.751653772844477</v>
       </c>
       <c r="AV133" s="3">
@@ -26721,7 +26719,7 @@
       </c>
     </row>
     <row r="134" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A134" s="151">
+      <c r="A134" s="141">
         <v>114</v>
       </c>
       <c r="B134" s="3">
@@ -26737,7 +26735,7 @@
         <v>84787</v>
       </c>
       <c r="F134" s="36">
-        <f>(E134/$E$139)*100</f>
+        <f t="shared" si="16"/>
         <v>0.1136475193242469</v>
       </c>
       <c r="G134" s="3" t="s">
@@ -26801,7 +26799,7 @@
         <v>15.875</v>
       </c>
       <c r="AA134" s="52">
-        <f>AVERAGE(Z134,AB134)</f>
+        <f t="shared" si="17"/>
         <v>23.245833333333351</v>
       </c>
       <c r="AB134" s="52">
@@ -26814,7 +26812,7 @@
         <v>199</v>
       </c>
       <c r="AE134" s="52">
-        <f>((AF134-E134)/E134)*100</f>
+        <f t="shared" si="18"/>
         <v>2.007689441663342</v>
       </c>
       <c r="AF134" s="62">
@@ -26863,7 +26861,7 @@
         <v>34571.029354359503</v>
       </c>
       <c r="AU134" s="53">
-        <f>(AT134/E134)*100</f>
+        <f t="shared" si="19"/>
         <v>40.773974022384927</v>
       </c>
       <c r="AV134" s="3">
@@ -26892,7 +26890,7 @@
       </c>
     </row>
     <row r="135" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A135" s="150">
+      <c r="A135" s="140">
         <v>115</v>
       </c>
       <c r="B135" s="3">
@@ -26908,7 +26906,7 @@
         <v>305155</v>
       </c>
       <c r="F135" s="36">
-        <f>(E135/$E$139)*100</f>
+        <f t="shared" si="16"/>
         <v>0.40902625118698105</v>
       </c>
       <c r="G135" s="3" t="s">
@@ -26972,7 +26970,7 @@
         <v>17.75</v>
       </c>
       <c r="AA135" s="52">
-        <f>AVERAGE(Z135,AB135)</f>
+        <f t="shared" si="17"/>
         <v>24.262499999999999</v>
       </c>
       <c r="AB135" s="52">
@@ -26985,7 +26983,7 @@
         <v>50</v>
       </c>
       <c r="AE135" s="52">
-        <f>((AF135-E135)/E135)*100</f>
+        <f t="shared" si="18"/>
         <v>2.0398866365646939</v>
       </c>
       <c r="AF135" s="62">
@@ -27034,7 +27032,7 @@
         <v>120926.316465447</v>
       </c>
       <c r="AU135" s="53">
-        <f>(AT135/E135)*100</f>
+        <f t="shared" si="19"/>
         <v>39.627833876373316</v>
       </c>
       <c r="AV135" s="3">
@@ -27063,7 +27061,7 @@
       </c>
     </row>
     <row r="136" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A136" s="151">
+      <c r="A136" s="141">
         <v>129</v>
       </c>
       <c r="B136" s="3">
@@ -27079,7 +27077,7 @@
         <v>61769</v>
       </c>
       <c r="F136" s="36">
-        <f>(E136/$E$139)*100</f>
+        <f t="shared" si="16"/>
         <v>8.2794456946694725E-2</v>
       </c>
       <c r="G136" s="3" t="s">
@@ -27143,7 +27141,7 @@
         <v>19.558333333333302</v>
       </c>
       <c r="AA136" s="52">
-        <f>AVERAGE(Z136,AB136)</f>
+        <f t="shared" si="17"/>
         <v>25.170833333333299</v>
       </c>
       <c r="AB136" s="52">
@@ -27156,7 +27154,7 @@
         <v>199</v>
       </c>
       <c r="AE136" s="52">
-        <f>((AF136-E136)/E136)*100</f>
+        <f t="shared" si="18"/>
         <v>0.94244468681733107</v>
       </c>
       <c r="AF136" s="62">
@@ -27205,7 +27203,7 @@
         <v>19995.5175834371</v>
       </c>
       <c r="AU136" s="53">
-        <f>(AT136/E136)*100</f>
+        <f t="shared" si="19"/>
         <v>32.371444548943806</v>
       </c>
       <c r="AV136" s="3">
@@ -27473,7 +27471,7 @@
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.42578125" customWidth="1"/>
     <col min="2" max="3" width="19" style="23" customWidth="1"/>
@@ -28153,7 +28151,7 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="18.28515625" style="7" customWidth="1"/>
     <col min="3" max="3" width="17.140625" style="7" customWidth="1"/>
@@ -28539,21 +28537,21 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G136"/>
+  <dimension ref="A1:D136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="47.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.140625" customWidth="1"/>
-    <col min="4" max="1026" width="11.5703125"/>
+    <col min="4" max="1023" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="70" t="s">
         <v>307</v>
       </c>
@@ -28564,7 +28562,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -28576,7 +28574,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>60</v>
       </c>
@@ -28587,7 +28585,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -28598,7 +28596,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -28609,7 +28607,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>62</v>
       </c>
@@ -28620,7 +28618,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>144</v>
       </c>
@@ -28631,7 +28629,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>61</v>
       </c>
@@ -28642,7 +28640,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>63</v>
       </c>
@@ -28652,14 +28650,8 @@
       <c r="C9" t="s">
         <v>71</v>
       </c>
-      <c r="F9" t="s">
-        <v>472</v>
-      </c>
-      <c r="G9">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>145</v>
       </c>
@@ -28669,11 +28661,8 @@
       <c r="C10" t="s">
         <v>71</v>
       </c>
-      <c r="F10" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>13</v>
       </c>
@@ -28684,7 +28673,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>160</v>
       </c>
@@ -28695,7 +28684,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>172</v>
       </c>
@@ -28706,7 +28695,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>66</v>
       </c>
@@ -28717,7 +28706,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>10</v>
       </c>
@@ -28728,7 +28717,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -30082,14 +30071,15 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C11"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.42578125"/>
     <col min="2" max="2" width="18"/>
-    <col min="3" max="1025" width="11.5703125"/>
+    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -30231,7 +30221,7 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.140625"/>
     <col min="2" max="2" width="18"/>
@@ -30509,7 +30499,7 @@
       <selection activeCell="B22" sqref="B22:B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.28515625"/>
     <col min="2" max="2" width="18"/>
@@ -31227,7 +31217,7 @@
       <selection activeCell="B2" sqref="B2:B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43.140625"/>
     <col min="2" max="2" width="18"/>
@@ -31703,7 +31693,7 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="44.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="3" customWidth="1"/>
@@ -34446,7 +34436,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.28515625" customWidth="1"/>
     <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
@@ -34463,7 +34453,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="145" t="s">
         <v>438</v>
       </c>
       <c r="B2" t="s">
@@ -34471,31 +34461,31 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="143"/>
+      <c r="A3" s="145"/>
       <c r="B3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="143"/>
+      <c r="A4" s="145"/>
       <c r="B4" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="143"/>
+      <c r="A5" s="145"/>
       <c r="B5" s="54" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="143"/>
+      <c r="A6" s="145"/>
       <c r="B6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="144" t="s">
+      <c r="A7" s="146" t="s">
         <v>436</v>
       </c>
       <c r="B7" s="54" t="s">
@@ -34503,13 +34493,13 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="144"/>
+      <c r="A8" s="146"/>
       <c r="B8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="145" t="s">
+      <c r="A9" s="147" t="s">
         <v>437</v>
       </c>
       <c r="B9" t="s">
@@ -34517,67 +34507,67 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="145"/>
+      <c r="A10" s="147"/>
       <c r="B10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="145"/>
+      <c r="A11" s="147"/>
       <c r="B11" s="54" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="145"/>
+      <c r="A12" s="147"/>
       <c r="B12" s="54" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="145"/>
+      <c r="A13" s="147"/>
       <c r="B13" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="145"/>
+      <c r="A14" s="147"/>
       <c r="B14" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="145"/>
+      <c r="A15" s="147"/>
       <c r="B15" s="54" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="145"/>
+      <c r="A16" s="147"/>
       <c r="B16" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="145"/>
+      <c r="A17" s="147"/>
       <c r="B17" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="145"/>
+      <c r="A18" s="147"/>
       <c r="B18" s="54" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="145"/>
+      <c r="A19" s="147"/>
       <c r="B19" s="54" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="142" t="s">
+      <c r="A20" s="144" t="s">
         <v>435</v>
       </c>
       <c r="B20" t="s">
@@ -34585,73 +34575,73 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="142"/>
+      <c r="A21" s="144"/>
       <c r="B21" s="54" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="142"/>
+      <c r="A22" s="144"/>
       <c r="B22" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="142"/>
+      <c r="A23" s="144"/>
       <c r="B23" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="142"/>
+      <c r="A24" s="144"/>
       <c r="B24" s="54" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="142"/>
+      <c r="A25" s="144"/>
       <c r="B25" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="142"/>
+      <c r="A26" s="144"/>
       <c r="B26" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="142"/>
+      <c r="A27" s="144"/>
       <c r="B27" s="54" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="142"/>
+      <c r="A28" s="144"/>
       <c r="B28" s="54" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="142"/>
+      <c r="A29" s="144"/>
       <c r="B29" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="142"/>
+      <c r="A30" s="144"/>
       <c r="B30" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="142"/>
+      <c r="A31" s="144"/>
       <c r="B31" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="141" t="s">
+      <c r="A32" s="143" t="s">
         <v>434</v>
       </c>
       <c r="B32" s="12" t="s">
@@ -34665,7 +34655,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="141"/>
+      <c r="A33" s="143"/>
       <c r="B33" t="s">
         <v>57</v>
       </c>
@@ -34677,7 +34667,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="141"/>
+      <c r="A34" s="143"/>
       <c r="B34" t="s">
         <v>8</v>
       </c>
@@ -34689,7 +34679,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="141"/>
+      <c r="A35" s="143"/>
       <c r="B35" t="s">
         <v>74</v>
       </c>
@@ -34701,7 +34691,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="141"/>
+      <c r="A36" s="143"/>
       <c r="B36" t="s">
         <v>91</v>
       </c>
@@ -34713,7 +34703,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="141"/>
+      <c r="A37" s="143"/>
       <c r="B37" s="54" t="s">
         <v>80</v>
       </c>
@@ -34725,7 +34715,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="141"/>
+      <c r="A38" s="143"/>
       <c r="B38" t="s">
         <v>29</v>
       </c>
@@ -34737,7 +34727,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="141"/>
+      <c r="A39" s="143"/>
       <c r="B39" s="54" t="s">
         <v>10</v>
       </c>
@@ -34749,7 +34739,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="141"/>
+      <c r="A40" s="143"/>
       <c r="B40" s="54" t="s">
         <v>21</v>
       </c>
@@ -34761,7 +34751,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="141"/>
+      <c r="A41" s="143"/>
       <c r="B41" t="s">
         <v>42</v>
       </c>
@@ -34773,7 +34763,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="141"/>
+      <c r="A42" s="143"/>
       <c r="B42" t="s">
         <v>9</v>
       </c>
@@ -34785,7 +34775,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="141"/>
+      <c r="A43" s="143"/>
       <c r="B43" t="s">
         <v>47</v>
       </c>
@@ -34797,7 +34787,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="140" t="s">
+      <c r="A44" s="142" t="s">
         <v>439</v>
       </c>
       <c r="B44" t="s">
@@ -34805,73 +34795,73 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="140"/>
+      <c r="A45" s="142"/>
       <c r="B45" s="54" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="140"/>
+      <c r="A46" s="142"/>
       <c r="B46" s="54" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="140"/>
+      <c r="A47" s="142"/>
       <c r="B47" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="140"/>
+      <c r="A48" s="142"/>
       <c r="B48" s="54" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="140"/>
+      <c r="A49" s="142"/>
       <c r="B49" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="140"/>
+      <c r="A50" s="142"/>
       <c r="B50" s="54" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="140"/>
+      <c r="A51" s="142"/>
       <c r="B51" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="140"/>
+      <c r="A52" s="142"/>
       <c r="B52" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="140"/>
+      <c r="A53" s="142"/>
       <c r="B53" s="54" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="140"/>
+      <c r="A54" s="142"/>
       <c r="B54" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="140"/>
+      <c r="A55" s="142"/>
       <c r="B55" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="140"/>
+      <c r="A56" s="142"/>
       <c r="B56" s="54" t="s">
         <v>20</v>
       </c>
@@ -34898,7 +34888,7 @@
       <selection activeCell="H132" sqref="H132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.140625" style="90" customWidth="1"/>
     <col min="2" max="2" width="44.42578125" style="89" bestFit="1" customWidth="1"/>
@@ -35851,7 +35841,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="146" t="s">
+      <c r="A51" s="148" t="s">
         <v>157</v>
       </c>
       <c r="B51" s="91" t="s">
@@ -35872,7 +35862,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="146"/>
+      <c r="A52" s="148"/>
       <c r="B52" s="89" t="s">
         <v>46</v>
       </c>
@@ -35891,7 +35881,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="146"/>
+      <c r="A53" s="148"/>
       <c r="B53" s="89" t="s">
         <v>47</v>
       </c>
@@ -35910,7 +35900,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="146" t="s">
+      <c r="A54" s="148" t="s">
         <v>149</v>
       </c>
       <c r="B54" s="89" t="s">
@@ -35931,7 +35921,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="146"/>
+      <c r="A55" s="148"/>
       <c r="B55" s="89" t="s">
         <v>122</v>
       </c>
@@ -35950,7 +35940,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="146"/>
+      <c r="A56" s="148"/>
       <c r="B56" s="91" t="s">
         <v>11</v>
       </c>
@@ -35969,7 +35959,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="146"/>
+      <c r="A57" s="148"/>
       <c r="B57" s="89" t="s">
         <v>123</v>
       </c>
@@ -35988,7 +35978,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="146"/>
+      <c r="A58" s="148"/>
       <c r="B58" s="89" t="s">
         <v>49</v>
       </c>
@@ -36007,7 +35997,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="146"/>
+      <c r="A59" s="148"/>
       <c r="B59" s="89" t="s">
         <v>124</v>
       </c>
@@ -36047,7 +36037,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="146" t="s">
+      <c r="A61" s="148" t="s">
         <v>148</v>
       </c>
       <c r="B61" s="89" t="s">
@@ -36068,7 +36058,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="146"/>
+      <c r="A62" s="148"/>
       <c r="B62" s="91" t="s">
         <v>10</v>
       </c>
@@ -36087,7 +36077,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="146" t="s">
+      <c r="A63" s="148" t="s">
         <v>158</v>
       </c>
       <c r="B63" s="89" t="s">
@@ -36108,7 +36098,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="146"/>
+      <c r="A64" s="148"/>
       <c r="B64" s="89" t="s">
         <v>126</v>
       </c>
@@ -36127,7 +36117,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="146"/>
+      <c r="A65" s="148"/>
       <c r="B65" s="89" t="s">
         <v>78</v>
       </c>
@@ -36146,7 +36136,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="146"/>
+      <c r="A66" s="148"/>
       <c r="B66" s="91" t="s">
         <v>24</v>
       </c>
@@ -36165,7 +36155,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="146"/>
+      <c r="A67" s="148"/>
       <c r="B67" s="89" t="s">
         <v>127</v>
       </c>
@@ -36184,7 +36174,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="146"/>
+      <c r="A68" s="148"/>
       <c r="B68" s="89" t="s">
         <v>129</v>
       </c>
@@ -36203,7 +36193,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="146"/>
+      <c r="A69" s="148"/>
       <c r="B69" s="89" t="s">
         <v>77</v>
       </c>
@@ -36222,7 +36212,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="146"/>
+      <c r="A70" s="148"/>
       <c r="B70" s="89" t="s">
         <v>128</v>
       </c>
@@ -36241,7 +36231,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="146"/>
+      <c r="A71" s="148"/>
       <c r="B71" s="89" t="s">
         <v>50</v>
       </c>
@@ -36260,7 +36250,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="146"/>
+      <c r="A72" s="148"/>
       <c r="B72" s="89" t="s">
         <v>105</v>
       </c>
@@ -36279,7 +36269,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="146" t="s">
+      <c r="A73" s="148" t="s">
         <v>159</v>
       </c>
       <c r="B73" s="89" t="s">
@@ -36300,7 +36290,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="146"/>
+      <c r="A74" s="148"/>
       <c r="B74" s="91" t="s">
         <v>25</v>
       </c>
@@ -36340,7 +36330,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="146" t="s">
+      <c r="A76" s="148" t="s">
         <v>150</v>
       </c>
       <c r="B76" s="89" t="s">
@@ -36361,7 +36351,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="146"/>
+      <c r="A77" s="148"/>
       <c r="B77" s="91" t="s">
         <v>12</v>
       </c>
@@ -36380,7 +36370,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="146" t="s">
+      <c r="A78" s="148" t="s">
         <v>26</v>
       </c>
       <c r="B78" s="89" t="s">
@@ -36401,7 +36391,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="146"/>
+      <c r="A79" s="148"/>
       <c r="B79" s="89" t="s">
         <v>132</v>
       </c>
@@ -36420,7 +36410,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="146"/>
+      <c r="A80" s="148"/>
       <c r="B80" s="91" t="s">
         <v>26</v>
       </c>
@@ -36439,7 +36429,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="146"/>
+      <c r="A81" s="148"/>
       <c r="B81" s="89" t="s">
         <v>79</v>
       </c>
@@ -36458,7 +36448,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="146"/>
+      <c r="A82" s="148"/>
       <c r="B82" s="89" t="s">
         <v>54</v>
       </c>
@@ -36477,7 +36467,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="146" t="s">
+      <c r="A83" s="148" t="s">
         <v>174</v>
       </c>
       <c r="B83" s="89" t="s">
@@ -36498,7 +36488,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="146"/>
+      <c r="A84" s="148"/>
       <c r="B84" s="89" t="s">
         <v>133</v>
       </c>
@@ -36517,7 +36507,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="146"/>
+      <c r="A85" s="148"/>
       <c r="B85" s="89" t="s">
         <v>107</v>
       </c>
@@ -36536,7 +36526,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="146"/>
+      <c r="A86" s="148"/>
       <c r="B86" s="89" t="s">
         <v>55</v>
       </c>
@@ -36555,7 +36545,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="146"/>
+      <c r="A87" s="148"/>
       <c r="B87" s="89" t="s">
         <v>67</v>
       </c>
@@ -36595,7 +36585,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="146" t="s">
+      <c r="A89" s="148" t="s">
         <v>14</v>
       </c>
       <c r="B89" s="91" t="s">
@@ -36616,7 +36606,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="146"/>
+      <c r="A90" s="148"/>
       <c r="B90" s="89" t="s">
         <v>93</v>
       </c>
@@ -36635,7 +36625,7 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="146" t="s">
+      <c r="A91" s="148" t="s">
         <v>160</v>
       </c>
       <c r="B91" s="89" t="s">
@@ -36656,7 +36646,7 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="146"/>
+      <c r="A92" s="148"/>
       <c r="B92" s="91" t="s">
         <v>80</v>
       </c>
@@ -36675,7 +36665,7 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="146"/>
+      <c r="A93" s="148"/>
       <c r="B93" s="89" t="s">
         <v>134</v>
       </c>
@@ -36694,7 +36684,7 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="146"/>
+      <c r="A94" s="148"/>
       <c r="B94" s="89" t="s">
         <v>94</v>
       </c>
@@ -36713,7 +36703,7 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="146" t="s">
+      <c r="A95" s="148" t="s">
         <v>151</v>
       </c>
       <c r="B95" s="89" t="s">
@@ -36734,7 +36724,7 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="146"/>
+      <c r="A96" s="148"/>
       <c r="B96" s="89" t="s">
         <v>135</v>
       </c>
@@ -36753,7 +36743,7 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="146"/>
+      <c r="A97" s="148"/>
       <c r="B97" s="89" t="s">
         <v>56</v>
       </c>
@@ -36772,7 +36762,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="146"/>
+      <c r="A98" s="148"/>
       <c r="B98" s="91" t="s">
         <v>15</v>
       </c>
@@ -36791,7 +36781,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="146" t="s">
+      <c r="A99" s="148" t="s">
         <v>168</v>
       </c>
       <c r="B99" s="91" t="s">
@@ -36812,7 +36802,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="146"/>
+      <c r="A100" s="148"/>
       <c r="B100" s="89" t="s">
         <v>137</v>
       </c>
@@ -36831,7 +36821,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="146"/>
+      <c r="A101" s="148"/>
       <c r="B101" s="89" t="s">
         <v>136</v>
       </c>
@@ -36850,7 +36840,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="146"/>
+      <c r="A102" s="148"/>
       <c r="B102" s="89" t="s">
         <v>96</v>
       </c>
@@ -36869,7 +36859,7 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="146"/>
+      <c r="A103" s="148"/>
       <c r="B103" s="89" t="s">
         <v>97</v>
       </c>
@@ -36888,7 +36878,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="146" t="s">
+      <c r="A104" s="148" t="s">
         <v>169</v>
       </c>
       <c r="B104" s="89" t="s">
@@ -36909,7 +36899,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="146"/>
+      <c r="A105" s="148"/>
       <c r="B105" s="89" t="s">
         <v>81</v>
       </c>
@@ -36928,7 +36918,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="146"/>
+      <c r="A106" s="148"/>
       <c r="B106" s="89" t="s">
         <v>57</v>
       </c>
@@ -36947,7 +36937,7 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="146"/>
+      <c r="A107" s="148"/>
       <c r="B107" s="92" t="s">
         <v>38</v>
       </c>
@@ -36966,7 +36956,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="146"/>
+      <c r="A108" s="148"/>
       <c r="B108" s="89" t="s">
         <v>139</v>
       </c>
@@ -36985,7 +36975,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="146"/>
+      <c r="A109" s="148"/>
       <c r="B109" s="89" t="s">
         <v>99</v>
       </c>
@@ -37004,7 +36994,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="146"/>
+      <c r="A110" s="148"/>
       <c r="B110" s="89" t="s">
         <v>98</v>
       </c>
@@ -37023,7 +37013,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="146"/>
+      <c r="A111" s="148"/>
       <c r="B111" s="89" t="s">
         <v>140</v>
       </c>
@@ -37042,7 +37032,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="146"/>
+      <c r="A112" s="148"/>
       <c r="B112" s="89" t="s">
         <v>100</v>
       </c>
@@ -37061,7 +37051,7 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="146" t="s">
+      <c r="A113" s="148" t="s">
         <v>161</v>
       </c>
       <c r="B113" s="89" t="s">
@@ -37082,7 +37072,7 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="146"/>
+      <c r="A114" s="148"/>
       <c r="B114" s="92" t="s">
         <v>28</v>
       </c>
@@ -37101,7 +37091,7 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="146" t="s">
+      <c r="A115" s="148" t="s">
         <v>163</v>
       </c>
       <c r="B115" s="89" t="s">
@@ -37122,7 +37112,7 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="146"/>
+      <c r="A116" s="148"/>
       <c r="B116" s="91" t="s">
         <v>101</v>
       </c>
@@ -37141,7 +37131,7 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="146"/>
+      <c r="A117" s="148"/>
       <c r="B117" s="89" t="s">
         <v>58</v>
       </c>
@@ -37160,7 +37150,7 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" s="146"/>
+      <c r="A118" s="148"/>
       <c r="B118" s="89" t="s">
         <v>59</v>
       </c>
@@ -37179,7 +37169,7 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="146"/>
+      <c r="A119" s="148"/>
       <c r="B119" s="89" t="s">
         <v>30</v>
       </c>
@@ -37219,7 +37209,7 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" s="146" t="s">
+      <c r="A121" s="148" t="s">
         <v>179</v>
       </c>
       <c r="B121" s="89" t="s">
@@ -37240,7 +37230,7 @@
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122" s="146"/>
+      <c r="A122" s="148"/>
       <c r="B122" s="89" t="s">
         <v>60</v>
       </c>
@@ -37259,7 +37249,7 @@
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" s="146" t="s">
+      <c r="A123" s="148" t="s">
         <v>164</v>
       </c>
       <c r="B123" s="89" t="s">
@@ -37280,7 +37270,7 @@
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" s="146"/>
+      <c r="A124" s="148"/>
       <c r="B124" s="89" t="s">
         <v>62</v>
       </c>
@@ -37299,7 +37289,7 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" s="146"/>
+      <c r="A125" s="148"/>
       <c r="B125" s="89" t="s">
         <v>63</v>
       </c>
@@ -37318,7 +37308,7 @@
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="146"/>
+      <c r="A126" s="148"/>
       <c r="B126" s="89" t="s">
         <v>110</v>
       </c>
@@ -37337,7 +37327,7 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" s="146"/>
+      <c r="A127" s="148"/>
       <c r="B127" s="89" t="s">
         <v>64</v>
       </c>
@@ -37356,7 +37346,7 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="146"/>
+      <c r="A128" s="148"/>
       <c r="B128" s="89" t="s">
         <v>61</v>
       </c>
@@ -37375,7 +37365,7 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="146"/>
+      <c r="A129" s="148"/>
       <c r="B129" s="89" t="s">
         <v>33</v>
       </c>
@@ -37394,7 +37384,7 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" s="146"/>
+      <c r="A130" s="148"/>
       <c r="B130" s="89" t="s">
         <v>142</v>
       </c>
@@ -37413,7 +37403,7 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" s="146"/>
+      <c r="A131" s="148"/>
       <c r="B131" s="89" t="s">
         <v>83</v>
       </c>
@@ -37432,7 +37422,7 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="146"/>
+      <c r="A132" s="148"/>
       <c r="B132" s="89" t="s">
         <v>32</v>
       </c>
@@ -37451,7 +37441,7 @@
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="146"/>
+      <c r="A133" s="148"/>
       <c r="B133" s="91" t="s">
         <v>31</v>
       </c>
@@ -37491,7 +37481,7 @@
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" s="146" t="s">
+      <c r="A135" s="148" t="s">
         <v>175</v>
       </c>
       <c r="B135" s="89" t="s">
@@ -37512,7 +37502,7 @@
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136" s="146"/>
+      <c r="A136" s="148"/>
       <c r="B136" s="91" t="s">
         <v>66</v>
       </c>
@@ -37532,6 +37522,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="A83:A87"/>
     <mergeCell ref="A121:A122"/>
     <mergeCell ref="A123:A133"/>
     <mergeCell ref="A135:A136"/>
@@ -37541,15 +37540,6 @@
     <mergeCell ref="A104:A112"/>
     <mergeCell ref="A113:A114"/>
     <mergeCell ref="A115:A119"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A82"/>
-    <mergeCell ref="A83:A87"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C136">
     <cfRule type="colorScale" priority="6">
@@ -37613,7 +37603,7 @@
       <selection activeCell="I192" sqref="I192"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
@@ -40680,11 +40670,11 @@
   <dimension ref="A1:L136"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.5703125" customWidth="1"/>
     <col min="2" max="2" width="51.140625" bestFit="1" customWidth="1"/>
@@ -42734,7 +42724,7 @@
       <selection activeCell="U151" sqref="U151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="44.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
@@ -44247,21 +44237,21 @@
       </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F140" s="147" t="s">
+      <c r="F140" s="149" t="s">
         <v>309</v>
       </c>
-      <c r="G140" s="147"/>
-      <c r="H140" s="147"/>
-      <c r="J140" s="147" t="s">
+      <c r="G140" s="149"/>
+      <c r="H140" s="149"/>
+      <c r="J140" s="149" t="s">
         <v>317</v>
       </c>
-      <c r="K140" s="147"/>
-      <c r="L140" s="147"/>
-      <c r="M140" s="147"/>
-      <c r="O140" s="147" t="s">
+      <c r="K140" s="149"/>
+      <c r="L140" s="149"/>
+      <c r="M140" s="149"/>
+      <c r="O140" s="149" t="s">
         <v>318</v>
       </c>
-      <c r="P140" s="147"/>
+      <c r="P140" s="149"/>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F141" s="3" t="s">
@@ -44778,7 +44768,7 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.140625" style="7" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
@@ -44801,7 +44791,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="150" t="s">
         <v>146</v>
       </c>
       <c r="B2" t="s">
@@ -44815,7 +44805,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="148"/>
+      <c r="A3" s="150"/>
       <c r="B3" t="s">
         <v>69</v>
       </c>
@@ -44827,7 +44817,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="148" t="s">
+      <c r="A4" s="150" t="s">
         <v>177</v>
       </c>
       <c r="B4" t="s">
@@ -44841,7 +44831,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="148"/>
+      <c r="A5" s="150"/>
       <c r="B5" s="12" t="s">
         <v>84</v>
       </c>
@@ -44853,7 +44843,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="148"/>
+      <c r="A6" s="150"/>
       <c r="B6" t="s">
         <v>102</v>
       </c>
@@ -44865,7 +44855,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="148" t="s">
+      <c r="A7" s="150" t="s">
         <v>71</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -44879,7 +44869,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="148"/>
+      <c r="A8" s="150"/>
       <c r="B8" t="s">
         <v>85</v>
       </c>
@@ -44905,7 +44895,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="148" t="s">
+      <c r="A10" s="150" t="s">
         <v>170</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -44919,7 +44909,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="148"/>
+      <c r="A11" s="150"/>
       <c r="B11" t="s">
         <v>42</v>
       </c>
@@ -44931,7 +44921,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="148"/>
+      <c r="A12" s="150"/>
       <c r="B12" t="s">
         <v>72</v>
       </c>
@@ -44943,7 +44933,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="148" t="s">
+      <c r="A13" s="150" t="s">
         <v>155</v>
       </c>
       <c r="B13" t="s">
@@ -44957,7 +44947,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="148"/>
+      <c r="A14" s="150"/>
       <c r="B14" t="s">
         <v>119</v>
       </c>
@@ -45011,7 +45001,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="148" t="s">
+      <c r="A18" s="150" t="s">
         <v>160</v>
       </c>
       <c r="B18" t="s">
@@ -45025,7 +45015,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="148"/>
+      <c r="A19" s="150"/>
       <c r="B19" s="12" t="s">
         <v>80</v>
       </c>
@@ -45037,7 +45027,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="148"/>
+      <c r="A20" s="150"/>
       <c r="B20" t="s">
         <v>94</v>
       </c>
@@ -45049,7 +45039,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="148"/>
+      <c r="A21" s="150"/>
       <c r="B21" t="s">
         <v>134</v>
       </c>
@@ -45061,7 +45051,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="148" t="s">
+      <c r="A22" s="150" t="s">
         <v>168</v>
       </c>
       <c r="B22" s="12" t="s">
@@ -45075,7 +45065,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="148"/>
+      <c r="A23" s="150"/>
       <c r="B23" t="s">
         <v>96</v>
       </c>
@@ -45087,7 +45077,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="148"/>
+      <c r="A24" s="150"/>
       <c r="B24" t="s">
         <v>97</v>
       </c>
@@ -45099,7 +45089,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="148"/>
+      <c r="A25" s="150"/>
       <c r="B25" t="s">
         <v>136</v>
       </c>
@@ -45111,7 +45101,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="148"/>
+      <c r="A26" s="150"/>
       <c r="B26" t="s">
         <v>137</v>
       </c>
@@ -45123,7 +45113,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="148" t="s">
+      <c r="A27" s="150" t="s">
         <v>169</v>
       </c>
       <c r="B27" t="s">
@@ -45137,7 +45127,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="148"/>
+      <c r="A28" s="150"/>
       <c r="B28" t="s">
         <v>81</v>
       </c>
@@ -45149,7 +45139,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="148"/>
+      <c r="A29" s="150"/>
       <c r="B29" t="s">
         <v>98</v>
       </c>
@@ -45161,7 +45151,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="148"/>
+      <c r="A30" s="150"/>
       <c r="B30" t="s">
         <v>140</v>
       </c>
@@ -45215,7 +45205,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="148" t="s">
+      <c r="A34" s="150" t="s">
         <v>164</v>
       </c>
       <c r="B34" t="s">
@@ -45229,7 +45219,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="148"/>
+      <c r="A35" s="150"/>
       <c r="B35" t="s">
         <v>64</v>
       </c>
@@ -45241,7 +45231,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="148"/>
+      <c r="A36" s="150"/>
       <c r="B36" t="s">
         <v>62</v>
       </c>
@@ -45253,7 +45243,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="148"/>
+      <c r="A37" s="150"/>
       <c r="B37" t="s">
         <v>83</v>
       </c>
@@ -45304,7 +45294,7 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
@@ -45326,7 +45316,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="151" t="s">
         <v>146</v>
       </c>
       <c r="B2" t="s">
@@ -45340,7 +45330,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="149"/>
+      <c r="A3" s="151"/>
       <c r="B3" s="12" t="s">
         <v>234</v>
       </c>
@@ -45352,7 +45342,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="149"/>
+      <c r="A4" s="151"/>
       <c r="B4" t="s">
         <v>69</v>
       </c>
@@ -45364,7 +45354,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="149" t="s">
+      <c r="A5" s="151" t="s">
         <v>169</v>
       </c>
       <c r="B5" t="s">
@@ -45378,7 +45368,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="149"/>
+      <c r="A6" s="151"/>
       <c r="B6" t="s">
         <v>100</v>
       </c>
@@ -45390,7 +45380,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="149"/>
+      <c r="A7" s="151"/>
       <c r="B7" t="s">
         <v>138</v>
       </c>
@@ -45402,7 +45392,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="149"/>
+      <c r="A8" s="151"/>
       <c r="B8" t="s">
         <v>139</v>
       </c>
@@ -45414,7 +45404,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="149"/>
+      <c r="A9" s="151"/>
       <c r="B9" t="s">
         <v>140</v>
       </c>
@@ -45426,7 +45416,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="149" t="s">
+      <c r="A10" s="151" t="s">
         <v>21</v>
       </c>
       <c r="B10" t="s">
@@ -45441,7 +45431,7 @@
       <c r="E10" s="42"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="149"/>
+      <c r="A11" s="151"/>
       <c r="B11" s="12" t="s">
         <v>235</v>
       </c>
@@ -45454,7 +45444,7 @@
       <c r="E11" s="42"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="149"/>
+      <c r="A12" s="151"/>
       <c r="B12" t="s">
         <v>88</v>
       </c>
@@ -45467,7 +45457,7 @@
       <c r="E12" s="42"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="149"/>
+      <c r="A13" s="151"/>
       <c r="B13" t="s">
         <v>89</v>
       </c>
@@ -45480,7 +45470,7 @@
       <c r="E13" s="42"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="149"/>
+      <c r="A14" s="151"/>
       <c r="B14" t="s">
         <v>113</v>
       </c>
@@ -45493,7 +45483,7 @@
       <c r="E14" s="42"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="149" t="s">
+      <c r="A15" s="151" t="s">
         <v>153</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -45508,7 +45498,7 @@
       <c r="E15" s="42"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="149"/>
+      <c r="A16" s="151"/>
       <c r="B16" t="s">
         <v>39</v>
       </c>
@@ -45521,7 +45511,7 @@
       <c r="E16" s="42"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="149"/>
+      <c r="A17" s="151"/>
       <c r="B17" t="s">
         <v>43</v>
       </c>
@@ -45534,7 +45524,7 @@
       <c r="E17" s="42"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="149"/>
+      <c r="A18" s="151"/>
       <c r="B18" t="s">
         <v>111</v>
       </c>
@@ -45547,7 +45537,7 @@
       <c r="E18" s="42"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="149"/>
+      <c r="A19" s="151"/>
       <c r="B19" t="s">
         <v>86</v>
       </c>
@@ -45560,7 +45550,7 @@
       <c r="E19" s="42"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="149" t="s">
+      <c r="A20" s="151" t="s">
         <v>150</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -45575,7 +45565,7 @@
       <c r="E20" s="42"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="149"/>
+      <c r="A21" s="151"/>
       <c r="B21" t="s">
         <v>130</v>
       </c>
@@ -45588,7 +45578,7 @@
       <c r="E21" s="42"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="149" t="s">
+      <c r="A22" s="151" t="s">
         <v>163</v>
       </c>
       <c r="B22" t="s">
@@ -45603,7 +45593,7 @@
       <c r="E22" s="42"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="149"/>
+      <c r="A23" s="151"/>
       <c r="B23" t="s">
         <v>58</v>
       </c>
@@ -45616,7 +45606,7 @@
       <c r="E23" s="42"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="149"/>
+      <c r="A24" s="151"/>
       <c r="B24" t="s">
         <v>59</v>
       </c>
@@ -45629,7 +45619,7 @@
       <c r="E24" s="42"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="149"/>
+      <c r="A25" s="151"/>
       <c r="B25" s="12" t="s">
         <v>238</v>
       </c>
@@ -45645,7 +45635,7 @@
       <c r="D26" s="23"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="149" t="s">
+      <c r="A27" s="151" t="s">
         <v>154</v>
       </c>
       <c r="B27" t="s">
@@ -45659,7 +45649,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="149"/>
+      <c r="A28" s="151"/>
       <c r="B28" t="s">
         <v>87</v>
       </c>
@@ -45671,7 +45661,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="149"/>
+      <c r="A29" s="151"/>
       <c r="B29" t="s">
         <v>112</v>
       </c>
